--- a/emulator/compatibility_list.xlsx
+++ b/emulator/compatibility_list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2865</definedName>
+    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2863</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20299,9 +20299,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
@@ -23071,6 +23071,46 @@
       </c>
       <c r="P139" t="s">
         <v>5859</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="K140" t="s">
+        <v>60</v>
+      </c>
+      <c r="P140" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+      <c r="K141" t="s">
+        <v>60</v>
+      </c>
+      <c r="P141" t="s">
+        <v>5150</v>
       </c>
     </row>
   </sheetData>
@@ -23188,10 +23228,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2865"/>
+  <dimension ref="A1:P2863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="A261" sqref="A261:XFD264"/>
+    <sheetView tabSelected="1" topLeftCell="A2537" workbookViewId="0">
+      <selection activeCell="A2552" sqref="A2552:XFD2553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -78403,10 +78443,10 @@
     </row>
     <row r="2552" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2552" s="1" t="s">
-        <v>5146</v>
+        <v>5151</v>
       </c>
       <c r="B2552" t="s">
-        <v>5147</v>
+        <v>5152</v>
       </c>
       <c r="C2552" t="s">
         <v>2</v>
@@ -78418,15 +78458,15 @@
         <v>60</v>
       </c>
       <c r="P2552" t="s">
-        <v>5148</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2553" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2553" s="1" t="s">
-        <v>5149</v>
+        <v>5154</v>
       </c>
       <c r="B2553" t="s">
-        <v>5147</v>
+        <v>5152</v>
       </c>
       <c r="C2553" t="s">
         <v>2</v>
@@ -78438,52 +78478,58 @@
         <v>60</v>
       </c>
       <c r="P2553" t="s">
-        <v>5150</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="2554" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2554" s="1" t="s">
-        <v>5151</v>
+        <v>5156</v>
       </c>
       <c r="B2554" t="s">
-        <v>5152</v>
-      </c>
-      <c r="C2554" t="s">
-        <v>2</v>
+        <v>5157</v>
+      </c>
+      <c r="C2554">
+        <v>68000</v>
       </c>
       <c r="D2554" t="s">
-        <v>2</v>
+        <v>651</v>
       </c>
       <c r="K2554" t="s">
-        <v>60</v>
+        <v>370</v>
+      </c>
+      <c r="L2554" t="s">
+        <v>2076</v>
       </c>
       <c r="P2554" t="s">
-        <v>5153</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="2555" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2555" s="1" t="s">
-        <v>5154</v>
+        <v>5159</v>
       </c>
       <c r="B2555" t="s">
-        <v>5152</v>
-      </c>
-      <c r="C2555" t="s">
-        <v>2</v>
+        <v>5160</v>
+      </c>
+      <c r="C2555">
+        <v>68000</v>
       </c>
       <c r="D2555" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="K2555" t="s">
-        <v>60</v>
+        <v>370</v>
+      </c>
+      <c r="L2555" t="s">
+        <v>1688</v>
       </c>
       <c r="P2555" t="s">
-        <v>5155</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="2556" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2556" s="1" t="s">
-        <v>5156</v>
+        <v>5162</v>
       </c>
       <c r="B2556" t="s">
         <v>5157</v>
@@ -78491,62 +78537,56 @@
       <c r="C2556">
         <v>68000</v>
       </c>
-      <c r="D2556" t="s">
-        <v>651</v>
-      </c>
       <c r="K2556" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2556" t="s">
         <v>2076</v>
       </c>
       <c r="P2556" t="s">
-        <v>5158</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="2557" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2557" s="1" t="s">
-        <v>5159</v>
+        <v>5163</v>
       </c>
       <c r="B2557" t="s">
-        <v>5160</v>
+        <v>5164</v>
       </c>
       <c r="C2557">
         <v>68000</v>
       </c>
-      <c r="D2557" t="s">
-        <v>168</v>
-      </c>
       <c r="K2557" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="L2557" t="s">
-        <v>1688</v>
+        <v>2076</v>
       </c>
       <c r="P2557" t="s">
-        <v>5161</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2558" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2558" s="1" t="s">
-        <v>5162</v>
+        <v>5166</v>
       </c>
       <c r="B2558" t="s">
-        <v>5157</v>
+        <v>5164</v>
       </c>
       <c r="C2558">
         <v>68000</v>
       </c>
       <c r="K2558" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2558" t="s">
         <v>2076</v>
       </c>
       <c r="P2558" t="s">
-        <v>6537</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2559" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2559" s="1" t="s">
-        <v>5163</v>
+        <v>5168</v>
       </c>
       <c r="B2559" t="s">
         <v>5164</v>
@@ -78554,19 +78594,19 @@
       <c r="C2559">
         <v>68000</v>
       </c>
+      <c r="D2559" t="s">
+        <v>2</v>
+      </c>
       <c r="K2559" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2559" t="s">
-        <v>2076</v>
+        <v>693</v>
       </c>
       <c r="P2559" t="s">
-        <v>5165</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="2560" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2560" s="1" t="s">
-        <v>5166</v>
+        <v>5170</v>
       </c>
       <c r="B2560" t="s">
         <v>5164</v>
@@ -78575,18 +78615,15 @@
         <v>68000</v>
       </c>
       <c r="K2560" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2560" t="s">
-        <v>2076</v>
+        <v>1962</v>
       </c>
       <c r="P2560" t="s">
-        <v>5167</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2561" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2561" s="1" t="s">
-        <v>5168</v>
+        <v>5172</v>
       </c>
       <c r="B2561" t="s">
         <v>5164</v>
@@ -78594,133 +78631,142 @@
       <c r="C2561">
         <v>68000</v>
       </c>
-      <c r="D2561" t="s">
-        <v>2</v>
-      </c>
       <c r="K2561" t="s">
-        <v>693</v>
+        <v>1962</v>
       </c>
       <c r="P2561" t="s">
-        <v>5169</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="2562" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2562" s="1" t="s">
-        <v>5170</v>
+        <v>5173</v>
       </c>
       <c r="B2562" t="s">
-        <v>5164</v>
+        <v>5174</v>
       </c>
       <c r="C2562">
         <v>68000</v>
       </c>
       <c r="K2562" t="s">
-        <v>1962</v>
+        <v>2076</v>
       </c>
       <c r="P2562" t="s">
-        <v>5171</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2563" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2563" s="1" t="s">
-        <v>5172</v>
+        <v>5176</v>
       </c>
       <c r="B2563" t="s">
-        <v>5164</v>
-      </c>
-      <c r="C2563">
-        <v>68000</v>
+        <v>5177</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2563" t="s">
+        <v>2</v>
       </c>
       <c r="K2563" t="s">
-        <v>1962</v>
+        <v>357</v>
+      </c>
+      <c r="L2563" t="s">
+        <v>2076</v>
       </c>
       <c r="P2563" t="s">
-        <v>6538</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="2564" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2564" s="1" t="s">
-        <v>5173</v>
+        <v>5179</v>
       </c>
       <c r="B2564" t="s">
-        <v>5174</v>
-      </c>
-      <c r="C2564">
-        <v>68000</v>
+        <v>5180</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>2</v>
       </c>
       <c r="K2564" t="s">
-        <v>2076</v>
+        <v>60</v>
       </c>
       <c r="P2564" t="s">
-        <v>5175</v>
+        <v>6539</v>
       </c>
     </row>
     <row r="2565" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2565" s="1" t="s">
-        <v>5176</v>
+        <v>5181</v>
       </c>
       <c r="B2565" t="s">
-        <v>5177</v>
-      </c>
-      <c r="C2565" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2565" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2565" t="s">
-        <v>2</v>
+        <v>5182</v>
+      </c>
+      <c r="C2565">
+        <v>68000</v>
       </c>
       <c r="K2565" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
       <c r="L2565" t="s">
-        <v>2076</v>
+        <v>1688</v>
       </c>
       <c r="P2565" t="s">
-        <v>5178</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="2566" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2566" s="1" t="s">
-        <v>5179</v>
+        <v>5183</v>
       </c>
       <c r="B2566" t="s">
-        <v>5180</v>
-      </c>
-      <c r="C2566" t="s">
-        <v>2</v>
+        <v>5184</v>
+      </c>
+      <c r="C2566">
+        <v>68000</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>5185</v>
       </c>
       <c r="K2566" t="s">
-        <v>60</v>
+        <v>357</v>
+      </c>
+      <c r="L2566" t="s">
+        <v>370</v>
       </c>
       <c r="P2566" t="s">
-        <v>6539</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="2567" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2567" s="1" t="s">
-        <v>5181</v>
+        <v>5186</v>
       </c>
       <c r="B2567" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="C2567">
         <v>68000</v>
       </c>
+      <c r="D2567" t="s">
+        <v>5185</v>
+      </c>
       <c r="K2567" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
       <c r="L2567" t="s">
-        <v>1688</v>
+        <v>370</v>
       </c>
       <c r="P2567" t="s">
-        <v>6540</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="2568" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2568" s="1" t="s">
-        <v>5183</v>
+        <v>5187</v>
       </c>
       <c r="B2568" t="s">
         <v>5184</v>
@@ -78732,18 +78778,15 @@
         <v>5185</v>
       </c>
       <c r="K2568" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2568" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="P2568" t="s">
-        <v>6541</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="2569" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2569" s="1" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
       <c r="B2569" t="s">
         <v>5184</v>
@@ -78755,18 +78798,15 @@
         <v>5185</v>
       </c>
       <c r="K2569" t="s">
-        <v>357</v>
-      </c>
-      <c r="L2569" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="P2569" t="s">
-        <v>6542</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2570" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2570" s="1" t="s">
-        <v>5187</v>
+        <v>5190</v>
       </c>
       <c r="B2570" t="s">
         <v>5184</v>
@@ -78781,12 +78821,12 @@
         <v>97</v>
       </c>
       <c r="P2570" t="s">
-        <v>6543</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2571" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2571" s="1" t="s">
-        <v>5188</v>
+        <v>5192</v>
       </c>
       <c r="B2571" t="s">
         <v>5184</v>
@@ -78801,12 +78841,12 @@
         <v>97</v>
       </c>
       <c r="P2571" t="s">
-        <v>5189</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2572" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2572" s="1" t="s">
-        <v>5190</v>
+        <v>5194</v>
       </c>
       <c r="B2572" t="s">
         <v>5184</v>
@@ -78814,19 +78854,16 @@
       <c r="C2572">
         <v>68000</v>
       </c>
-      <c r="D2572" t="s">
-        <v>5185</v>
-      </c>
       <c r="K2572" t="s">
         <v>97</v>
       </c>
       <c r="P2572" t="s">
-        <v>5191</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="2573" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2573" s="1" t="s">
-        <v>5192</v>
+        <v>5195</v>
       </c>
       <c r="B2573" t="s">
         <v>5184</v>
@@ -78841,12 +78878,12 @@
         <v>97</v>
       </c>
       <c r="P2573" t="s">
-        <v>5193</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2574" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2574" s="1" t="s">
-        <v>5194</v>
+        <v>5197</v>
       </c>
       <c r="B2574" t="s">
         <v>5184</v>
@@ -78854,16 +78891,19 @@
       <c r="C2574">
         <v>68000</v>
       </c>
+      <c r="D2574" t="s">
+        <v>5185</v>
+      </c>
       <c r="K2574" t="s">
         <v>97</v>
       </c>
       <c r="P2574" t="s">
-        <v>6544</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="2575" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2575" s="1" t="s">
-        <v>5195</v>
+        <v>5199</v>
       </c>
       <c r="B2575" t="s">
         <v>5184</v>
@@ -78871,19 +78911,16 @@
       <c r="C2575">
         <v>68000</v>
       </c>
-      <c r="D2575" t="s">
-        <v>5185</v>
-      </c>
       <c r="K2575" t="s">
         <v>97</v>
       </c>
       <c r="P2575" t="s">
-        <v>5196</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2576" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2576" s="1" t="s">
-        <v>5197</v>
+        <v>5201</v>
       </c>
       <c r="B2576" t="s">
         <v>5184</v>
@@ -78891,19 +78928,16 @@
       <c r="C2576">
         <v>68000</v>
       </c>
-      <c r="D2576" t="s">
-        <v>5185</v>
-      </c>
       <c r="K2576" t="s">
         <v>97</v>
       </c>
       <c r="P2576" t="s">
-        <v>5198</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2577" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2577" s="1" t="s">
-        <v>5199</v>
+        <v>5203</v>
       </c>
       <c r="B2577" t="s">
         <v>5184</v>
@@ -78915,12 +78949,12 @@
         <v>97</v>
       </c>
       <c r="P2577" t="s">
-        <v>5200</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2578" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2578" s="1" t="s">
-        <v>5201</v>
+        <v>5205</v>
       </c>
       <c r="B2578" t="s">
         <v>5184</v>
@@ -78932,12 +78966,12 @@
         <v>97</v>
       </c>
       <c r="P2578" t="s">
-        <v>5202</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2579" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2579" s="1" t="s">
-        <v>5203</v>
+        <v>5207</v>
       </c>
       <c r="B2579" t="s">
         <v>5184</v>
@@ -78949,12 +78983,12 @@
         <v>97</v>
       </c>
       <c r="P2579" t="s">
-        <v>5204</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="2580" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2580" s="1" t="s">
-        <v>5205</v>
+        <v>5208</v>
       </c>
       <c r="B2580" t="s">
         <v>5184</v>
@@ -78966,12 +79000,12 @@
         <v>97</v>
       </c>
       <c r="P2580" t="s">
-        <v>5206</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="2581" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2581" s="1" t="s">
-        <v>5207</v>
+        <v>5210</v>
       </c>
       <c r="B2581" t="s">
         <v>5184</v>
@@ -78983,12 +79017,12 @@
         <v>97</v>
       </c>
       <c r="P2581" t="s">
-        <v>6545</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="2582" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2582" s="1" t="s">
-        <v>5208</v>
+        <v>5212</v>
       </c>
       <c r="B2582" t="s">
         <v>5184</v>
@@ -79000,12 +79034,12 @@
         <v>97</v>
       </c>
       <c r="P2582" t="s">
-        <v>5209</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="2583" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2583" s="1" t="s">
-        <v>5210</v>
+        <v>5214</v>
       </c>
       <c r="B2583" t="s">
         <v>5184</v>
@@ -79017,12 +79051,12 @@
         <v>97</v>
       </c>
       <c r="P2583" t="s">
-        <v>5211</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2584" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2584" s="1" t="s">
-        <v>5212</v>
+        <v>5216</v>
       </c>
       <c r="B2584" t="s">
         <v>5184</v>
@@ -79034,12 +79068,12 @@
         <v>97</v>
       </c>
       <c r="P2584" t="s">
-        <v>5213</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="2585" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2585" s="1" t="s">
-        <v>5214</v>
+        <v>5217</v>
       </c>
       <c r="B2585" t="s">
         <v>5184</v>
@@ -79051,12 +79085,12 @@
         <v>97</v>
       </c>
       <c r="P2585" t="s">
-        <v>5215</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="2586" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2586" s="1" t="s">
-        <v>5216</v>
+        <v>5218</v>
       </c>
       <c r="B2586" t="s">
         <v>5184</v>
@@ -79068,12 +79102,12 @@
         <v>97</v>
       </c>
       <c r="P2586" t="s">
-        <v>6546</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="2587" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2587" s="1" t="s">
-        <v>5217</v>
+        <v>5220</v>
       </c>
       <c r="B2587" t="s">
         <v>5184</v>
@@ -79085,12 +79119,12 @@
         <v>97</v>
       </c>
       <c r="P2587" t="s">
-        <v>6547</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="2588" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2588" s="1" t="s">
-        <v>5218</v>
+        <v>5222</v>
       </c>
       <c r="B2588" t="s">
         <v>5184</v>
@@ -79102,12 +79136,12 @@
         <v>97</v>
       </c>
       <c r="P2588" t="s">
-        <v>5219</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="2589" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2589" s="1" t="s">
-        <v>5220</v>
+        <v>5224</v>
       </c>
       <c r="B2589" t="s">
         <v>5184</v>
@@ -79119,12 +79153,12 @@
         <v>97</v>
       </c>
       <c r="P2589" t="s">
-        <v>5221</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="2590" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2590" s="1" t="s">
-        <v>5222</v>
+        <v>5226</v>
       </c>
       <c r="B2590" t="s">
         <v>5184</v>
@@ -79136,12 +79170,12 @@
         <v>97</v>
       </c>
       <c r="P2590" t="s">
-        <v>5223</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2591" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2591" s="1" t="s">
-        <v>5224</v>
+        <v>5228</v>
       </c>
       <c r="B2591" t="s">
         <v>5184</v>
@@ -79153,49 +79187,49 @@
         <v>97</v>
       </c>
       <c r="P2591" t="s">
-        <v>5225</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2592" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2592" s="1" t="s">
-        <v>5226</v>
+        <v>5230</v>
       </c>
       <c r="B2592" t="s">
-        <v>5184</v>
+        <v>5231</v>
       </c>
       <c r="C2592">
         <v>68000</v>
       </c>
       <c r="K2592" t="s">
-        <v>97</v>
+        <v>2076</v>
       </c>
       <c r="P2592" t="s">
-        <v>5227</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="2593" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2593" s="1" t="s">
-        <v>5228</v>
+        <v>5232</v>
       </c>
       <c r="B2593" t="s">
-        <v>5184</v>
+        <v>5233</v>
       </c>
       <c r="C2593">
         <v>68000</v>
       </c>
       <c r="K2593" t="s">
-        <v>97</v>
+        <v>2076</v>
       </c>
       <c r="P2593" t="s">
-        <v>5229</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="2594" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2594" s="1" t="s">
-        <v>5230</v>
+        <v>5235</v>
       </c>
       <c r="B2594" t="s">
-        <v>5231</v>
+        <v>5233</v>
       </c>
       <c r="C2594">
         <v>68000</v>
@@ -79204,15 +79238,15 @@
         <v>2076</v>
       </c>
       <c r="P2594" t="s">
-        <v>6548</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="2595" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2595" s="1" t="s">
-        <v>5232</v>
+        <v>5237</v>
       </c>
       <c r="B2595" t="s">
-        <v>5233</v>
+        <v>5238</v>
       </c>
       <c r="C2595">
         <v>68000</v>
@@ -79221,46 +79255,64 @@
         <v>2076</v>
       </c>
       <c r="P2595" t="s">
-        <v>5234</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="2596" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2596" s="1" t="s">
-        <v>5235</v>
+        <v>5240</v>
       </c>
       <c r="B2596" t="s">
-        <v>5233</v>
-      </c>
-      <c r="C2596">
-        <v>68000</v>
+        <v>5241</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2596" t="s">
+        <v>2</v>
       </c>
       <c r="K2596" t="s">
-        <v>2076</v>
+        <v>60</v>
+      </c>
+      <c r="L2596" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M2596" t="s">
+        <v>178</v>
       </c>
       <c r="P2596" t="s">
-        <v>5236</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="2597" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2597" s="1" t="s">
-        <v>5237</v>
+        <v>5243</v>
       </c>
       <c r="B2597" t="s">
-        <v>5238</v>
-      </c>
-      <c r="C2597">
-        <v>68000</v>
+        <v>5241</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2597" t="s">
+        <v>2</v>
       </c>
       <c r="K2597" t="s">
-        <v>2076</v>
+        <v>60</v>
+      </c>
+      <c r="L2597" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M2597" t="s">
+        <v>178</v>
       </c>
       <c r="P2597" t="s">
-        <v>5239</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="2598" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2598" s="1" t="s">
-        <v>5240</v>
+        <v>5245</v>
       </c>
       <c r="B2598" t="s">
         <v>5241</v>
@@ -79281,12 +79333,12 @@
         <v>178</v>
       </c>
       <c r="P2598" t="s">
-        <v>5242</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2599" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2599" s="1" t="s">
-        <v>5243</v>
+        <v>5247</v>
       </c>
       <c r="B2599" t="s">
         <v>5241</v>
@@ -79300,19 +79352,13 @@
       <c r="K2599" t="s">
         <v>60</v>
       </c>
-      <c r="L2599" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M2599" t="s">
-        <v>178</v>
-      </c>
       <c r="P2599" t="s">
-        <v>5244</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2600" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2600" s="1" t="s">
-        <v>5245</v>
+        <v>5249</v>
       </c>
       <c r="B2600" t="s">
         <v>5241</v>
@@ -79326,22 +79372,16 @@
       <c r="K2600" t="s">
         <v>60</v>
       </c>
-      <c r="L2600" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M2600" t="s">
-        <v>178</v>
-      </c>
       <c r="P2600" t="s">
-        <v>5246</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2601" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2601" s="1" t="s">
-        <v>5247</v>
+        <v>5251</v>
       </c>
       <c r="B2601" t="s">
-        <v>5241</v>
+        <v>5252</v>
       </c>
       <c r="C2601" t="s">
         <v>2</v>
@@ -79353,52 +79393,52 @@
         <v>60</v>
       </c>
       <c r="P2601" t="s">
-        <v>5248</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="2602" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2602" s="1" t="s">
-        <v>5249</v>
+        <v>5254</v>
       </c>
       <c r="B2602" t="s">
-        <v>5241</v>
+        <v>5255</v>
       </c>
       <c r="C2602" t="s">
         <v>2</v>
       </c>
       <c r="D2602" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="K2602" t="s">
         <v>60</v>
       </c>
       <c r="P2602" t="s">
-        <v>5250</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="2603" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2603" s="1" t="s">
-        <v>5251</v>
+        <v>5257</v>
       </c>
       <c r="B2603" t="s">
-        <v>5252</v>
+        <v>5255</v>
       </c>
       <c r="C2603" t="s">
         <v>2</v>
       </c>
       <c r="D2603" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="K2603" t="s">
         <v>60</v>
       </c>
       <c r="P2603" t="s">
-        <v>5253</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2604" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2604" s="1" t="s">
-        <v>5254</v>
+        <v>5259</v>
       </c>
       <c r="B2604" t="s">
         <v>5255</v>
@@ -79413,12 +79453,12 @@
         <v>60</v>
       </c>
       <c r="P2604" t="s">
-        <v>5256</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="2605" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2605" s="1" t="s">
-        <v>5257</v>
+        <v>5261</v>
       </c>
       <c r="B2605" t="s">
         <v>5255</v>
@@ -79433,89 +79473,89 @@
         <v>60</v>
       </c>
       <c r="P2605" t="s">
-        <v>5258</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="2606" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2606" s="1" t="s">
-        <v>5259</v>
+        <v>5263</v>
       </c>
       <c r="B2606" t="s">
-        <v>5255</v>
+        <v>5264</v>
       </c>
       <c r="C2606" t="s">
         <v>2</v>
-      </c>
-      <c r="D2606" t="s">
-        <v>168</v>
       </c>
       <c r="K2606" t="s">
         <v>60</v>
       </c>
       <c r="P2606" t="s">
-        <v>5260</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="2607" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2607" s="1" t="s">
-        <v>5261</v>
+        <v>5266</v>
       </c>
       <c r="B2607" t="s">
-        <v>5255</v>
+        <v>5264</v>
       </c>
       <c r="C2607" t="s">
         <v>2</v>
-      </c>
-      <c r="D2607" t="s">
-        <v>168</v>
       </c>
       <c r="K2607" t="s">
         <v>60</v>
       </c>
       <c r="P2607" t="s">
-        <v>5262</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="2608" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2608" s="1" t="s">
-        <v>5263</v>
+        <v>5268</v>
       </c>
       <c r="B2608" t="s">
-        <v>5264</v>
+        <v>5269</v>
       </c>
       <c r="C2608" t="s">
         <v>2</v>
       </c>
+      <c r="D2608" t="s">
+        <v>2</v>
+      </c>
       <c r="K2608" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P2608" t="s">
-        <v>5265</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="2609" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2609" s="1" t="s">
-        <v>5266</v>
+        <v>5271</v>
       </c>
       <c r="B2609" t="s">
-        <v>5264</v>
+        <v>5272</v>
       </c>
       <c r="C2609" t="s">
         <v>2</v>
       </c>
+      <c r="D2609" t="s">
+        <v>2</v>
+      </c>
       <c r="K2609" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P2609" t="s">
-        <v>5267</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="2610" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2610" s="1" t="s">
-        <v>5268</v>
+        <v>5274</v>
       </c>
       <c r="B2610" t="s">
-        <v>5269</v>
+        <v>5272</v>
       </c>
       <c r="C2610" t="s">
         <v>2</v>
@@ -79527,12 +79567,12 @@
         <v>63</v>
       </c>
       <c r="P2610" t="s">
-        <v>5270</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="2611" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2611" s="1" t="s">
-        <v>5271</v>
+        <v>5276</v>
       </c>
       <c r="B2611" t="s">
         <v>5272</v>
@@ -79547,15 +79587,15 @@
         <v>63</v>
       </c>
       <c r="P2611" t="s">
-        <v>5273</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2612" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2612" s="1" t="s">
-        <v>5274</v>
+        <v>5278</v>
       </c>
       <c r="B2612" t="s">
-        <v>5272</v>
+        <v>5279</v>
       </c>
       <c r="C2612" t="s">
         <v>2</v>
@@ -79567,86 +79607,89 @@
         <v>63</v>
       </c>
       <c r="P2612" t="s">
-        <v>5275</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="2613" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2613" s="1" t="s">
-        <v>5276</v>
+        <v>5281</v>
       </c>
       <c r="B2613" t="s">
-        <v>5272</v>
+        <v>5282</v>
       </c>
       <c r="C2613" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2613" t="s">
-        <v>2</v>
+        <v>1485</v>
       </c>
       <c r="K2613" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="P2613" t="s">
-        <v>5277</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="2614" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2614" s="1" t="s">
-        <v>5278</v>
+        <v>5284</v>
       </c>
       <c r="B2614" t="s">
-        <v>5279</v>
+        <v>5282</v>
       </c>
       <c r="C2614" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2614" t="s">
-        <v>2</v>
+        <v>1485</v>
       </c>
       <c r="K2614" t="s">
-        <v>63</v>
+        <v>357</v>
       </c>
       <c r="P2614" t="s">
-        <v>5280</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="2615" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2615" s="1" t="s">
-        <v>5281</v>
+        <v>5286</v>
       </c>
       <c r="B2615" t="s">
-        <v>5282</v>
-      </c>
-      <c r="C2615" t="s">
-        <v>1485</v>
+        <v>5287</v>
+      </c>
+      <c r="C2615">
+        <v>68000</v>
       </c>
       <c r="K2615" t="s">
-        <v>357</v>
+        <v>60</v>
+      </c>
+      <c r="L2615" t="s">
+        <v>2076</v>
       </c>
       <c r="P2615" t="s">
-        <v>5283</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="2616" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2616" s="1" t="s">
-        <v>5284</v>
+        <v>5289</v>
       </c>
       <c r="B2616" t="s">
-        <v>5282</v>
-      </c>
-      <c r="C2616" t="s">
-        <v>1485</v>
+        <v>5287</v>
+      </c>
+      <c r="C2616">
+        <v>68000</v>
+      </c>
+      <c r="D2616" t="s">
+        <v>2</v>
       </c>
       <c r="K2616" t="s">
-        <v>357</v>
+        <v>5290</v>
+      </c>
+      <c r="L2616" t="s">
+        <v>2076</v>
       </c>
       <c r="P2616" t="s">
-        <v>5285</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="2617" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2617" s="1" t="s">
-        <v>5286</v>
+        <v>5291</v>
       </c>
       <c r="B2617" t="s">
         <v>5287</v>
@@ -79654,68 +79697,65 @@
       <c r="C2617">
         <v>68000</v>
       </c>
+      <c r="D2617" t="s">
+        <v>2</v>
+      </c>
       <c r="K2617" t="s">
-        <v>60</v>
+        <v>5290</v>
       </c>
       <c r="L2617" t="s">
         <v>2076</v>
       </c>
       <c r="P2617" t="s">
-        <v>5288</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="2618" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2618" s="1" t="s">
-        <v>5289</v>
+        <v>5293</v>
       </c>
       <c r="B2618" t="s">
-        <v>5287</v>
-      </c>
-      <c r="C2618">
-        <v>68000</v>
+        <v>5294</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>2</v>
       </c>
       <c r="D2618" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="K2618" t="s">
-        <v>5290</v>
-      </c>
-      <c r="L2618" t="s">
-        <v>2076</v>
+        <v>357</v>
       </c>
       <c r="P2618" t="s">
-        <v>6549</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="2619" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2619" s="1" t="s">
-        <v>5291</v>
+        <v>5296</v>
       </c>
       <c r="B2619" t="s">
-        <v>5287</v>
-      </c>
-      <c r="C2619">
-        <v>68000</v>
+        <v>5297</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>2</v>
       </c>
       <c r="D2619" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="K2619" t="s">
-        <v>5290</v>
-      </c>
-      <c r="L2619" t="s">
-        <v>2076</v>
+        <v>1692</v>
       </c>
       <c r="P2619" t="s">
-        <v>5292</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="2620" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2620" s="1" t="s">
-        <v>5293</v>
+        <v>5298</v>
       </c>
       <c r="B2620" t="s">
-        <v>5294</v>
+        <v>5297</v>
       </c>
       <c r="C2620" t="s">
         <v>2</v>
@@ -79724,15 +79764,18 @@
         <v>168</v>
       </c>
       <c r="K2620" t="s">
-        <v>357</v>
+        <v>370</v>
+      </c>
+      <c r="L2620" t="s">
+        <v>60</v>
       </c>
       <c r="P2620" t="s">
-        <v>5295</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2621" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2621" s="1" t="s">
-        <v>5296</v>
+        <v>5300</v>
       </c>
       <c r="B2621" t="s">
         <v>5297</v>
@@ -79744,116 +79787,107 @@
         <v>168</v>
       </c>
       <c r="K2621" t="s">
-        <v>1692</v>
+        <v>370</v>
+      </c>
+      <c r="L2621" t="s">
+        <v>60</v>
       </c>
       <c r="P2621" t="s">
-        <v>6550</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="2622" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2622" s="1" t="s">
-        <v>5298</v>
+        <v>5302</v>
       </c>
       <c r="B2622" t="s">
-        <v>5297</v>
-      </c>
-      <c r="C2622" t="s">
-        <v>2</v>
+        <v>5303</v>
+      </c>
+      <c r="C2622">
+        <v>68000</v>
       </c>
       <c r="D2622" t="s">
         <v>168</v>
       </c>
+      <c r="E2622" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2622" t="s">
+        <v>168</v>
+      </c>
       <c r="K2622" t="s">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="L2622" t="s">
-        <v>60</v>
+        <v>5304</v>
       </c>
       <c r="P2622" t="s">
-        <v>5299</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="2623" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2623" s="1" t="s">
-        <v>5300</v>
+        <v>5306</v>
       </c>
       <c r="B2623" t="s">
-        <v>5297</v>
-      </c>
-      <c r="C2623" t="s">
-        <v>2</v>
+        <v>5303</v>
+      </c>
+      <c r="C2623">
+        <v>68000</v>
       </c>
       <c r="D2623" t="s">
         <v>168</v>
       </c>
+      <c r="E2623" t="s">
+        <v>168</v>
+      </c>
       <c r="K2623" t="s">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="L2623" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="P2623" t="s">
-        <v>5301</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="2624" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2624" s="1" t="s">
-        <v>5302</v>
+        <v>5308</v>
       </c>
       <c r="B2624" t="s">
-        <v>5303</v>
-      </c>
-      <c r="C2624">
-        <v>68000</v>
-      </c>
-      <c r="D2624" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2624" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2624" t="s">
-        <v>168</v>
+        <v>5309</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>2</v>
       </c>
       <c r="K2624" t="s">
-        <v>693</v>
-      </c>
-      <c r="L2624" t="s">
-        <v>5304</v>
+        <v>357</v>
       </c>
       <c r="P2624" t="s">
-        <v>5305</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="2625" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2625" s="1" t="s">
-        <v>5306</v>
+        <v>5311</v>
       </c>
       <c r="B2625" t="s">
-        <v>5303</v>
-      </c>
-      <c r="C2625">
-        <v>68000</v>
-      </c>
-      <c r="D2625" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2625" t="s">
-        <v>168</v>
+        <v>5309</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>2</v>
       </c>
       <c r="K2625" t="s">
-        <v>693</v>
-      </c>
-      <c r="L2625" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P2625" t="s">
-        <v>5307</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="2626" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2626" s="1" t="s">
-        <v>5308</v>
+        <v>5313</v>
       </c>
       <c r="B2626" t="s">
         <v>5309</v>
@@ -79865,12 +79899,12 @@
         <v>357</v>
       </c>
       <c r="P2626" t="s">
-        <v>5310</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="2627" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2627" s="1" t="s">
-        <v>5311</v>
+        <v>5315</v>
       </c>
       <c r="B2627" t="s">
         <v>5309</v>
@@ -79882,12 +79916,12 @@
         <v>357</v>
       </c>
       <c r="P2627" t="s">
-        <v>5312</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="2628" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2628" s="1" t="s">
-        <v>5313</v>
+        <v>5317</v>
       </c>
       <c r="B2628" t="s">
         <v>5309</v>
@@ -79899,46 +79933,52 @@
         <v>357</v>
       </c>
       <c r="P2628" t="s">
-        <v>5314</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="2629" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2629" s="1" t="s">
-        <v>5315</v>
+        <v>5319</v>
       </c>
       <c r="B2629" t="s">
-        <v>5309</v>
+        <v>5320</v>
       </c>
       <c r="C2629" t="s">
         <v>2</v>
       </c>
+      <c r="D2629" t="s">
+        <v>168</v>
+      </c>
       <c r="K2629" t="s">
-        <v>357</v>
+        <v>1692</v>
       </c>
       <c r="P2629" t="s">
-        <v>5316</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="2630" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2630" s="1" t="s">
-        <v>5317</v>
+        <v>5322</v>
       </c>
       <c r="B2630" t="s">
-        <v>5309</v>
+        <v>5320</v>
       </c>
       <c r="C2630" t="s">
         <v>2</v>
       </c>
+      <c r="D2630" t="s">
+        <v>168</v>
+      </c>
       <c r="K2630" t="s">
-        <v>357</v>
+        <v>1692</v>
       </c>
       <c r="P2630" t="s">
-        <v>5318</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="2631" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2631" s="1" t="s">
-        <v>5319</v>
+        <v>5324</v>
       </c>
       <c r="B2631" t="s">
         <v>5320</v>
@@ -79953,12 +79993,12 @@
         <v>1692</v>
       </c>
       <c r="P2631" t="s">
-        <v>5321</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="2632" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2632" s="1" t="s">
-        <v>5322</v>
+        <v>5326</v>
       </c>
       <c r="B2632" t="s">
         <v>5320</v>
@@ -79970,15 +80010,18 @@
         <v>168</v>
       </c>
       <c r="K2632" t="s">
-        <v>1692</v>
+        <v>693</v>
+      </c>
+      <c r="L2632" t="s">
+        <v>2076</v>
       </c>
       <c r="P2632" t="s">
-        <v>5323</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="2633" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2633" s="1" t="s">
-        <v>5324</v>
+        <v>5328</v>
       </c>
       <c r="B2633" t="s">
         <v>5320</v>
@@ -79990,15 +80033,18 @@
         <v>168</v>
       </c>
       <c r="K2633" t="s">
-        <v>1692</v>
+        <v>693</v>
+      </c>
+      <c r="L2633" t="s">
+        <v>2076</v>
       </c>
       <c r="P2633" t="s">
-        <v>5325</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="2634" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2634" s="1" t="s">
-        <v>5326</v>
+        <v>5330</v>
       </c>
       <c r="B2634" t="s">
         <v>5320</v>
@@ -80016,18 +80062,18 @@
         <v>2076</v>
       </c>
       <c r="P2634" t="s">
-        <v>5327</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2635" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2635" s="1" t="s">
-        <v>5328</v>
+        <v>5332</v>
       </c>
       <c r="B2635" t="s">
         <v>5320</v>
       </c>
-      <c r="C2635" t="s">
-        <v>2</v>
+      <c r="C2635">
+        <v>68000</v>
       </c>
       <c r="D2635" t="s">
         <v>168</v>
@@ -80039,164 +80085,161 @@
         <v>2076</v>
       </c>
       <c r="P2635" t="s">
-        <v>5329</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="2636" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2636" s="1" t="s">
-        <v>5330</v>
+        <v>5334</v>
       </c>
       <c r="B2636" t="s">
-        <v>5320</v>
+        <v>5335</v>
       </c>
       <c r="C2636" t="s">
-        <v>2</v>
+        <v>536</v>
       </c>
       <c r="D2636" t="s">
-        <v>168</v>
+        <v>1422</v>
       </c>
       <c r="K2636" t="s">
-        <v>693</v>
-      </c>
-      <c r="L2636" t="s">
-        <v>2076</v>
+        <v>60</v>
       </c>
       <c r="P2636" t="s">
-        <v>5331</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="2637" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2637" s="1" t="s">
-        <v>5332</v>
+        <v>5337</v>
       </c>
       <c r="B2637" t="s">
-        <v>5320</v>
-      </c>
-      <c r="C2637">
-        <v>68000</v>
+        <v>5335</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>536</v>
       </c>
       <c r="D2637" t="s">
-        <v>168</v>
+        <v>1422</v>
       </c>
       <c r="K2637" t="s">
-        <v>693</v>
-      </c>
-      <c r="L2637" t="s">
-        <v>2076</v>
+        <v>60</v>
       </c>
       <c r="P2637" t="s">
-        <v>5333</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2638" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2638" s="1" t="s">
-        <v>5334</v>
+        <v>5339</v>
       </c>
       <c r="B2638" t="s">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="C2638" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="D2638" t="s">
-        <v>1422</v>
+        <v>605</v>
       </c>
       <c r="K2638" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="P2638" t="s">
-        <v>5336</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2639" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2639" s="1" t="s">
-        <v>5337</v>
+        <v>5342</v>
       </c>
       <c r="B2639" t="s">
-        <v>5335</v>
+        <v>5340</v>
       </c>
       <c r="C2639" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="D2639" t="s">
-        <v>1422</v>
+        <v>605</v>
       </c>
       <c r="K2639" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="P2639" t="s">
-        <v>5338</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="2640" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2640" s="1" t="s">
-        <v>5339</v>
+        <v>5344</v>
       </c>
       <c r="B2640" t="s">
-        <v>5340</v>
-      </c>
-      <c r="C2640" t="s">
-        <v>605</v>
+        <v>5345</v>
+      </c>
+      <c r="C2640">
+        <v>68000</v>
       </c>
       <c r="D2640" t="s">
-        <v>605</v>
+        <v>1619</v>
+      </c>
+      <c r="E2640" t="s">
+        <v>168</v>
       </c>
       <c r="K2640" t="s">
-        <v>178</v>
+        <v>1692</v>
       </c>
       <c r="P2640" t="s">
-        <v>5341</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="2641" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2641" s="1" t="s">
-        <v>5342</v>
+        <v>5347</v>
       </c>
       <c r="B2641" t="s">
-        <v>5340</v>
-      </c>
-      <c r="C2641" t="s">
-        <v>605</v>
+        <v>5348</v>
+      </c>
+      <c r="C2641">
+        <v>68000</v>
       </c>
       <c r="D2641" t="s">
-        <v>605</v>
+        <v>168</v>
       </c>
       <c r="K2641" t="s">
-        <v>178</v>
+        <v>2076</v>
       </c>
       <c r="P2641" t="s">
-        <v>5343</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2642" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2642" s="1" t="s">
-        <v>5344</v>
+        <v>5350</v>
       </c>
       <c r="B2642" t="s">
-        <v>5345</v>
+        <v>5351</v>
       </c>
       <c r="C2642">
         <v>68000</v>
       </c>
       <c r="D2642" t="s">
-        <v>1619</v>
-      </c>
-      <c r="E2642" t="s">
         <v>168</v>
       </c>
       <c r="K2642" t="s">
-        <v>1692</v>
+        <v>370</v>
+      </c>
+      <c r="L2642" t="s">
+        <v>2076</v>
       </c>
       <c r="P2642" t="s">
-        <v>5346</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="2643" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2643" s="1" t="s">
-        <v>5347</v>
+        <v>5353</v>
       </c>
       <c r="B2643" t="s">
-        <v>5348</v>
+        <v>5351</v>
       </c>
       <c r="C2643">
         <v>68000</v>
@@ -80205,61 +80248,52 @@
         <v>168</v>
       </c>
       <c r="K2643" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2643" t="s">
         <v>2076</v>
       </c>
       <c r="P2643" t="s">
-        <v>5349</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="2644" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2644" s="1" t="s">
-        <v>5350</v>
+        <v>5355</v>
       </c>
       <c r="B2644" t="s">
-        <v>5351</v>
+        <v>5174</v>
       </c>
       <c r="C2644">
         <v>68000</v>
       </c>
-      <c r="D2644" t="s">
-        <v>168</v>
-      </c>
       <c r="K2644" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2644" t="s">
         <v>2076</v>
       </c>
       <c r="P2644" t="s">
-        <v>5352</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="2645" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2645" s="1" t="s">
-        <v>5353</v>
+        <v>5357</v>
       </c>
       <c r="B2645" t="s">
-        <v>5351</v>
+        <v>5174</v>
       </c>
       <c r="C2645">
         <v>68000</v>
       </c>
-      <c r="D2645" t="s">
-        <v>168</v>
-      </c>
       <c r="K2645" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2645" t="s">
         <v>2076</v>
       </c>
       <c r="P2645" t="s">
-        <v>5354</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="2646" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2646" s="1" t="s">
-        <v>5355</v>
+        <v>5359</v>
       </c>
       <c r="B2646" t="s">
         <v>5174</v>
@@ -80271,15 +80305,15 @@
         <v>2076</v>
       </c>
       <c r="P2646" t="s">
-        <v>5356</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="2647" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2647" s="1" t="s">
-        <v>5357</v>
+        <v>5361</v>
       </c>
       <c r="B2647" t="s">
-        <v>5174</v>
+        <v>5362</v>
       </c>
       <c r="C2647">
         <v>68000</v>
@@ -80288,15 +80322,15 @@
         <v>2076</v>
       </c>
       <c r="P2647" t="s">
-        <v>5358</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="2648" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2648" s="1" t="s">
-        <v>5359</v>
+        <v>5364</v>
       </c>
       <c r="B2648" t="s">
-        <v>5174</v>
+        <v>5362</v>
       </c>
       <c r="C2648">
         <v>68000</v>
@@ -80305,46 +80339,52 @@
         <v>2076</v>
       </c>
       <c r="P2648" t="s">
-        <v>5360</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="2649" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2649" s="1" t="s">
-        <v>5361</v>
+        <v>5366</v>
       </c>
       <c r="B2649" t="s">
-        <v>5362</v>
-      </c>
-      <c r="C2649">
-        <v>68000</v>
+        <v>5367</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>2</v>
       </c>
       <c r="K2649" t="s">
-        <v>2076</v>
+        <v>184</v>
+      </c>
+      <c r="L2649" t="s">
+        <v>537</v>
       </c>
       <c r="P2649" t="s">
-        <v>5363</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="2650" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2650" s="1" t="s">
-        <v>5364</v>
+        <v>5369</v>
       </c>
       <c r="B2650" t="s">
-        <v>5362</v>
-      </c>
-      <c r="C2650">
-        <v>68000</v>
+        <v>5367</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>2</v>
       </c>
       <c r="K2650" t="s">
-        <v>2076</v>
+        <v>184</v>
+      </c>
+      <c r="L2650" t="s">
+        <v>537</v>
       </c>
       <c r="P2650" t="s">
-        <v>5365</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="2651" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2651" s="1" t="s">
-        <v>5366</v>
+        <v>5371</v>
       </c>
       <c r="B2651" t="s">
         <v>5367</v>
@@ -80359,12 +80399,12 @@
         <v>537</v>
       </c>
       <c r="P2651" t="s">
-        <v>5368</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="2652" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2652" s="1" t="s">
-        <v>5369</v>
+        <v>5373</v>
       </c>
       <c r="B2652" t="s">
         <v>5367</v>
@@ -80379,35 +80419,35 @@
         <v>537</v>
       </c>
       <c r="P2652" t="s">
-        <v>5370</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="2653" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2653" s="1" t="s">
-        <v>5371</v>
+        <v>5374</v>
       </c>
       <c r="B2653" t="s">
-        <v>5367</v>
+        <v>5375</v>
       </c>
       <c r="C2653" t="s">
         <v>2</v>
       </c>
+      <c r="D2653" t="s">
+        <v>2</v>
+      </c>
       <c r="K2653" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2653" t="s">
-        <v>537</v>
+        <v>344</v>
       </c>
       <c r="P2653" t="s">
-        <v>5372</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="2654" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2654" s="1" t="s">
-        <v>5373</v>
+        <v>5376</v>
       </c>
       <c r="B2654" t="s">
-        <v>5367</v>
+        <v>5377</v>
       </c>
       <c r="C2654" t="s">
         <v>2</v>
@@ -80415,19 +80455,16 @@
       <c r="K2654" t="s">
         <v>184</v>
       </c>
-      <c r="L2654" t="s">
-        <v>537</v>
-      </c>
       <c r="P2654" t="s">
-        <v>6551</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="2655" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2655" s="1" t="s">
-        <v>5374</v>
+        <v>5379</v>
       </c>
       <c r="B2655" t="s">
-        <v>5375</v>
+        <v>5380</v>
       </c>
       <c r="C2655" t="s">
         <v>2</v>
@@ -80436,72 +80473,63 @@
         <v>2</v>
       </c>
       <c r="K2655" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="P2655" t="s">
-        <v>6552</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="2656" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2656" s="1" t="s">
-        <v>5376</v>
+        <v>5382</v>
       </c>
       <c r="B2656" t="s">
-        <v>5377</v>
+        <v>5383</v>
       </c>
       <c r="C2656" t="s">
         <v>2</v>
       </c>
+      <c r="D2656" t="s">
+        <v>168</v>
+      </c>
       <c r="K2656" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="P2656" t="s">
-        <v>5378</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="2657" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2657" s="1" t="s">
-        <v>5379</v>
+        <v>5385</v>
       </c>
       <c r="B2657" t="s">
-        <v>5380</v>
-      </c>
-      <c r="C2657" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2657" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2657" t="s">
-        <v>370</v>
+        <v>5386</v>
+      </c>
+      <c r="C2657">
+        <v>68000</v>
       </c>
       <c r="P2657" t="s">
-        <v>5381</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="2658" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2658" s="1" t="s">
-        <v>5382</v>
+        <v>5388</v>
       </c>
       <c r="B2658" t="s">
-        <v>5383</v>
-      </c>
-      <c r="C2658" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2658" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2658" t="s">
-        <v>370</v>
+        <v>5386</v>
+      </c>
+      <c r="C2658">
+        <v>68000</v>
       </c>
       <c r="P2658" t="s">
-        <v>5384</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="2659" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2659" s="1" t="s">
-        <v>5385</v>
+        <v>5390</v>
       </c>
       <c r="B2659" t="s">
         <v>5386</v>
@@ -80510,12 +80538,12 @@
         <v>68000</v>
       </c>
       <c r="P2659" t="s">
-        <v>5387</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="2660" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2660" s="1" t="s">
-        <v>5388</v>
+        <v>5392</v>
       </c>
       <c r="B2660" t="s">
         <v>5386</v>
@@ -80524,12 +80552,12 @@
         <v>68000</v>
       </c>
       <c r="P2660" t="s">
-        <v>5389</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="2661" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2661" s="1" t="s">
-        <v>5390</v>
+        <v>5394</v>
       </c>
       <c r="B2661" t="s">
         <v>5386</v>
@@ -80538,12 +80566,12 @@
         <v>68000</v>
       </c>
       <c r="P2661" t="s">
-        <v>5391</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="2662" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2662" s="1" t="s">
-        <v>5392</v>
+        <v>5396</v>
       </c>
       <c r="B2662" t="s">
         <v>5386</v>
@@ -80552,12 +80580,12 @@
         <v>68000</v>
       </c>
       <c r="P2662" t="s">
-        <v>5393</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="2663" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2663" s="1" t="s">
-        <v>5394</v>
+        <v>5398</v>
       </c>
       <c r="B2663" t="s">
         <v>5386</v>
@@ -80566,12 +80594,12 @@
         <v>68000</v>
       </c>
       <c r="P2663" t="s">
-        <v>5395</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="2664" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2664" s="1" t="s">
-        <v>5396</v>
+        <v>5400</v>
       </c>
       <c r="B2664" t="s">
         <v>5386</v>
@@ -80580,12 +80608,12 @@
         <v>68000</v>
       </c>
       <c r="P2664" t="s">
-        <v>5397</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="2665" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2665" s="1" t="s">
-        <v>5398</v>
+        <v>5402</v>
       </c>
       <c r="B2665" t="s">
         <v>5386</v>
@@ -80594,12 +80622,12 @@
         <v>68000</v>
       </c>
       <c r="P2665" t="s">
-        <v>5399</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="2666" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2666" s="1" t="s">
-        <v>5400</v>
+        <v>5404</v>
       </c>
       <c r="B2666" t="s">
         <v>5386</v>
@@ -80608,12 +80636,12 @@
         <v>68000</v>
       </c>
       <c r="P2666" t="s">
-        <v>5401</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="2667" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2667" s="1" t="s">
-        <v>5402</v>
+        <v>5405</v>
       </c>
       <c r="B2667" t="s">
         <v>5386</v>
@@ -80622,12 +80650,12 @@
         <v>68000</v>
       </c>
       <c r="P2667" t="s">
-        <v>5403</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="2668" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2668" s="1" t="s">
-        <v>5404</v>
+        <v>5407</v>
       </c>
       <c r="B2668" t="s">
         <v>5386</v>
@@ -80636,12 +80664,12 @@
         <v>68000</v>
       </c>
       <c r="P2668" t="s">
-        <v>6553</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="2669" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2669" s="1" t="s">
-        <v>5405</v>
+        <v>5409</v>
       </c>
       <c r="B2669" t="s">
         <v>5386</v>
@@ -80650,12 +80678,12 @@
         <v>68000</v>
       </c>
       <c r="P2669" t="s">
-        <v>5406</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="2670" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2670" s="1" t="s">
-        <v>5407</v>
+        <v>5411</v>
       </c>
       <c r="B2670" t="s">
         <v>5386</v>
@@ -80664,12 +80692,12 @@
         <v>68000</v>
       </c>
       <c r="P2670" t="s">
-        <v>5408</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="2671" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2671" s="1" t="s">
-        <v>5409</v>
+        <v>5413</v>
       </c>
       <c r="B2671" t="s">
         <v>5386</v>
@@ -80678,12 +80706,12 @@
         <v>68000</v>
       </c>
       <c r="P2671" t="s">
-        <v>5410</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="2672" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2672" s="1" t="s">
-        <v>5411</v>
+        <v>5415</v>
       </c>
       <c r="B2672" t="s">
         <v>5386</v>
@@ -80691,13 +80719,19 @@
       <c r="C2672">
         <v>68000</v>
       </c>
+      <c r="K2672" t="s">
+        <v>2076</v>
+      </c>
+      <c r="L2672" t="s">
+        <v>2719</v>
+      </c>
       <c r="P2672" t="s">
-        <v>5412</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="2673" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2673" s="1" t="s">
-        <v>5413</v>
+        <v>5417</v>
       </c>
       <c r="B2673" t="s">
         <v>5386</v>
@@ -80706,12 +80740,12 @@
         <v>68000</v>
       </c>
       <c r="P2673" t="s">
-        <v>5414</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="2674" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2674" s="1" t="s">
-        <v>5415</v>
+        <v>5419</v>
       </c>
       <c r="B2674" t="s">
         <v>5386</v>
@@ -80726,12 +80760,12 @@
         <v>2719</v>
       </c>
       <c r="P2674" t="s">
-        <v>5416</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="2675" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2675" s="1" t="s">
-        <v>5417</v>
+        <v>5420</v>
       </c>
       <c r="B2675" t="s">
         <v>5386</v>
@@ -80739,13 +80773,19 @@
       <c r="C2675">
         <v>68000</v>
       </c>
+      <c r="K2675" t="s">
+        <v>2076</v>
+      </c>
+      <c r="L2675" t="s">
+        <v>2719</v>
+      </c>
       <c r="P2675" t="s">
-        <v>5418</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="2676" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2676" s="1" t="s">
-        <v>5419</v>
+        <v>5421</v>
       </c>
       <c r="B2676" t="s">
         <v>5386</v>
@@ -80753,73 +80793,97 @@
       <c r="C2676">
         <v>68000</v>
       </c>
-      <c r="K2676" t="s">
-        <v>2076</v>
-      </c>
-      <c r="L2676" t="s">
-        <v>2719</v>
-      </c>
       <c r="P2676" t="s">
-        <v>6554</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="2677" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2677" s="1" t="s">
-        <v>5420</v>
+        <v>5423</v>
       </c>
       <c r="B2677" t="s">
-        <v>5386</v>
-      </c>
-      <c r="C2677">
-        <v>68000</v>
+        <v>5424</v>
+      </c>
+      <c r="C2677" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2677" t="s">
+        <v>902</v>
       </c>
       <c r="K2677" t="s">
-        <v>2076</v>
-      </c>
-      <c r="L2677" t="s">
-        <v>2719</v>
+        <v>3078</v>
       </c>
       <c r="P2677" t="s">
-        <v>6555</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="2678" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2678" s="1" t="s">
-        <v>5421</v>
+        <v>5426</v>
       </c>
       <c r="B2678" t="s">
-        <v>5386</v>
-      </c>
-      <c r="C2678">
-        <v>68000</v>
+        <v>5427</v>
+      </c>
+      <c r="C2678" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D2678" t="s">
+        <v>6556</v>
+      </c>
+      <c r="E2678" t="s">
+        <v>6557</v>
+      </c>
+      <c r="K2678" t="s">
+        <v>5429</v>
+      </c>
+      <c r="L2678" t="s">
+        <v>5430</v>
+      </c>
+      <c r="M2678" t="s">
+        <v>6558</v>
+      </c>
+      <c r="N2678" t="s">
+        <v>6559</v>
       </c>
       <c r="P2678" t="s">
-        <v>5422</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="2679" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2679" s="1" t="s">
-        <v>5423</v>
+        <v>5432</v>
       </c>
       <c r="B2679" t="s">
-        <v>5424</v>
+        <v>5427</v>
       </c>
       <c r="C2679" t="s">
-        <v>491</v>
+        <v>5428</v>
       </c>
       <c r="D2679" t="s">
-        <v>902</v>
+        <v>6556</v>
+      </c>
+      <c r="E2679" t="s">
+        <v>6557</v>
       </c>
       <c r="K2679" t="s">
-        <v>3078</v>
+        <v>5429</v>
+      </c>
+      <c r="L2679" t="s">
+        <v>5430</v>
+      </c>
+      <c r="M2679" t="s">
+        <v>6558</v>
+      </c>
+      <c r="N2679" t="s">
+        <v>6559</v>
       </c>
       <c r="P2679" t="s">
-        <v>5425</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="2680" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2680" s="1" t="s">
-        <v>5426</v>
+        <v>5434</v>
       </c>
       <c r="B2680" t="s">
         <v>5427</v>
@@ -80846,82 +80910,64 @@
         <v>6559</v>
       </c>
       <c r="P2680" t="s">
-        <v>5431</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="2681" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2681" s="1" t="s">
-        <v>5432</v>
+        <v>5436</v>
       </c>
       <c r="B2681" t="s">
-        <v>5427</v>
+        <v>5437</v>
       </c>
       <c r="C2681" t="s">
-        <v>5428</v>
+        <v>2</v>
       </c>
       <c r="D2681" t="s">
-        <v>6556</v>
-      </c>
-      <c r="E2681" t="s">
-        <v>6557</v>
+        <v>168</v>
       </c>
       <c r="K2681" t="s">
-        <v>5429</v>
+        <v>370</v>
       </c>
       <c r="L2681" t="s">
-        <v>5430</v>
-      </c>
-      <c r="M2681" t="s">
-        <v>6558</v>
-      </c>
-      <c r="N2681" t="s">
-        <v>6559</v>
+        <v>1688</v>
       </c>
       <c r="P2681" t="s">
-        <v>5433</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="2682" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2682" s="1" t="s">
-        <v>5434</v>
+        <v>5439</v>
       </c>
       <c r="B2682" t="s">
-        <v>5427</v>
+        <v>5437</v>
       </c>
       <c r="C2682" t="s">
-        <v>5428</v>
+        <v>2</v>
       </c>
       <c r="D2682" t="s">
-        <v>6556</v>
-      </c>
-      <c r="E2682" t="s">
-        <v>6557</v>
+        <v>168</v>
       </c>
       <c r="K2682" t="s">
-        <v>5429</v>
+        <v>370</v>
       </c>
       <c r="L2682" t="s">
-        <v>5430</v>
-      </c>
-      <c r="M2682" t="s">
-        <v>6558</v>
-      </c>
-      <c r="N2682" t="s">
-        <v>6559</v>
+        <v>1688</v>
       </c>
       <c r="P2682" t="s">
-        <v>5435</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="2683" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2683" s="1" t="s">
-        <v>5436</v>
+        <v>5441</v>
       </c>
       <c r="B2683" t="s">
-        <v>5437</v>
-      </c>
-      <c r="C2683" t="s">
-        <v>2</v>
+        <v>5442</v>
+      </c>
+      <c r="C2683">
+        <v>68000</v>
       </c>
       <c r="D2683" t="s">
         <v>168</v>
@@ -80930,41 +80976,35 @@
         <v>370</v>
       </c>
       <c r="L2683" t="s">
-        <v>1688</v>
+        <v>2076</v>
       </c>
       <c r="P2683" t="s">
-        <v>5438</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="2684" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2684" s="1" t="s">
-        <v>5439</v>
+        <v>5444</v>
       </c>
       <c r="B2684" t="s">
-        <v>5437</v>
-      </c>
-      <c r="C2684" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2684" t="s">
-        <v>168</v>
+        <v>5442</v>
+      </c>
+      <c r="C2684">
+        <v>68000</v>
       </c>
       <c r="K2684" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2684" t="s">
-        <v>1688</v>
+        <v>2076</v>
       </c>
       <c r="P2684" t="s">
-        <v>5440</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="2685" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2685" s="1" t="s">
-        <v>5441</v>
+        <v>5453</v>
       </c>
       <c r="B2685" t="s">
-        <v>5442</v>
+        <v>5454</v>
       </c>
       <c r="C2685">
         <v>68000</v>
@@ -80973,35 +81013,47 @@
         <v>168</v>
       </c>
       <c r="K2685" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2685" t="s">
         <v>370</v>
       </c>
-      <c r="L2685" t="s">
+      <c r="M2685" t="s">
         <v>2076</v>
       </c>
       <c r="P2685" t="s">
-        <v>5443</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="2686" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2686" s="1" t="s">
-        <v>5444</v>
+        <v>5456</v>
       </c>
       <c r="B2686" t="s">
-        <v>5442</v>
+        <v>5454</v>
       </c>
       <c r="C2686">
         <v>68000</v>
       </c>
+      <c r="D2686" t="s">
+        <v>168</v>
+      </c>
       <c r="K2686" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2686" t="s">
+        <v>370</v>
+      </c>
+      <c r="M2686" t="s">
         <v>2076</v>
       </c>
       <c r="P2686" t="s">
-        <v>5445</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="2687" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2687" s="1" t="s">
-        <v>5453</v>
+        <v>5457</v>
       </c>
       <c r="B2687" t="s">
         <v>5454</v>
@@ -81022,107 +81074,101 @@
         <v>2076</v>
       </c>
       <c r="P2687" t="s">
-        <v>5455</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="2688" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2688" s="1" t="s">
-        <v>5456</v>
+        <v>5458</v>
       </c>
       <c r="B2688" t="s">
-        <v>5454</v>
+        <v>5459</v>
       </c>
       <c r="C2688">
         <v>68000</v>
       </c>
-      <c r="D2688" t="s">
-        <v>168</v>
-      </c>
       <c r="K2688" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="L2688" t="s">
-        <v>370</v>
-      </c>
-      <c r="M2688" t="s">
         <v>2076</v>
       </c>
       <c r="P2688" t="s">
-        <v>6560</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="2689" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2689" s="1" t="s">
-        <v>5457</v>
+        <v>5461</v>
       </c>
       <c r="B2689" t="s">
-        <v>5454</v>
+        <v>5459</v>
       </c>
       <c r="C2689">
         <v>68000</v>
       </c>
-      <c r="D2689" t="s">
-        <v>168</v>
-      </c>
       <c r="K2689" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="L2689" t="s">
-        <v>370</v>
-      </c>
-      <c r="M2689" t="s">
         <v>2076</v>
       </c>
       <c r="P2689" t="s">
-        <v>6561</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="2690" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2690" s="1" t="s">
-        <v>5458</v>
+        <v>5463</v>
       </c>
       <c r="B2690" t="s">
-        <v>5459</v>
+        <v>5464</v>
       </c>
       <c r="C2690">
         <v>68000</v>
       </c>
+      <c r="D2690" t="s">
+        <v>168</v>
+      </c>
       <c r="K2690" t="s">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="L2690" t="s">
         <v>2076</v>
       </c>
       <c r="P2690" t="s">
-        <v>5460</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="2691" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2691" s="1" t="s">
-        <v>5461</v>
+        <v>5466</v>
       </c>
       <c r="B2691" t="s">
-        <v>5459</v>
+        <v>5464</v>
       </c>
       <c r="C2691">
         <v>68000</v>
       </c>
+      <c r="D2691" t="s">
+        <v>168</v>
+      </c>
       <c r="K2691" t="s">
-        <v>370</v>
+        <v>693</v>
       </c>
       <c r="L2691" t="s">
         <v>2076</v>
       </c>
       <c r="P2691" t="s">
-        <v>5462</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="2692" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2692" s="1" t="s">
-        <v>5463</v>
+        <v>5467</v>
       </c>
       <c r="B2692" t="s">
-        <v>5464</v>
+        <v>5468</v>
       </c>
       <c r="C2692">
         <v>68000</v>
@@ -81131,64 +81177,58 @@
         <v>168</v>
       </c>
       <c r="K2692" t="s">
-        <v>693</v>
+        <v>370</v>
       </c>
       <c r="L2692" t="s">
         <v>2076</v>
       </c>
       <c r="P2692" t="s">
-        <v>5465</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="2693" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2693" s="1" t="s">
-        <v>5466</v>
+        <v>5470</v>
       </c>
       <c r="B2693" t="s">
-        <v>5464</v>
-      </c>
-      <c r="C2693">
-        <v>68000</v>
+        <v>5471</v>
+      </c>
+      <c r="C2693" t="s">
+        <v>2</v>
       </c>
       <c r="D2693" t="s">
-        <v>168</v>
+        <v>902</v>
       </c>
       <c r="K2693" t="s">
-        <v>693</v>
-      </c>
-      <c r="L2693" t="s">
-        <v>2076</v>
+        <v>178</v>
       </c>
       <c r="P2693" t="s">
-        <v>6562</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="2694" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2694" s="1" t="s">
-        <v>5467</v>
+        <v>5472</v>
       </c>
       <c r="B2694" t="s">
-        <v>5468</v>
-      </c>
-      <c r="C2694">
-        <v>68000</v>
+        <v>5471</v>
+      </c>
+      <c r="C2694" t="s">
+        <v>2</v>
       </c>
       <c r="D2694" t="s">
-        <v>168</v>
+        <v>902</v>
       </c>
       <c r="K2694" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2694" t="s">
-        <v>2076</v>
+        <v>178</v>
       </c>
       <c r="P2694" t="s">
-        <v>5469</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="2695" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2695" s="1" t="s">
-        <v>5470</v>
+        <v>5474</v>
       </c>
       <c r="B2695" t="s">
         <v>5471</v>
@@ -81203,12 +81243,12 @@
         <v>178</v>
       </c>
       <c r="P2695" t="s">
-        <v>6563</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="2696" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2696" s="1" t="s">
-        <v>5472</v>
+        <v>5476</v>
       </c>
       <c r="B2696" t="s">
         <v>5471</v>
@@ -81223,12 +81263,12 @@
         <v>178</v>
       </c>
       <c r="P2696" t="s">
-        <v>5473</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="2697" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2697" s="1" t="s">
-        <v>5474</v>
+        <v>5478</v>
       </c>
       <c r="B2697" t="s">
         <v>5471</v>
@@ -81243,194 +81283,212 @@
         <v>178</v>
       </c>
       <c r="P2697" t="s">
-        <v>5475</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2698" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2698" s="1" t="s">
-        <v>5476</v>
+        <v>5480</v>
       </c>
       <c r="B2698" t="s">
-        <v>5471</v>
+        <v>5481</v>
       </c>
       <c r="C2698" t="s">
         <v>2</v>
       </c>
       <c r="D2698" t="s">
-        <v>902</v>
+        <v>168</v>
       </c>
       <c r="K2698" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P2698" t="s">
-        <v>5477</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="2699" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2699" s="1" t="s">
-        <v>5478</v>
+        <v>5483</v>
       </c>
       <c r="B2699" t="s">
-        <v>5471</v>
+        <v>5484</v>
       </c>
       <c r="C2699" t="s">
         <v>2</v>
       </c>
-      <c r="D2699" t="s">
-        <v>902</v>
-      </c>
       <c r="K2699" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P2699" t="s">
-        <v>5479</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="2700" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2700" s="1" t="s">
-        <v>5480</v>
+        <v>5486</v>
       </c>
       <c r="B2700" t="s">
-        <v>5481</v>
+        <v>5484</v>
       </c>
       <c r="C2700" t="s">
         <v>2</v>
-      </c>
-      <c r="D2700" t="s">
-        <v>168</v>
       </c>
       <c r="K2700" t="s">
         <v>184</v>
       </c>
       <c r="P2700" t="s">
-        <v>5482</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="2701" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2701" s="1" t="s">
-        <v>5483</v>
+        <v>5488</v>
       </c>
       <c r="B2701" t="s">
-        <v>5484</v>
+        <v>5489</v>
       </c>
       <c r="C2701" t="s">
         <v>2</v>
       </c>
       <c r="K2701" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="P2701" t="s">
-        <v>5485</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="2702" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2702" s="1" t="s">
-        <v>5486</v>
+        <v>5491</v>
       </c>
       <c r="B2702" t="s">
-        <v>5484</v>
+        <v>5492</v>
       </c>
       <c r="C2702" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2702" t="s">
-        <v>184</v>
+        <v>605</v>
       </c>
       <c r="P2702" t="s">
-        <v>5487</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="2703" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2703" s="1" t="s">
-        <v>5488</v>
+        <v>5494</v>
       </c>
       <c r="B2703" t="s">
-        <v>5489</v>
+        <v>5492</v>
       </c>
       <c r="C2703" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2703" t="s">
-        <v>60</v>
+        <v>605</v>
       </c>
       <c r="P2703" t="s">
-        <v>5490</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="2704" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2704" s="1" t="s">
-        <v>5491</v>
+        <v>5496</v>
       </c>
       <c r="B2704" t="s">
-        <v>5492</v>
-      </c>
-      <c r="C2704" t="s">
-        <v>605</v>
+        <v>5497</v>
+      </c>
+      <c r="C2704">
+        <v>8080</v>
       </c>
       <c r="P2704" t="s">
-        <v>5493</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="2705" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2705" s="1" t="s">
-        <v>5494</v>
+        <v>5499</v>
       </c>
       <c r="B2705" t="s">
-        <v>5492</v>
+        <v>5500</v>
       </c>
       <c r="C2705" t="s">
-        <v>605</v>
+        <v>4290</v>
+      </c>
+      <c r="D2705" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E2705" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F2705" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K2705" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2705" t="s">
+        <v>693</v>
       </c>
       <c r="P2705" t="s">
-        <v>5495</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="2706" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2706" s="1" t="s">
-        <v>5496</v>
+        <v>5502</v>
       </c>
       <c r="B2706" t="s">
-        <v>5497</v>
-      </c>
-      <c r="C2706">
-        <v>8080</v>
+        <v>5503</v>
+      </c>
+      <c r="C2706" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2706" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2706" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2706" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2706" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2706" t="s">
+        <v>178</v>
       </c>
       <c r="P2706" t="s">
-        <v>5498</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="2707" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2707" s="1" t="s">
-        <v>5499</v>
+        <v>5505</v>
       </c>
       <c r="B2707" t="s">
-        <v>5500</v>
+        <v>5503</v>
       </c>
       <c r="C2707" t="s">
-        <v>4290</v>
+        <v>2</v>
       </c>
       <c r="D2707" t="s">
-        <v>4290</v>
+        <v>2</v>
       </c>
       <c r="E2707" t="s">
-        <v>1422</v>
+        <v>2</v>
       </c>
       <c r="F2707" t="s">
-        <v>1422</v>
+        <v>168</v>
       </c>
       <c r="K2707" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="L2707" t="s">
-        <v>693</v>
+        <v>178</v>
       </c>
       <c r="P2707" t="s">
-        <v>5501</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="2708" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2708" s="1" t="s">
-        <v>5502</v>
+        <v>5507</v>
       </c>
       <c r="B2708" t="s">
         <v>5503</v>
@@ -81454,12 +81512,12 @@
         <v>178</v>
       </c>
       <c r="P2708" t="s">
-        <v>5504</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="2709" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2709" s="1" t="s">
-        <v>5505</v>
+        <v>5509</v>
       </c>
       <c r="B2709" t="s">
         <v>5503</v>
@@ -81483,283 +81541,262 @@
         <v>178</v>
       </c>
       <c r="P2709" t="s">
-        <v>5506</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="2710" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2710" s="1" t="s">
-        <v>5507</v>
+        <v>5511</v>
       </c>
       <c r="B2710" t="s">
-        <v>5503</v>
+        <v>5512</v>
       </c>
       <c r="C2710" t="s">
         <v>2</v>
       </c>
-      <c r="D2710" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2710" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2710" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2710" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2710" t="s">
-        <v>178</v>
-      </c>
       <c r="P2710" t="s">
-        <v>5508</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2711" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2711" s="1" t="s">
-        <v>5509</v>
+        <v>5517</v>
       </c>
       <c r="B2711" t="s">
-        <v>5503</v>
-      </c>
-      <c r="C2711" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2711" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2711" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2711" t="s">
-        <v>168</v>
+        <v>5518</v>
+      </c>
+      <c r="C2711">
+        <v>8080</v>
       </c>
       <c r="K2711" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2711" t="s">
-        <v>178</v>
+        <v>537</v>
       </c>
       <c r="P2711" t="s">
-        <v>5510</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="2712" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2712" s="1" t="s">
-        <v>5511</v>
+        <v>5520</v>
       </c>
       <c r="B2712" t="s">
-        <v>5512</v>
+        <v>5294</v>
       </c>
       <c r="C2712" t="s">
         <v>2</v>
       </c>
+      <c r="D2712" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2712" t="s">
+        <v>357</v>
+      </c>
       <c r="P2712" t="s">
-        <v>5513</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="2713" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2713" s="1" t="s">
-        <v>5517</v>
+        <v>5522</v>
       </c>
       <c r="B2713" t="s">
-        <v>5518</v>
+        <v>5523</v>
       </c>
       <c r="C2713">
-        <v>8080</v>
+        <v>68000</v>
+      </c>
+      <c r="D2713" t="s">
+        <v>168</v>
       </c>
       <c r="K2713" t="s">
-        <v>537</v>
+        <v>1639</v>
       </c>
       <c r="P2713" t="s">
-        <v>5519</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="2714" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2714" s="1" t="s">
-        <v>5520</v>
+        <v>5525</v>
       </c>
       <c r="B2714" t="s">
-        <v>5294</v>
+        <v>5526</v>
       </c>
       <c r="C2714" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2714" t="s">
-        <v>168</v>
+        <v>536</v>
       </c>
       <c r="K2714" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
       <c r="P2714" t="s">
-        <v>5521</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="2715" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2715" s="1" t="s">
-        <v>5522</v>
+        <v>5528</v>
       </c>
       <c r="B2715" t="s">
-        <v>5523</v>
-      </c>
-      <c r="C2715">
-        <v>68000</v>
-      </c>
-      <c r="D2715" t="s">
-        <v>168</v>
+        <v>5529</v>
+      </c>
+      <c r="C2715" t="s">
+        <v>2</v>
       </c>
       <c r="K2715" t="s">
-        <v>1639</v>
+        <v>537</v>
       </c>
       <c r="P2715" t="s">
-        <v>5524</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="2716" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2716" s="1" t="s">
-        <v>5525</v>
+        <v>5530</v>
       </c>
       <c r="B2716" t="s">
-        <v>5526</v>
+        <v>5531</v>
       </c>
       <c r="C2716" t="s">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="K2716" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P2716" t="s">
-        <v>5527</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="2717" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2717" s="1" t="s">
-        <v>5528</v>
+        <v>5533</v>
       </c>
       <c r="B2717" t="s">
-        <v>5529</v>
+        <v>5531</v>
       </c>
       <c r="C2717" t="s">
         <v>2</v>
       </c>
       <c r="K2717" t="s">
-        <v>537</v>
+        <v>63</v>
       </c>
       <c r="P2717" t="s">
-        <v>6564</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="2718" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2718" s="1" t="s">
-        <v>5530</v>
+        <v>5535</v>
       </c>
       <c r="B2718" t="s">
-        <v>5531</v>
+        <v>5536</v>
       </c>
       <c r="C2718" t="s">
         <v>2</v>
       </c>
       <c r="K2718" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P2718" t="s">
-        <v>5532</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2719" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2719" s="1" t="s">
-        <v>5533</v>
+        <v>5538</v>
       </c>
       <c r="B2719" t="s">
-        <v>5531</v>
+        <v>5539</v>
       </c>
       <c r="C2719" t="s">
         <v>2</v>
       </c>
       <c r="K2719" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="P2719" t="s">
-        <v>5534</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2720" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2720" s="1" t="s">
-        <v>5535</v>
+        <v>5541</v>
       </c>
       <c r="B2720" t="s">
-        <v>5536</v>
+        <v>5542</v>
       </c>
       <c r="C2720" t="s">
         <v>2</v>
       </c>
       <c r="K2720" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="P2720" t="s">
-        <v>5537</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2721" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2721" s="1" t="s">
-        <v>5538</v>
+        <v>5544</v>
       </c>
       <c r="B2721" t="s">
-        <v>5539</v>
+        <v>5545</v>
       </c>
       <c r="C2721" t="s">
         <v>2</v>
       </c>
+      <c r="D2721" t="s">
+        <v>2</v>
+      </c>
       <c r="K2721" t="s">
-        <v>184</v>
+        <v>693</v>
       </c>
       <c r="P2721" t="s">
-        <v>5540</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="2722" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2722" s="1" t="s">
-        <v>5541</v>
+        <v>5546</v>
       </c>
       <c r="B2722" t="s">
-        <v>5542</v>
+        <v>5545</v>
       </c>
       <c r="C2722" t="s">
         <v>2</v>
       </c>
+      <c r="D2722" t="s">
+        <v>2</v>
+      </c>
       <c r="K2722" t="s">
-        <v>60</v>
+        <v>693</v>
       </c>
       <c r="P2722" t="s">
-        <v>5543</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="2723" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2723" s="1" t="s">
-        <v>5544</v>
+        <v>5547</v>
       </c>
       <c r="B2723" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
       <c r="C2723" t="s">
         <v>2</v>
       </c>
-      <c r="D2723" t="s">
-        <v>2</v>
-      </c>
       <c r="K2723" t="s">
-        <v>693</v>
+        <v>60</v>
       </c>
       <c r="P2723" t="s">
-        <v>6565</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2724" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2724" s="1" t="s">
-        <v>5546</v>
+        <v>5550</v>
       </c>
       <c r="B2724" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
       <c r="C2724" t="s">
         <v>2</v>
@@ -81767,16 +81804,22 @@
       <c r="D2724" t="s">
         <v>2</v>
       </c>
+      <c r="E2724" t="s">
+        <v>168</v>
+      </c>
       <c r="K2724" t="s">
-        <v>693</v>
+        <v>178</v>
+      </c>
+      <c r="L2724" t="s">
+        <v>60</v>
       </c>
       <c r="P2724" t="s">
-        <v>6566</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="2725" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2725" s="1" t="s">
-        <v>5547</v>
+        <v>5552</v>
       </c>
       <c r="B2725" t="s">
         <v>5548</v>
@@ -81784,113 +81827,110 @@
       <c r="C2725" t="s">
         <v>2</v>
       </c>
+      <c r="D2725" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2725" t="s">
+        <v>168</v>
+      </c>
       <c r="K2725" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2725" t="s">
         <v>60</v>
       </c>
       <c r="P2725" t="s">
-        <v>5549</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="2726" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2726" s="1" t="s">
-        <v>5550</v>
+        <v>5554</v>
       </c>
       <c r="B2726" t="s">
-        <v>5548</v>
-      </c>
-      <c r="C2726" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2726" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2726" t="s">
-        <v>168</v>
+        <v>5555</v>
+      </c>
+      <c r="C2726">
+        <v>68000</v>
       </c>
       <c r="K2726" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2726" t="s">
-        <v>60</v>
+        <v>2076</v>
       </c>
       <c r="P2726" t="s">
-        <v>5551</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="2727" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2727" s="1" t="s">
-        <v>5552</v>
+        <v>5557</v>
       </c>
       <c r="B2727" t="s">
-        <v>5548</v>
+        <v>5558</v>
       </c>
       <c r="C2727" t="s">
         <v>2</v>
       </c>
-      <c r="D2727" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2727" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2727" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2727" t="s">
-        <v>60</v>
-      </c>
       <c r="P2727" t="s">
-        <v>5553</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2728" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2728" s="1" t="s">
-        <v>5554</v>
+        <v>5560</v>
       </c>
       <c r="B2728" t="s">
-        <v>5555</v>
-      </c>
-      <c r="C2728">
-        <v>68000</v>
-      </c>
-      <c r="K2728" t="s">
-        <v>2076</v>
+        <v>5558</v>
+      </c>
+      <c r="C2728" t="s">
+        <v>2</v>
       </c>
       <c r="P2728" t="s">
-        <v>5556</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2729" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2729" s="1" t="s">
-        <v>5557</v>
+        <v>5562</v>
       </c>
       <c r="B2729" t="s">
-        <v>5558</v>
-      </c>
-      <c r="C2729" t="s">
-        <v>2</v>
+        <v>5563</v>
+      </c>
+      <c r="C2729">
+        <v>68000</v>
+      </c>
+      <c r="D2729" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2729" t="s">
+        <v>1790</v>
       </c>
       <c r="P2729" t="s">
-        <v>5559</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="2730" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2730" s="1" t="s">
-        <v>5560</v>
+        <v>5565</v>
       </c>
       <c r="B2730" t="s">
-        <v>5558</v>
-      </c>
-      <c r="C2730" t="s">
-        <v>2</v>
+        <v>5563</v>
+      </c>
+      <c r="C2730">
+        <v>68000</v>
+      </c>
+      <c r="D2730" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2730" t="s">
+        <v>1790</v>
       </c>
       <c r="P2730" t="s">
-        <v>5561</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="2731" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2731" s="1" t="s">
-        <v>5562</v>
+        <v>5566</v>
       </c>
       <c r="B2731" t="s">
         <v>5563</v>
@@ -81905,12 +81945,12 @@
         <v>1790</v>
       </c>
       <c r="P2731" t="s">
-        <v>5564</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="2732" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2732" s="1" t="s">
-        <v>5565</v>
+        <v>5568</v>
       </c>
       <c r="B2732" t="s">
         <v>5563</v>
@@ -81925,12 +81965,12 @@
         <v>1790</v>
       </c>
       <c r="P2732" t="s">
-        <v>6567</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="2733" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2733" s="1" t="s">
-        <v>5566</v>
+        <v>5570</v>
       </c>
       <c r="B2733" t="s">
         <v>5563</v>
@@ -81945,12 +81985,12 @@
         <v>1790</v>
       </c>
       <c r="P2733" t="s">
-        <v>5567</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="2734" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2734" s="1" t="s">
-        <v>5568</v>
+        <v>5572</v>
       </c>
       <c r="B2734" t="s">
         <v>5563</v>
@@ -81965,12 +82005,12 @@
         <v>1790</v>
       </c>
       <c r="P2734" t="s">
-        <v>5569</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="2735" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2735" s="1" t="s">
-        <v>5570</v>
+        <v>5574</v>
       </c>
       <c r="B2735" t="s">
         <v>5563</v>
@@ -81985,12 +82025,12 @@
         <v>1790</v>
       </c>
       <c r="P2735" t="s">
-        <v>5571</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="2736" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2736" s="1" t="s">
-        <v>5572</v>
+        <v>5576</v>
       </c>
       <c r="B2736" t="s">
         <v>5563</v>
@@ -82005,12 +82045,12 @@
         <v>1790</v>
       </c>
       <c r="P2736" t="s">
-        <v>5573</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="2737" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2737" s="1" t="s">
-        <v>5574</v>
+        <v>5578</v>
       </c>
       <c r="B2737" t="s">
         <v>5563</v>
@@ -82025,12 +82065,12 @@
         <v>1790</v>
       </c>
       <c r="P2737" t="s">
-        <v>5575</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="2738" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2738" s="1" t="s">
-        <v>5576</v>
+        <v>5579</v>
       </c>
       <c r="B2738" t="s">
         <v>5563</v>
@@ -82045,12 +82085,12 @@
         <v>1790</v>
       </c>
       <c r="P2738" t="s">
-        <v>5577</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2739" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2739" s="1" t="s">
-        <v>5578</v>
+        <v>5581</v>
       </c>
       <c r="B2739" t="s">
         <v>5563</v>
@@ -82065,12 +82105,12 @@
         <v>1790</v>
       </c>
       <c r="P2739" t="s">
-        <v>6568</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="2740" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2740" s="1" t="s">
-        <v>5579</v>
+        <v>5583</v>
       </c>
       <c r="B2740" t="s">
         <v>5563</v>
@@ -82085,12 +82125,12 @@
         <v>1790</v>
       </c>
       <c r="P2740" t="s">
-        <v>5580</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="2741" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2741" s="1" t="s">
-        <v>5581</v>
+        <v>5585</v>
       </c>
       <c r="B2741" t="s">
         <v>5563</v>
@@ -82105,12 +82145,12 @@
         <v>1790</v>
       </c>
       <c r="P2741" t="s">
-        <v>5582</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="2742" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2742" s="1" t="s">
-        <v>5583</v>
+        <v>5587</v>
       </c>
       <c r="B2742" t="s">
         <v>5563</v>
@@ -82125,12 +82165,12 @@
         <v>1790</v>
       </c>
       <c r="P2742" t="s">
-        <v>5584</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="2743" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2743" s="1" t="s">
-        <v>5585</v>
+        <v>5589</v>
       </c>
       <c r="B2743" t="s">
         <v>5563</v>
@@ -82145,12 +82185,12 @@
         <v>1790</v>
       </c>
       <c r="P2743" t="s">
-        <v>5586</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="2744" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2744" s="1" t="s">
-        <v>5587</v>
+        <v>5590</v>
       </c>
       <c r="B2744" t="s">
         <v>5563</v>
@@ -82165,12 +82205,12 @@
         <v>1790</v>
       </c>
       <c r="P2744" t="s">
-        <v>5588</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2745" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2745" s="1" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
       <c r="B2745" t="s">
         <v>5563</v>
@@ -82185,12 +82225,12 @@
         <v>1790</v>
       </c>
       <c r="P2745" t="s">
-        <v>6569</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="2746" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2746" s="1" t="s">
-        <v>5590</v>
+        <v>5593</v>
       </c>
       <c r="B2746" t="s">
         <v>5563</v>
@@ -82205,12 +82245,12 @@
         <v>1790</v>
       </c>
       <c r="P2746" t="s">
-        <v>6570</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="2747" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2747" s="1" t="s">
-        <v>5591</v>
+        <v>5595</v>
       </c>
       <c r="B2747" t="s">
         <v>5563</v>
@@ -82225,12 +82265,12 @@
         <v>1790</v>
       </c>
       <c r="P2747" t="s">
-        <v>5592</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="2748" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2748" s="1" t="s">
-        <v>5593</v>
+        <v>5597</v>
       </c>
       <c r="B2748" t="s">
         <v>5563</v>
@@ -82245,12 +82285,12 @@
         <v>1790</v>
       </c>
       <c r="P2748" t="s">
-        <v>5594</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="2749" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2749" s="1" t="s">
-        <v>5595</v>
+        <v>5599</v>
       </c>
       <c r="B2749" t="s">
         <v>5563</v>
@@ -82265,12 +82305,12 @@
         <v>1790</v>
       </c>
       <c r="P2749" t="s">
-        <v>5596</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="2750" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2750" s="1" t="s">
-        <v>5597</v>
+        <v>5601</v>
       </c>
       <c r="B2750" t="s">
         <v>5563</v>
@@ -82285,12 +82325,12 @@
         <v>1790</v>
       </c>
       <c r="P2750" t="s">
-        <v>5598</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="2751" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2751" s="1" t="s">
-        <v>5599</v>
+        <v>5603</v>
       </c>
       <c r="B2751" t="s">
         <v>5563</v>
@@ -82305,12 +82345,12 @@
         <v>1790</v>
       </c>
       <c r="P2751" t="s">
-        <v>5600</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="2752" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2752" s="1" t="s">
-        <v>5601</v>
+        <v>5604</v>
       </c>
       <c r="B2752" t="s">
         <v>5563</v>
@@ -82325,12 +82365,12 @@
         <v>1790</v>
       </c>
       <c r="P2752" t="s">
-        <v>5602</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2753" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2753" s="1" t="s">
-        <v>5603</v>
+        <v>5606</v>
       </c>
       <c r="B2753" t="s">
         <v>5563</v>
@@ -82345,12 +82385,12 @@
         <v>1790</v>
       </c>
       <c r="P2753" t="s">
-        <v>6571</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="2754" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2754" s="1" t="s">
-        <v>5604</v>
+        <v>5608</v>
       </c>
       <c r="B2754" t="s">
         <v>5563</v>
@@ -82365,12 +82405,12 @@
         <v>1790</v>
       </c>
       <c r="P2754" t="s">
-        <v>5605</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="2755" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2755" s="1" t="s">
-        <v>5606</v>
+        <v>5610</v>
       </c>
       <c r="B2755" t="s">
         <v>5563</v>
@@ -82385,12 +82425,12 @@
         <v>1790</v>
       </c>
       <c r="P2755" t="s">
-        <v>5607</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="2756" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2756" s="1" t="s">
-        <v>5608</v>
+        <v>5611</v>
       </c>
       <c r="B2756" t="s">
         <v>5563</v>
@@ -82405,12 +82445,12 @@
         <v>1790</v>
       </c>
       <c r="P2756" t="s">
-        <v>5609</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="2757" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2757" s="1" t="s">
-        <v>5610</v>
+        <v>5612</v>
       </c>
       <c r="B2757" t="s">
         <v>5563</v>
@@ -82425,12 +82465,12 @@
         <v>1790</v>
       </c>
       <c r="P2757" t="s">
-        <v>6572</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="2758" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2758" s="1" t="s">
-        <v>5611</v>
+        <v>5613</v>
       </c>
       <c r="B2758" t="s">
         <v>5563</v>
@@ -82445,12 +82485,12 @@
         <v>1790</v>
       </c>
       <c r="P2758" t="s">
-        <v>6573</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2759" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2759" s="1" t="s">
-        <v>5612</v>
+        <v>5615</v>
       </c>
       <c r="B2759" t="s">
         <v>5563</v>
@@ -82465,12 +82505,12 @@
         <v>1790</v>
       </c>
       <c r="P2759" t="s">
-        <v>6574</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="2760" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2760" s="1" t="s">
-        <v>5613</v>
+        <v>5617</v>
       </c>
       <c r="B2760" t="s">
         <v>5563</v>
@@ -82485,12 +82525,12 @@
         <v>1790</v>
       </c>
       <c r="P2760" t="s">
-        <v>5614</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="2761" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2761" s="1" t="s">
-        <v>5615</v>
+        <v>5618</v>
       </c>
       <c r="B2761" t="s">
         <v>5563</v>
@@ -82505,12 +82545,12 @@
         <v>1790</v>
       </c>
       <c r="P2761" t="s">
-        <v>5616</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="2762" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2762" s="1" t="s">
-        <v>5617</v>
+        <v>5620</v>
       </c>
       <c r="B2762" t="s">
         <v>5563</v>
@@ -82525,12 +82565,12 @@
         <v>1790</v>
       </c>
       <c r="P2762" t="s">
-        <v>6575</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="2763" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2763" s="1" t="s">
-        <v>5618</v>
+        <v>5621</v>
       </c>
       <c r="B2763" t="s">
         <v>5563</v>
@@ -82545,12 +82585,12 @@
         <v>1790</v>
       </c>
       <c r="P2763" t="s">
-        <v>5619</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="2764" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2764" s="1" t="s">
-        <v>5620</v>
+        <v>5623</v>
       </c>
       <c r="B2764" t="s">
         <v>5563</v>
@@ -82565,12 +82605,12 @@
         <v>1790</v>
       </c>
       <c r="P2764" t="s">
-        <v>6576</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="2765" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2765" s="1" t="s">
-        <v>5621</v>
+        <v>5625</v>
       </c>
       <c r="B2765" t="s">
         <v>5563</v>
@@ -82585,12 +82625,12 @@
         <v>1790</v>
       </c>
       <c r="P2765" t="s">
-        <v>5622</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="2766" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2766" s="1" t="s">
-        <v>5623</v>
+        <v>5626</v>
       </c>
       <c r="B2766" t="s">
         <v>5563</v>
@@ -82605,12 +82645,12 @@
         <v>1790</v>
       </c>
       <c r="P2766" t="s">
-        <v>5624</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="2767" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2767" s="1" t="s">
-        <v>5625</v>
+        <v>5627</v>
       </c>
       <c r="B2767" t="s">
         <v>5563</v>
@@ -82625,12 +82665,12 @@
         <v>1790</v>
       </c>
       <c r="P2767" t="s">
-        <v>6577</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="2768" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2768" s="1" t="s">
-        <v>5626</v>
+        <v>5629</v>
       </c>
       <c r="B2768" t="s">
         <v>5563</v>
@@ -82645,12 +82685,12 @@
         <v>1790</v>
       </c>
       <c r="P2768" t="s">
-        <v>6578</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="2769" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2769" s="1" t="s">
-        <v>5627</v>
+        <v>5630</v>
       </c>
       <c r="B2769" t="s">
         <v>5563</v>
@@ -82665,12 +82705,12 @@
         <v>1790</v>
       </c>
       <c r="P2769" t="s">
-        <v>5628</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2770" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2770" s="1" t="s">
-        <v>5629</v>
+        <v>5631</v>
       </c>
       <c r="B2770" t="s">
         <v>5563</v>
@@ -82685,12 +82725,12 @@
         <v>1790</v>
       </c>
       <c r="P2770" t="s">
-        <v>6579</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="2771" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2771" s="1" t="s">
-        <v>5630</v>
+        <v>5632</v>
       </c>
       <c r="B2771" t="s">
         <v>5563</v>
@@ -82705,12 +82745,12 @@
         <v>1790</v>
       </c>
       <c r="P2771" t="s">
-        <v>6580</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="2772" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2772" s="1" t="s">
-        <v>5631</v>
+        <v>5633</v>
       </c>
       <c r="B2772" t="s">
         <v>5563</v>
@@ -82725,12 +82765,12 @@
         <v>1790</v>
       </c>
       <c r="P2772" t="s">
-        <v>6581</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="2773" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2773" s="1" t="s">
-        <v>5632</v>
+        <v>5634</v>
       </c>
       <c r="B2773" t="s">
         <v>5563</v>
@@ -82745,12 +82785,12 @@
         <v>1790</v>
       </c>
       <c r="P2773" t="s">
-        <v>6582</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="2774" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2774" s="1" t="s">
-        <v>5633</v>
+        <v>5635</v>
       </c>
       <c r="B2774" t="s">
         <v>5563</v>
@@ -82765,12 +82805,12 @@
         <v>1790</v>
       </c>
       <c r="P2774" t="s">
-        <v>6583</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="2775" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2775" s="1" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
       <c r="B2775" t="s">
         <v>5563</v>
@@ -82785,12 +82825,12 @@
         <v>1790</v>
       </c>
       <c r="P2775" t="s">
-        <v>6584</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="2776" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2776" s="1" t="s">
-        <v>5635</v>
+        <v>5638</v>
       </c>
       <c r="B2776" t="s">
         <v>5563</v>
@@ -82805,12 +82845,12 @@
         <v>1790</v>
       </c>
       <c r="P2776" t="s">
-        <v>6585</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="2777" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2777" s="1" t="s">
-        <v>5636</v>
+        <v>5640</v>
       </c>
       <c r="B2777" t="s">
         <v>5563</v>
@@ -82825,12 +82865,12 @@
         <v>1790</v>
       </c>
       <c r="P2777" t="s">
-        <v>5637</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="2778" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2778" s="1" t="s">
-        <v>5638</v>
+        <v>5642</v>
       </c>
       <c r="B2778" t="s">
         <v>5563</v>
@@ -82845,12 +82885,12 @@
         <v>1790</v>
       </c>
       <c r="P2778" t="s">
-        <v>5639</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="2779" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2779" s="1" t="s">
-        <v>5640</v>
+        <v>5643</v>
       </c>
       <c r="B2779" t="s">
         <v>5563</v>
@@ -82865,12 +82905,12 @@
         <v>1790</v>
       </c>
       <c r="P2779" t="s">
-        <v>5641</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="2780" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2780" s="1" t="s">
-        <v>5642</v>
+        <v>5645</v>
       </c>
       <c r="B2780" t="s">
         <v>5563</v>
@@ -82885,12 +82925,12 @@
         <v>1790</v>
       </c>
       <c r="P2780" t="s">
-        <v>6586</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="2781" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2781" s="1" t="s">
-        <v>5643</v>
+        <v>5647</v>
       </c>
       <c r="B2781" t="s">
         <v>5563</v>
@@ -82905,12 +82945,12 @@
         <v>1790</v>
       </c>
       <c r="P2781" t="s">
-        <v>5644</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="2782" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2782" s="1" t="s">
-        <v>5645</v>
+        <v>5648</v>
       </c>
       <c r="B2782" t="s">
         <v>5563</v>
@@ -82925,12 +82965,12 @@
         <v>1790</v>
       </c>
       <c r="P2782" t="s">
-        <v>5646</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2783" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2783" s="1" t="s">
-        <v>5647</v>
+        <v>5650</v>
       </c>
       <c r="B2783" t="s">
         <v>5563</v>
@@ -82945,12 +82985,12 @@
         <v>1790</v>
       </c>
       <c r="P2783" t="s">
-        <v>6587</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="2784" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2784" s="1" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
       <c r="B2784" t="s">
         <v>5563</v>
@@ -82965,12 +83005,12 @@
         <v>1790</v>
       </c>
       <c r="P2784" t="s">
-        <v>5649</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="2785" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2785" s="1" t="s">
-        <v>5650</v>
+        <v>5652</v>
       </c>
       <c r="B2785" t="s">
         <v>5563</v>
@@ -82985,12 +83025,12 @@
         <v>1790</v>
       </c>
       <c r="P2785" t="s">
-        <v>6588</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2786" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2786" s="1" t="s">
-        <v>5651</v>
+        <v>5653</v>
       </c>
       <c r="B2786" t="s">
         <v>5563</v>
@@ -83005,12 +83045,12 @@
         <v>1790</v>
       </c>
       <c r="P2786" t="s">
-        <v>6589</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="2787" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2787" s="1" t="s">
-        <v>5652</v>
+        <v>5654</v>
       </c>
       <c r="B2787" t="s">
         <v>5563</v>
@@ -83025,12 +83065,12 @@
         <v>1790</v>
       </c>
       <c r="P2787" t="s">
-        <v>6590</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="2788" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2788" s="1" t="s">
-        <v>5653</v>
+        <v>5655</v>
       </c>
       <c r="B2788" t="s">
         <v>5563</v>
@@ -83045,12 +83085,12 @@
         <v>1790</v>
       </c>
       <c r="P2788" t="s">
-        <v>6591</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="2789" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2789" s="1" t="s">
-        <v>5654</v>
+        <v>5656</v>
       </c>
       <c r="B2789" t="s">
         <v>5563</v>
@@ -83065,12 +83105,12 @@
         <v>1790</v>
       </c>
       <c r="P2789" t="s">
-        <v>6592</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="2790" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2790" s="1" t="s">
-        <v>5655</v>
+        <v>5658</v>
       </c>
       <c r="B2790" t="s">
         <v>5563</v>
@@ -83085,12 +83125,12 @@
         <v>1790</v>
       </c>
       <c r="P2790" t="s">
-        <v>6593</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="2791" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2791" s="1" t="s">
-        <v>5656</v>
+        <v>5659</v>
       </c>
       <c r="B2791" t="s">
         <v>5563</v>
@@ -83105,12 +83145,12 @@
         <v>1790</v>
       </c>
       <c r="P2791" t="s">
-        <v>5657</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="2792" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2792" s="1" t="s">
-        <v>5658</v>
+        <v>5660</v>
       </c>
       <c r="B2792" t="s">
         <v>5563</v>
@@ -83125,12 +83165,12 @@
         <v>1790</v>
       </c>
       <c r="P2792" t="s">
-        <v>6594</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="2793" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2793" s="1" t="s">
-        <v>5659</v>
+        <v>5662</v>
       </c>
       <c r="B2793" t="s">
         <v>5563</v>
@@ -83145,12 +83185,12 @@
         <v>1790</v>
       </c>
       <c r="P2793" t="s">
-        <v>6595</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="2794" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2794" s="1" t="s">
-        <v>5660</v>
+        <v>5664</v>
       </c>
       <c r="B2794" t="s">
         <v>5563</v>
@@ -83165,12 +83205,12 @@
         <v>1790</v>
       </c>
       <c r="P2794" t="s">
-        <v>5661</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="2795" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2795" s="1" t="s">
-        <v>5662</v>
+        <v>5665</v>
       </c>
       <c r="B2795" t="s">
         <v>5563</v>
@@ -83185,12 +83225,12 @@
         <v>1790</v>
       </c>
       <c r="P2795" t="s">
-        <v>5663</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="2796" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2796" s="1" t="s">
-        <v>5664</v>
+        <v>5667</v>
       </c>
       <c r="B2796" t="s">
         <v>5563</v>
@@ -83205,12 +83245,12 @@
         <v>1790</v>
       </c>
       <c r="P2796" t="s">
-        <v>6596</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="2797" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2797" s="1" t="s">
-        <v>5665</v>
+        <v>5668</v>
       </c>
       <c r="B2797" t="s">
         <v>5563</v>
@@ -83225,12 +83265,12 @@
         <v>1790</v>
       </c>
       <c r="P2797" t="s">
-        <v>5666</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="2798" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2798" s="1" t="s">
-        <v>5667</v>
+        <v>5669</v>
       </c>
       <c r="B2798" t="s">
         <v>5563</v>
@@ -83245,12 +83285,12 @@
         <v>1790</v>
       </c>
       <c r="P2798" t="s">
-        <v>6597</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="2799" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2799" s="1" t="s">
-        <v>5668</v>
+        <v>5670</v>
       </c>
       <c r="B2799" t="s">
         <v>5563</v>
@@ -83265,12 +83305,12 @@
         <v>1790</v>
       </c>
       <c r="P2799" t="s">
-        <v>6598</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2800" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2800" s="1" t="s">
-        <v>5669</v>
+        <v>5671</v>
       </c>
       <c r="B2800" t="s">
         <v>5563</v>
@@ -83285,12 +83325,12 @@
         <v>1790</v>
       </c>
       <c r="P2800" t="s">
-        <v>6599</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="2801" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2801" s="1" t="s">
-        <v>5670</v>
+        <v>5672</v>
       </c>
       <c r="B2801" t="s">
         <v>5563</v>
@@ -83305,12 +83345,12 @@
         <v>1790</v>
       </c>
       <c r="P2801" t="s">
-        <v>6600</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2802" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2802" s="1" t="s">
-        <v>5671</v>
+        <v>5674</v>
       </c>
       <c r="B2802" t="s">
         <v>5563</v>
@@ -83325,12 +83365,12 @@
         <v>1790</v>
       </c>
       <c r="P2802" t="s">
-        <v>6601</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="2803" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2803" s="1" t="s">
-        <v>5672</v>
+        <v>5675</v>
       </c>
       <c r="B2803" t="s">
         <v>5563</v>
@@ -83345,12 +83385,12 @@
         <v>1790</v>
       </c>
       <c r="P2803" t="s">
-        <v>5673</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="2804" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2804" s="1" t="s">
-        <v>5674</v>
+        <v>5677</v>
       </c>
       <c r="B2804" t="s">
         <v>5563</v>
@@ -83365,12 +83405,12 @@
         <v>1790</v>
       </c>
       <c r="P2804" t="s">
-        <v>6602</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="2805" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2805" s="1" t="s">
-        <v>5675</v>
+        <v>5678</v>
       </c>
       <c r="B2805" t="s">
         <v>5563</v>
@@ -83385,12 +83425,12 @@
         <v>1790</v>
       </c>
       <c r="P2805" t="s">
-        <v>5676</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="2806" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2806" s="1" t="s">
-        <v>5677</v>
+        <v>5680</v>
       </c>
       <c r="B2806" t="s">
         <v>5563</v>
@@ -83405,12 +83445,12 @@
         <v>1790</v>
       </c>
       <c r="P2806" t="s">
-        <v>6603</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="2807" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2807" s="1" t="s">
-        <v>5678</v>
+        <v>5682</v>
       </c>
       <c r="B2807" t="s">
         <v>5563</v>
@@ -83425,12 +83465,12 @@
         <v>1790</v>
       </c>
       <c r="P2807" t="s">
-        <v>5679</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="2808" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2808" s="1" t="s">
-        <v>5680</v>
+        <v>5683</v>
       </c>
       <c r="B2808" t="s">
         <v>5563</v>
@@ -83445,12 +83485,12 @@
         <v>1790</v>
       </c>
       <c r="P2808" t="s">
-        <v>5681</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="2809" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2809" s="1" t="s">
-        <v>5682</v>
+        <v>5684</v>
       </c>
       <c r="B2809" t="s">
         <v>5563</v>
@@ -83465,12 +83505,12 @@
         <v>1790</v>
       </c>
       <c r="P2809" t="s">
-        <v>6604</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="2810" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2810" s="1" t="s">
-        <v>5683</v>
+        <v>5686</v>
       </c>
       <c r="B2810" t="s">
         <v>5563</v>
@@ -83485,12 +83525,12 @@
         <v>1790</v>
       </c>
       <c r="P2810" t="s">
-        <v>6605</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="2811" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2811" s="1" t="s">
-        <v>5684</v>
+        <v>5688</v>
       </c>
       <c r="B2811" t="s">
         <v>5563</v>
@@ -83505,12 +83545,12 @@
         <v>1790</v>
       </c>
       <c r="P2811" t="s">
-        <v>5685</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="2812" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2812" s="1" t="s">
-        <v>5686</v>
+        <v>5689</v>
       </c>
       <c r="B2812" t="s">
         <v>5563</v>
@@ -83525,12 +83565,12 @@
         <v>1790</v>
       </c>
       <c r="P2812" t="s">
-        <v>5687</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="2813" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2813" s="1" t="s">
-        <v>5688</v>
+        <v>5691</v>
       </c>
       <c r="B2813" t="s">
         <v>5563</v>
@@ -83545,12 +83585,12 @@
         <v>1790</v>
       </c>
       <c r="P2813" t="s">
-        <v>6606</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="2814" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2814" s="1" t="s">
-        <v>5689</v>
+        <v>5692</v>
       </c>
       <c r="B2814" t="s">
         <v>5563</v>
@@ -83565,12 +83605,12 @@
         <v>1790</v>
       </c>
       <c r="P2814" t="s">
-        <v>5690</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="2815" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2815" s="1" t="s">
-        <v>5691</v>
+        <v>5693</v>
       </c>
       <c r="B2815" t="s">
         <v>5563</v>
@@ -83585,12 +83625,12 @@
         <v>1790</v>
       </c>
       <c r="P2815" t="s">
-        <v>6607</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="2816" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2816" s="1" t="s">
-        <v>5692</v>
+        <v>5694</v>
       </c>
       <c r="B2816" t="s">
         <v>5563</v>
@@ -83605,12 +83645,12 @@
         <v>1790</v>
       </c>
       <c r="P2816" t="s">
-        <v>6608</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="2817" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2817" s="1" t="s">
-        <v>5693</v>
+        <v>5695</v>
       </c>
       <c r="B2817" t="s">
         <v>5563</v>
@@ -83625,12 +83665,12 @@
         <v>1790</v>
       </c>
       <c r="P2817" t="s">
-        <v>6609</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="2818" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2818" s="1" t="s">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="B2818" t="s">
         <v>5563</v>
@@ -83645,12 +83685,12 @@
         <v>1790</v>
       </c>
       <c r="P2818" t="s">
-        <v>6610</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="2819" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2819" s="1" t="s">
-        <v>5695</v>
+        <v>5697</v>
       </c>
       <c r="B2819" t="s">
         <v>5563</v>
@@ -83665,12 +83705,12 @@
         <v>1790</v>
       </c>
       <c r="P2819" t="s">
-        <v>6611</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="2820" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2820" s="1" t="s">
-        <v>5696</v>
+        <v>5699</v>
       </c>
       <c r="B2820" t="s">
         <v>5563</v>
@@ -83685,12 +83725,12 @@
         <v>1790</v>
       </c>
       <c r="P2820" t="s">
-        <v>6612</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="2821" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2821" s="1" t="s">
-        <v>5697</v>
+        <v>5700</v>
       </c>
       <c r="B2821" t="s">
         <v>5563</v>
@@ -83705,12 +83745,12 @@
         <v>1790</v>
       </c>
       <c r="P2821" t="s">
-        <v>5698</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="2822" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2822" s="1" t="s">
-        <v>5699</v>
+        <v>5701</v>
       </c>
       <c r="B2822" t="s">
         <v>5563</v>
@@ -83725,12 +83765,12 @@
         <v>1790</v>
       </c>
       <c r="P2822" t="s">
-        <v>6613</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="2823" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2823" s="1" t="s">
-        <v>5700</v>
+        <v>5703</v>
       </c>
       <c r="B2823" t="s">
         <v>5563</v>
@@ -83745,12 +83785,12 @@
         <v>1790</v>
       </c>
       <c r="P2823" t="s">
-        <v>6614</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="2824" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2824" s="1" t="s">
-        <v>5701</v>
+        <v>5704</v>
       </c>
       <c r="B2824" t="s">
         <v>5563</v>
@@ -83765,12 +83805,12 @@
         <v>1790</v>
       </c>
       <c r="P2824" t="s">
-        <v>5702</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="2825" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2825" s="1" t="s">
-        <v>5703</v>
+        <v>5706</v>
       </c>
       <c r="B2825" t="s">
         <v>5563</v>
@@ -83785,12 +83825,12 @@
         <v>1790</v>
       </c>
       <c r="P2825" t="s">
-        <v>6615</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="2826" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2826" s="1" t="s">
-        <v>5704</v>
+        <v>5708</v>
       </c>
       <c r="B2826" t="s">
         <v>5563</v>
@@ -83805,12 +83845,12 @@
         <v>1790</v>
       </c>
       <c r="P2826" t="s">
-        <v>5705</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="2827" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2827" s="1" t="s">
-        <v>5706</v>
+        <v>5709</v>
       </c>
       <c r="B2827" t="s">
         <v>5563</v>
@@ -83825,12 +83865,12 @@
         <v>1790</v>
       </c>
       <c r="P2827" t="s">
-        <v>5707</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2828" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2828" s="1" t="s">
-        <v>5708</v>
+        <v>5711</v>
       </c>
       <c r="B2828" t="s">
         <v>5563</v>
@@ -83845,12 +83885,12 @@
         <v>1790</v>
       </c>
       <c r="P2828" t="s">
-        <v>6616</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="2829" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2829" s="1" t="s">
-        <v>5709</v>
+        <v>5712</v>
       </c>
       <c r="B2829" t="s">
         <v>5563</v>
@@ -83865,12 +83905,12 @@
         <v>1790</v>
       </c>
       <c r="P2829" t="s">
-        <v>5710</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="2830" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2830" s="1" t="s">
-        <v>5711</v>
+        <v>5713</v>
       </c>
       <c r="B2830" t="s">
         <v>5563</v>
@@ -83885,12 +83925,12 @@
         <v>1790</v>
       </c>
       <c r="P2830" t="s">
-        <v>6617</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="2831" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2831" s="1" t="s">
-        <v>5712</v>
+        <v>5714</v>
       </c>
       <c r="B2831" t="s">
         <v>5563</v>
@@ -83905,12 +83945,12 @@
         <v>1790</v>
       </c>
       <c r="P2831" t="s">
-        <v>6618</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="2832" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2832" s="1" t="s">
-        <v>5713</v>
+        <v>5715</v>
       </c>
       <c r="B2832" t="s">
         <v>5563</v>
@@ -83925,12 +83965,12 @@
         <v>1790</v>
       </c>
       <c r="P2832" t="s">
-        <v>6619</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="2833" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2833" s="1" t="s">
-        <v>5714</v>
+        <v>5716</v>
       </c>
       <c r="B2833" t="s">
         <v>5563</v>
@@ -83945,12 +83985,12 @@
         <v>1790</v>
       </c>
       <c r="P2833" t="s">
-        <v>6620</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="2834" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2834" s="1" t="s">
-        <v>5715</v>
+        <v>5718</v>
       </c>
       <c r="B2834" t="s">
         <v>5563</v>
@@ -83965,12 +84005,12 @@
         <v>1790</v>
       </c>
       <c r="P2834" t="s">
-        <v>6621</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="2835" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2835" s="1" t="s">
-        <v>5716</v>
+        <v>5719</v>
       </c>
       <c r="B2835" t="s">
         <v>5563</v>
@@ -83985,12 +84025,12 @@
         <v>1790</v>
       </c>
       <c r="P2835" t="s">
-        <v>5717</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="2836" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2836" s="1" t="s">
-        <v>5718</v>
+        <v>5720</v>
       </c>
       <c r="B2836" t="s">
         <v>5563</v>
@@ -84005,12 +84045,12 @@
         <v>1790</v>
       </c>
       <c r="P2836" t="s">
-        <v>6622</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="2837" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2837" s="1" t="s">
-        <v>5719</v>
+        <v>5722</v>
       </c>
       <c r="B2837" t="s">
         <v>5563</v>
@@ -84025,12 +84065,12 @@
         <v>1790</v>
       </c>
       <c r="P2837" t="s">
-        <v>6623</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="2838" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2838" s="1" t="s">
-        <v>5720</v>
+        <v>5724</v>
       </c>
       <c r="B2838" t="s">
         <v>5563</v>
@@ -84045,12 +84085,12 @@
         <v>1790</v>
       </c>
       <c r="P2838" t="s">
-        <v>5721</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="2839" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2839" s="1" t="s">
-        <v>5722</v>
+        <v>5726</v>
       </c>
       <c r="B2839" t="s">
         <v>5563</v>
@@ -84065,12 +84105,12 @@
         <v>1790</v>
       </c>
       <c r="P2839" t="s">
-        <v>5723</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="2840" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2840" s="1" t="s">
-        <v>5724</v>
+        <v>5728</v>
       </c>
       <c r="B2840" t="s">
         <v>5563</v>
@@ -84085,12 +84125,12 @@
         <v>1790</v>
       </c>
       <c r="P2840" t="s">
-        <v>5725</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="2841" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2841" s="1" t="s">
-        <v>5726</v>
+        <v>5729</v>
       </c>
       <c r="B2841" t="s">
         <v>5563</v>
@@ -84105,12 +84145,12 @@
         <v>1790</v>
       </c>
       <c r="P2841" t="s">
-        <v>5727</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="2842" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2842" s="1" t="s">
-        <v>5728</v>
+        <v>5731</v>
       </c>
       <c r="B2842" t="s">
         <v>5563</v>
@@ -84125,12 +84165,12 @@
         <v>1790</v>
       </c>
       <c r="P2842" t="s">
-        <v>6624</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="2843" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2843" s="1" t="s">
-        <v>5729</v>
+        <v>5733</v>
       </c>
       <c r="B2843" t="s">
         <v>5563</v>
@@ -84145,12 +84185,12 @@
         <v>1790</v>
       </c>
       <c r="P2843" t="s">
-        <v>5730</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="2844" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2844" s="1" t="s">
-        <v>5731</v>
+        <v>5734</v>
       </c>
       <c r="B2844" t="s">
         <v>5563</v>
@@ -84165,12 +84205,12 @@
         <v>1790</v>
       </c>
       <c r="P2844" t="s">
-        <v>5732</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="2845" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2845" s="1" t="s">
-        <v>5733</v>
+        <v>5736</v>
       </c>
       <c r="B2845" t="s">
         <v>5563</v>
@@ -84185,12 +84225,12 @@
         <v>1790</v>
       </c>
       <c r="P2845" t="s">
-        <v>6625</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="2846" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2846" s="1" t="s">
-        <v>5734</v>
+        <v>5737</v>
       </c>
       <c r="B2846" t="s">
         <v>5563</v>
@@ -84205,12 +84245,12 @@
         <v>1790</v>
       </c>
       <c r="P2846" t="s">
-        <v>5735</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="2847" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2847" s="1" t="s">
-        <v>5736</v>
+        <v>5739</v>
       </c>
       <c r="B2847" t="s">
         <v>5563</v>
@@ -84225,12 +84265,12 @@
         <v>1790</v>
       </c>
       <c r="P2847" t="s">
-        <v>6626</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="2848" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2848" s="1" t="s">
-        <v>5737</v>
+        <v>5741</v>
       </c>
       <c r="B2848" t="s">
         <v>5563</v>
@@ -84245,12 +84285,12 @@
         <v>1790</v>
       </c>
       <c r="P2848" t="s">
-        <v>5738</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="2849" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2849" s="1" t="s">
-        <v>5739</v>
+        <v>5743</v>
       </c>
       <c r="B2849" t="s">
         <v>5563</v>
@@ -84265,12 +84305,12 @@
         <v>1790</v>
       </c>
       <c r="P2849" t="s">
-        <v>5740</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="2850" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2850" s="1" t="s">
-        <v>5741</v>
+        <v>5745</v>
       </c>
       <c r="B2850" t="s">
         <v>5563</v>
@@ -84285,12 +84325,12 @@
         <v>1790</v>
       </c>
       <c r="P2850" t="s">
-        <v>5742</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="2851" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2851" s="1" t="s">
-        <v>5743</v>
+        <v>5746</v>
       </c>
       <c r="B2851" t="s">
         <v>5563</v>
@@ -84305,12 +84345,12 @@
         <v>1790</v>
       </c>
       <c r="P2851" t="s">
-        <v>5744</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="2852" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2852" s="1" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="B2852" t="s">
         <v>5563</v>
@@ -84325,12 +84365,12 @@
         <v>1790</v>
       </c>
       <c r="P2852" t="s">
-        <v>6627</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="2853" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2853" s="1" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
       <c r="B2853" t="s">
         <v>5563</v>
@@ -84345,12 +84385,12 @@
         <v>1790</v>
       </c>
       <c r="P2853" t="s">
-        <v>6628</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="2854" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2854" s="1" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="B2854" t="s">
         <v>5563</v>
@@ -84365,12 +84405,12 @@
         <v>1790</v>
       </c>
       <c r="P2854" t="s">
-        <v>6629</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="2855" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2855" s="1" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="B2855" t="s">
         <v>5563</v>
@@ -84385,12 +84425,12 @@
         <v>1790</v>
       </c>
       <c r="P2855" t="s">
-        <v>6630</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2856" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2856" s="1" t="s">
-        <v>5749</v>
+        <v>5752</v>
       </c>
       <c r="B2856" t="s">
         <v>5563</v>
@@ -84405,12 +84445,12 @@
         <v>1790</v>
       </c>
       <c r="P2856" t="s">
-        <v>6631</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="2857" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2857" s="1" t="s">
-        <v>5750</v>
+        <v>5753</v>
       </c>
       <c r="B2857" t="s">
         <v>5563</v>
@@ -84425,12 +84465,12 @@
         <v>1790</v>
       </c>
       <c r="P2857" t="s">
-        <v>5751</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="2858" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2858" s="1" t="s">
-        <v>5752</v>
+        <v>5755</v>
       </c>
       <c r="B2858" t="s">
         <v>5563</v>
@@ -84445,12 +84485,12 @@
         <v>1790</v>
       </c>
       <c r="P2858" t="s">
-        <v>6632</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="2859" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2859" s="1" t="s">
-        <v>5753</v>
+        <v>5756</v>
       </c>
       <c r="B2859" t="s">
         <v>5563</v>
@@ -84465,12 +84505,12 @@
         <v>1790</v>
       </c>
       <c r="P2859" t="s">
-        <v>5754</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="2860" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2860" s="1" t="s">
-        <v>5755</v>
+        <v>5758</v>
       </c>
       <c r="B2860" t="s">
         <v>5563</v>
@@ -84485,12 +84525,12 @@
         <v>1790</v>
       </c>
       <c r="P2860" t="s">
-        <v>6633</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="2861" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2861" s="1" t="s">
-        <v>5756</v>
+        <v>5759</v>
       </c>
       <c r="B2861" t="s">
         <v>5563</v>
@@ -84505,12 +84545,12 @@
         <v>1790</v>
       </c>
       <c r="P2861" t="s">
-        <v>5757</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="2862" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2862" s="1" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="B2862" t="s">
         <v>5563</v>
@@ -84525,12 +84565,12 @@
         <v>1790</v>
       </c>
       <c r="P2862" t="s">
-        <v>6634</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="2863" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2863" s="1" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="B2863" t="s">
         <v>5563</v>
@@ -84545,46 +84585,6 @@
         <v>1790</v>
       </c>
       <c r="P2863" t="s">
-        <v>6635</v>
-      </c>
-    </row>
-    <row r="2864" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2864" s="1" t="s">
-        <v>5760</v>
-      </c>
-      <c r="B2864" t="s">
-        <v>5563</v>
-      </c>
-      <c r="C2864">
-        <v>68000</v>
-      </c>
-      <c r="D2864" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2864" t="s">
-        <v>1790</v>
-      </c>
-      <c r="P2864" t="s">
-        <v>6636</v>
-      </c>
-    </row>
-    <row r="2865" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2865" s="1" t="s">
-        <v>5761</v>
-      </c>
-      <c r="B2865" t="s">
-        <v>5563</v>
-      </c>
-      <c r="C2865">
-        <v>68000</v>
-      </c>
-      <c r="D2865" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2865" t="s">
-        <v>1790</v>
-      </c>
-      <c r="P2865" t="s">
         <v>6637</v>
       </c>
     </row>

--- a/emulator/compatibility_list.xlsx
+++ b/emulator/compatibility_list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2863</definedName>
+    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2862</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20299,10 +20299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23111,6 +23111,23 @@
       </c>
       <c r="P141" t="s">
         <v>5150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5489</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="K142" t="s">
+        <v>60</v>
+      </c>
+      <c r="P142" t="s">
+        <v>5490</v>
       </c>
     </row>
   </sheetData>
@@ -23228,10 +23245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2863"/>
+  <dimension ref="A1:P2862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2537" workbookViewId="0">
-      <selection activeCell="A2552" sqref="A2552:XFD2553"/>
+    <sheetView tabSelected="1" topLeftCell="A2686" workbookViewId="0">
+      <selection activeCell="A2701" sqref="A2701:XFD2701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81342,24 +81359,21 @@
     </row>
     <row r="2701" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2701" s="1" t="s">
-        <v>5488</v>
+        <v>5491</v>
       </c>
       <c r="B2701" t="s">
-        <v>5489</v>
+        <v>5492</v>
       </c>
       <c r="C2701" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2701" t="s">
-        <v>60</v>
+        <v>605</v>
       </c>
       <c r="P2701" t="s">
-        <v>5490</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="2702" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2702" s="1" t="s">
-        <v>5491</v>
+        <v>5494</v>
       </c>
       <c r="B2702" t="s">
         <v>5492</v>
@@ -81368,69 +81382,84 @@
         <v>605</v>
       </c>
       <c r="P2702" t="s">
-        <v>5493</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="2703" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2703" s="1" t="s">
-        <v>5494</v>
+        <v>5496</v>
       </c>
       <c r="B2703" t="s">
-        <v>5492</v>
-      </c>
-      <c r="C2703" t="s">
-        <v>605</v>
+        <v>5497</v>
+      </c>
+      <c r="C2703">
+        <v>8080</v>
       </c>
       <c r="P2703" t="s">
-        <v>5495</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="2704" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2704" s="1" t="s">
-        <v>5496</v>
+        <v>5499</v>
       </c>
       <c r="B2704" t="s">
-        <v>5497</v>
-      </c>
-      <c r="C2704">
-        <v>8080</v>
+        <v>5500</v>
+      </c>
+      <c r="C2704" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D2704" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E2704" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F2704" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K2704" t="s">
+        <v>354</v>
+      </c>
+      <c r="L2704" t="s">
+        <v>693</v>
       </c>
       <c r="P2704" t="s">
-        <v>5498</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="2705" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2705" s="1" t="s">
-        <v>5499</v>
+        <v>5502</v>
       </c>
       <c r="B2705" t="s">
-        <v>5500</v>
+        <v>5503</v>
       </c>
       <c r="C2705" t="s">
-        <v>4290</v>
+        <v>2</v>
       </c>
       <c r="D2705" t="s">
-        <v>4290</v>
+        <v>2</v>
       </c>
       <c r="E2705" t="s">
-        <v>1422</v>
+        <v>2</v>
       </c>
       <c r="F2705" t="s">
-        <v>1422</v>
+        <v>168</v>
       </c>
       <c r="K2705" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="L2705" t="s">
-        <v>693</v>
+        <v>178</v>
       </c>
       <c r="P2705" t="s">
-        <v>5501</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="2706" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2706" s="1" t="s">
-        <v>5502</v>
+        <v>5505</v>
       </c>
       <c r="B2706" t="s">
         <v>5503</v>
@@ -81454,12 +81483,12 @@
         <v>178</v>
       </c>
       <c r="P2706" t="s">
-        <v>5504</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="2707" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2707" s="1" t="s">
-        <v>5505</v>
+        <v>5507</v>
       </c>
       <c r="B2707" t="s">
         <v>5503</v>
@@ -81483,12 +81512,12 @@
         <v>178</v>
       </c>
       <c r="P2707" t="s">
-        <v>5506</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="2708" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2708" s="1" t="s">
-        <v>5507</v>
+        <v>5509</v>
       </c>
       <c r="B2708" t="s">
         <v>5503</v>
@@ -81512,146 +81541,134 @@
         <v>178</v>
       </c>
       <c r="P2708" t="s">
-        <v>5508</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="2709" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2709" s="1" t="s">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="B2709" t="s">
-        <v>5503</v>
+        <v>5512</v>
       </c>
       <c r="C2709" t="s">
         <v>2</v>
       </c>
-      <c r="D2709" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2709" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2709" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2709" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2709" t="s">
-        <v>178</v>
-      </c>
       <c r="P2709" t="s">
-        <v>5510</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2710" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2710" s="1" t="s">
-        <v>5511</v>
+        <v>5517</v>
       </c>
       <c r="B2710" t="s">
-        <v>5512</v>
-      </c>
-      <c r="C2710" t="s">
-        <v>2</v>
+        <v>5518</v>
+      </c>
+      <c r="C2710">
+        <v>8080</v>
+      </c>
+      <c r="K2710" t="s">
+        <v>537</v>
       </c>
       <c r="P2710" t="s">
-        <v>5513</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="2711" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2711" s="1" t="s">
-        <v>5517</v>
+        <v>5520</v>
       </c>
       <c r="B2711" t="s">
-        <v>5518</v>
-      </c>
-      <c r="C2711">
-        <v>8080</v>
+        <v>5294</v>
+      </c>
+      <c r="C2711" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2711" t="s">
+        <v>168</v>
       </c>
       <c r="K2711" t="s">
-        <v>537</v>
+        <v>357</v>
       </c>
       <c r="P2711" t="s">
-        <v>5519</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="2712" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2712" s="1" t="s">
-        <v>5520</v>
+        <v>5522</v>
       </c>
       <c r="B2712" t="s">
-        <v>5294</v>
-      </c>
-      <c r="C2712" t="s">
-        <v>2</v>
+        <v>5523</v>
+      </c>
+      <c r="C2712">
+        <v>68000</v>
       </c>
       <c r="D2712" t="s">
         <v>168</v>
       </c>
       <c r="K2712" t="s">
-        <v>357</v>
+        <v>1639</v>
       </c>
       <c r="P2712" t="s">
-        <v>5521</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="2713" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2713" s="1" t="s">
-        <v>5522</v>
+        <v>5525</v>
       </c>
       <c r="B2713" t="s">
-        <v>5523</v>
-      </c>
-      <c r="C2713">
-        <v>68000</v>
-      </c>
-      <c r="D2713" t="s">
-        <v>168</v>
+        <v>5526</v>
+      </c>
+      <c r="C2713" t="s">
+        <v>536</v>
       </c>
       <c r="K2713" t="s">
-        <v>1639</v>
+        <v>60</v>
       </c>
       <c r="P2713" t="s">
-        <v>5524</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="2714" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2714" s="1" t="s">
-        <v>5525</v>
+        <v>5528</v>
       </c>
       <c r="B2714" t="s">
-        <v>5526</v>
+        <v>5529</v>
       </c>
       <c r="C2714" t="s">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="K2714" t="s">
-        <v>60</v>
+        <v>537</v>
       </c>
       <c r="P2714" t="s">
-        <v>5527</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="2715" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2715" s="1" t="s">
-        <v>5528</v>
+        <v>5530</v>
       </c>
       <c r="B2715" t="s">
-        <v>5529</v>
+        <v>5531</v>
       </c>
       <c r="C2715" t="s">
         <v>2</v>
       </c>
       <c r="K2715" t="s">
-        <v>537</v>
+        <v>63</v>
       </c>
       <c r="P2715" t="s">
-        <v>6564</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="2716" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2716" s="1" t="s">
-        <v>5530</v>
+        <v>5533</v>
       </c>
       <c r="B2716" t="s">
         <v>5531</v>
@@ -81663,80 +81680,83 @@
         <v>63</v>
       </c>
       <c r="P2716" t="s">
-        <v>5532</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="2717" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2717" s="1" t="s">
-        <v>5533</v>
+        <v>5535</v>
       </c>
       <c r="B2717" t="s">
-        <v>5531</v>
+        <v>5536</v>
       </c>
       <c r="C2717" t="s">
         <v>2</v>
       </c>
       <c r="K2717" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P2717" t="s">
-        <v>5534</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2718" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2718" s="1" t="s">
-        <v>5535</v>
+        <v>5538</v>
       </c>
       <c r="B2718" t="s">
-        <v>5536</v>
+        <v>5539</v>
       </c>
       <c r="C2718" t="s">
         <v>2</v>
       </c>
       <c r="K2718" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="P2718" t="s">
-        <v>5537</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2719" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2719" s="1" t="s">
-        <v>5538</v>
+        <v>5541</v>
       </c>
       <c r="B2719" t="s">
-        <v>5539</v>
+        <v>5542</v>
       </c>
       <c r="C2719" t="s">
         <v>2</v>
       </c>
       <c r="K2719" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="P2719" t="s">
-        <v>5540</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2720" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2720" s="1" t="s">
-        <v>5541</v>
+        <v>5544</v>
       </c>
       <c r="B2720" t="s">
-        <v>5542</v>
+        <v>5545</v>
       </c>
       <c r="C2720" t="s">
         <v>2</v>
       </c>
+      <c r="D2720" t="s">
+        <v>2</v>
+      </c>
       <c r="K2720" t="s">
-        <v>60</v>
+        <v>693</v>
       </c>
       <c r="P2720" t="s">
-        <v>5543</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="2721" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2721" s="1" t="s">
-        <v>5544</v>
+        <v>5546</v>
       </c>
       <c r="B2721" t="s">
         <v>5545</v>
@@ -81751,32 +81771,29 @@
         <v>693</v>
       </c>
       <c r="P2721" t="s">
-        <v>6565</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="2722" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2722" s="1" t="s">
-        <v>5546</v>
+        <v>5547</v>
       </c>
       <c r="B2722" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
       <c r="C2722" t="s">
         <v>2</v>
       </c>
-      <c r="D2722" t="s">
-        <v>2</v>
-      </c>
       <c r="K2722" t="s">
-        <v>693</v>
+        <v>60</v>
       </c>
       <c r="P2722" t="s">
-        <v>6566</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2723" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2723" s="1" t="s">
-        <v>5547</v>
+        <v>5550</v>
       </c>
       <c r="B2723" t="s">
         <v>5548</v>
@@ -81784,16 +81801,25 @@
       <c r="C2723" t="s">
         <v>2</v>
       </c>
+      <c r="D2723" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2723" t="s">
+        <v>168</v>
+      </c>
       <c r="K2723" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2723" t="s">
         <v>60</v>
       </c>
       <c r="P2723" t="s">
-        <v>5549</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="2724" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2724" s="1" t="s">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="B2724" t="s">
         <v>5548</v>
@@ -81814,55 +81840,43 @@
         <v>60</v>
       </c>
       <c r="P2724" t="s">
-        <v>5551</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="2725" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2725" s="1" t="s">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="B2725" t="s">
-        <v>5548</v>
-      </c>
-      <c r="C2725" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2725" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2725" t="s">
-        <v>168</v>
+        <v>5555</v>
+      </c>
+      <c r="C2725">
+        <v>68000</v>
       </c>
       <c r="K2725" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2725" t="s">
-        <v>60</v>
+        <v>2076</v>
       </c>
       <c r="P2725" t="s">
-        <v>5553</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="2726" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2726" s="1" t="s">
-        <v>5554</v>
+        <v>5557</v>
       </c>
       <c r="B2726" t="s">
-        <v>5555</v>
-      </c>
-      <c r="C2726">
-        <v>68000</v>
-      </c>
-      <c r="K2726" t="s">
-        <v>2076</v>
+        <v>5558</v>
+      </c>
+      <c r="C2726" t="s">
+        <v>2</v>
       </c>
       <c r="P2726" t="s">
-        <v>5556</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2727" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2727" s="1" t="s">
-        <v>5557</v>
+        <v>5560</v>
       </c>
       <c r="B2727" t="s">
         <v>5558</v>
@@ -81871,26 +81885,32 @@
         <v>2</v>
       </c>
       <c r="P2727" t="s">
-        <v>5559</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2728" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2728" s="1" t="s">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="B2728" t="s">
-        <v>5558</v>
-      </c>
-      <c r="C2728" t="s">
-        <v>2</v>
+        <v>5563</v>
+      </c>
+      <c r="C2728">
+        <v>68000</v>
+      </c>
+      <c r="D2728" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2728" t="s">
+        <v>1790</v>
       </c>
       <c r="P2728" t="s">
-        <v>5561</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="2729" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2729" s="1" t="s">
-        <v>5562</v>
+        <v>5565</v>
       </c>
       <c r="B2729" t="s">
         <v>5563</v>
@@ -81905,12 +81925,12 @@
         <v>1790</v>
       </c>
       <c r="P2729" t="s">
-        <v>5564</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="2730" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2730" s="1" t="s">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="B2730" t="s">
         <v>5563</v>
@@ -81925,12 +81945,12 @@
         <v>1790</v>
       </c>
       <c r="P2730" t="s">
-        <v>6567</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="2731" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2731" s="1" t="s">
-        <v>5566</v>
+        <v>5568</v>
       </c>
       <c r="B2731" t="s">
         <v>5563</v>
@@ -81945,12 +81965,12 @@
         <v>1790</v>
       </c>
       <c r="P2731" t="s">
-        <v>5567</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="2732" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2732" s="1" t="s">
-        <v>5568</v>
+        <v>5570</v>
       </c>
       <c r="B2732" t="s">
         <v>5563</v>
@@ -81965,12 +81985,12 @@
         <v>1790</v>
       </c>
       <c r="P2732" t="s">
-        <v>5569</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="2733" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2733" s="1" t="s">
-        <v>5570</v>
+        <v>5572</v>
       </c>
       <c r="B2733" t="s">
         <v>5563</v>
@@ -81985,12 +82005,12 @@
         <v>1790</v>
       </c>
       <c r="P2733" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="2734" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2734" s="1" t="s">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="B2734" t="s">
         <v>5563</v>
@@ -82005,12 +82025,12 @@
         <v>1790</v>
       </c>
       <c r="P2734" t="s">
-        <v>5573</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="2735" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2735" s="1" t="s">
-        <v>5574</v>
+        <v>5576</v>
       </c>
       <c r="B2735" t="s">
         <v>5563</v>
@@ -82025,12 +82045,12 @@
         <v>1790</v>
       </c>
       <c r="P2735" t="s">
-        <v>5575</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="2736" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2736" s="1" t="s">
-        <v>5576</v>
+        <v>5578</v>
       </c>
       <c r="B2736" t="s">
         <v>5563</v>
@@ -82045,12 +82065,12 @@
         <v>1790</v>
       </c>
       <c r="P2736" t="s">
-        <v>5577</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="2737" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2737" s="1" t="s">
-        <v>5578</v>
+        <v>5579</v>
       </c>
       <c r="B2737" t="s">
         <v>5563</v>
@@ -82065,12 +82085,12 @@
         <v>1790</v>
       </c>
       <c r="P2737" t="s">
-        <v>6568</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2738" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2738" s="1" t="s">
-        <v>5579</v>
+        <v>5581</v>
       </c>
       <c r="B2738" t="s">
         <v>5563</v>
@@ -82085,12 +82105,12 @@
         <v>1790</v>
       </c>
       <c r="P2738" t="s">
-        <v>5580</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="2739" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2739" s="1" t="s">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="B2739" t="s">
         <v>5563</v>
@@ -82105,12 +82125,12 @@
         <v>1790</v>
       </c>
       <c r="P2739" t="s">
-        <v>5582</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="2740" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2740" s="1" t="s">
-        <v>5583</v>
+        <v>5585</v>
       </c>
       <c r="B2740" t="s">
         <v>5563</v>
@@ -82125,12 +82145,12 @@
         <v>1790</v>
       </c>
       <c r="P2740" t="s">
-        <v>5584</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="2741" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2741" s="1" t="s">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="B2741" t="s">
         <v>5563</v>
@@ -82145,12 +82165,12 @@
         <v>1790</v>
       </c>
       <c r="P2741" t="s">
-        <v>5586</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="2742" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2742" s="1" t="s">
-        <v>5587</v>
+        <v>5589</v>
       </c>
       <c r="B2742" t="s">
         <v>5563</v>
@@ -82165,12 +82185,12 @@
         <v>1790</v>
       </c>
       <c r="P2742" t="s">
-        <v>5588</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="2743" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2743" s="1" t="s">
-        <v>5589</v>
+        <v>5590</v>
       </c>
       <c r="B2743" t="s">
         <v>5563</v>
@@ -82185,12 +82205,12 @@
         <v>1790</v>
       </c>
       <c r="P2743" t="s">
-        <v>6569</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2744" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2744" s="1" t="s">
-        <v>5590</v>
+        <v>5591</v>
       </c>
       <c r="B2744" t="s">
         <v>5563</v>
@@ -82205,12 +82225,12 @@
         <v>1790</v>
       </c>
       <c r="P2744" t="s">
-        <v>6570</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="2745" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2745" s="1" t="s">
-        <v>5591</v>
+        <v>5593</v>
       </c>
       <c r="B2745" t="s">
         <v>5563</v>
@@ -82225,12 +82245,12 @@
         <v>1790</v>
       </c>
       <c r="P2745" t="s">
-        <v>5592</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="2746" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2746" s="1" t="s">
-        <v>5593</v>
+        <v>5595</v>
       </c>
       <c r="B2746" t="s">
         <v>5563</v>
@@ -82245,12 +82265,12 @@
         <v>1790</v>
       </c>
       <c r="P2746" t="s">
-        <v>5594</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="2747" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2747" s="1" t="s">
-        <v>5595</v>
+        <v>5597</v>
       </c>
       <c r="B2747" t="s">
         <v>5563</v>
@@ -82265,12 +82285,12 @@
         <v>1790</v>
       </c>
       <c r="P2747" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="2748" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2748" s="1" t="s">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="B2748" t="s">
         <v>5563</v>
@@ -82285,12 +82305,12 @@
         <v>1790</v>
       </c>
       <c r="P2748" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="2749" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2749" s="1" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="B2749" t="s">
         <v>5563</v>
@@ -82305,12 +82325,12 @@
         <v>1790</v>
       </c>
       <c r="P2749" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="2750" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2750" s="1" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="B2750" t="s">
         <v>5563</v>
@@ -82325,12 +82345,12 @@
         <v>1790</v>
       </c>
       <c r="P2750" t="s">
-        <v>5602</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="2751" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2751" s="1" t="s">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="B2751" t="s">
         <v>5563</v>
@@ -82345,12 +82365,12 @@
         <v>1790</v>
       </c>
       <c r="P2751" t="s">
-        <v>6571</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2752" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2752" s="1" t="s">
-        <v>5604</v>
+        <v>5606</v>
       </c>
       <c r="B2752" t="s">
         <v>5563</v>
@@ -82365,12 +82385,12 @@
         <v>1790</v>
       </c>
       <c r="P2752" t="s">
-        <v>5605</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="2753" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2753" s="1" t="s">
-        <v>5606</v>
+        <v>5608</v>
       </c>
       <c r="B2753" t="s">
         <v>5563</v>
@@ -82385,12 +82405,12 @@
         <v>1790</v>
       </c>
       <c r="P2753" t="s">
-        <v>5607</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="2754" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2754" s="1" t="s">
-        <v>5608</v>
+        <v>5610</v>
       </c>
       <c r="B2754" t="s">
         <v>5563</v>
@@ -82405,12 +82425,12 @@
         <v>1790</v>
       </c>
       <c r="P2754" t="s">
-        <v>5609</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="2755" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2755" s="1" t="s">
-        <v>5610</v>
+        <v>5611</v>
       </c>
       <c r="B2755" t="s">
         <v>5563</v>
@@ -82425,12 +82445,12 @@
         <v>1790</v>
       </c>
       <c r="P2755" t="s">
-        <v>6572</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="2756" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2756" s="1" t="s">
-        <v>5611</v>
+        <v>5612</v>
       </c>
       <c r="B2756" t="s">
         <v>5563</v>
@@ -82445,12 +82465,12 @@
         <v>1790</v>
       </c>
       <c r="P2756" t="s">
-        <v>6573</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="2757" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2757" s="1" t="s">
-        <v>5612</v>
+        <v>5613</v>
       </c>
       <c r="B2757" t="s">
         <v>5563</v>
@@ -82465,12 +82485,12 @@
         <v>1790</v>
       </c>
       <c r="P2757" t="s">
-        <v>6574</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2758" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2758" s="1" t="s">
-        <v>5613</v>
+        <v>5615</v>
       </c>
       <c r="B2758" t="s">
         <v>5563</v>
@@ -82485,12 +82505,12 @@
         <v>1790</v>
       </c>
       <c r="P2758" t="s">
-        <v>5614</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="2759" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2759" s="1" t="s">
-        <v>5615</v>
+        <v>5617</v>
       </c>
       <c r="B2759" t="s">
         <v>5563</v>
@@ -82505,12 +82525,12 @@
         <v>1790</v>
       </c>
       <c r="P2759" t="s">
-        <v>5616</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="2760" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2760" s="1" t="s">
-        <v>5617</v>
+        <v>5618</v>
       </c>
       <c r="B2760" t="s">
         <v>5563</v>
@@ -82525,12 +82545,12 @@
         <v>1790</v>
       </c>
       <c r="P2760" t="s">
-        <v>6575</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="2761" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2761" s="1" t="s">
-        <v>5618</v>
+        <v>5620</v>
       </c>
       <c r="B2761" t="s">
         <v>5563</v>
@@ -82545,12 +82565,12 @@
         <v>1790</v>
       </c>
       <c r="P2761" t="s">
-        <v>5619</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="2762" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2762" s="1" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
       <c r="B2762" t="s">
         <v>5563</v>
@@ -82565,12 +82585,12 @@
         <v>1790</v>
       </c>
       <c r="P2762" t="s">
-        <v>6576</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="2763" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2763" s="1" t="s">
-        <v>5621</v>
+        <v>5623</v>
       </c>
       <c r="B2763" t="s">
         <v>5563</v>
@@ -82585,12 +82605,12 @@
         <v>1790</v>
       </c>
       <c r="P2763" t="s">
-        <v>5622</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="2764" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2764" s="1" t="s">
-        <v>5623</v>
+        <v>5625</v>
       </c>
       <c r="B2764" t="s">
         <v>5563</v>
@@ -82605,12 +82625,12 @@
         <v>1790</v>
       </c>
       <c r="P2764" t="s">
-        <v>5624</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="2765" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2765" s="1" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="B2765" t="s">
         <v>5563</v>
@@ -82625,12 +82645,12 @@
         <v>1790</v>
       </c>
       <c r="P2765" t="s">
-        <v>6577</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="2766" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2766" s="1" t="s">
-        <v>5626</v>
+        <v>5627</v>
       </c>
       <c r="B2766" t="s">
         <v>5563</v>
@@ -82645,12 +82665,12 @@
         <v>1790</v>
       </c>
       <c r="P2766" t="s">
-        <v>6578</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="2767" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2767" s="1" t="s">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="B2767" t="s">
         <v>5563</v>
@@ -82665,12 +82685,12 @@
         <v>1790</v>
       </c>
       <c r="P2767" t="s">
-        <v>5628</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="2768" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2768" s="1" t="s">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="B2768" t="s">
         <v>5563</v>
@@ -82685,12 +82705,12 @@
         <v>1790</v>
       </c>
       <c r="P2768" t="s">
-        <v>6579</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2769" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2769" s="1" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="B2769" t="s">
         <v>5563</v>
@@ -82705,12 +82725,12 @@
         <v>1790</v>
       </c>
       <c r="P2769" t="s">
-        <v>6580</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="2770" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2770" s="1" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
       <c r="B2770" t="s">
         <v>5563</v>
@@ -82725,12 +82745,12 @@
         <v>1790</v>
       </c>
       <c r="P2770" t="s">
-        <v>6581</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="2771" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2771" s="1" t="s">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="B2771" t="s">
         <v>5563</v>
@@ -82745,12 +82765,12 @@
         <v>1790</v>
       </c>
       <c r="P2771" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="2772" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2772" s="1" t="s">
-        <v>5633</v>
+        <v>5634</v>
       </c>
       <c r="B2772" t="s">
         <v>5563</v>
@@ -82765,12 +82785,12 @@
         <v>1790</v>
       </c>
       <c r="P2772" t="s">
-        <v>6583</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="2773" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2773" s="1" t="s">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="B2773" t="s">
         <v>5563</v>
@@ -82785,12 +82805,12 @@
         <v>1790</v>
       </c>
       <c r="P2773" t="s">
-        <v>6584</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="2774" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2774" s="1" t="s">
-        <v>5635</v>
+        <v>5636</v>
       </c>
       <c r="B2774" t="s">
         <v>5563</v>
@@ -82805,12 +82825,12 @@
         <v>1790</v>
       </c>
       <c r="P2774" t="s">
-        <v>6585</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="2775" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2775" s="1" t="s">
-        <v>5636</v>
+        <v>5638</v>
       </c>
       <c r="B2775" t="s">
         <v>5563</v>
@@ -82825,12 +82845,12 @@
         <v>1790</v>
       </c>
       <c r="P2775" t="s">
-        <v>5637</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="2776" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2776" s="1" t="s">
-        <v>5638</v>
+        <v>5640</v>
       </c>
       <c r="B2776" t="s">
         <v>5563</v>
@@ -82845,12 +82865,12 @@
         <v>1790</v>
       </c>
       <c r="P2776" t="s">
-        <v>5639</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="2777" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2777" s="1" t="s">
-        <v>5640</v>
+        <v>5642</v>
       </c>
       <c r="B2777" t="s">
         <v>5563</v>
@@ -82865,12 +82885,12 @@
         <v>1790</v>
       </c>
       <c r="P2777" t="s">
-        <v>5641</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="2778" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2778" s="1" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="B2778" t="s">
         <v>5563</v>
@@ -82885,12 +82905,12 @@
         <v>1790</v>
       </c>
       <c r="P2778" t="s">
-        <v>6586</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="2779" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2779" s="1" t="s">
-        <v>5643</v>
+        <v>5645</v>
       </c>
       <c r="B2779" t="s">
         <v>5563</v>
@@ -82905,12 +82925,12 @@
         <v>1790</v>
       </c>
       <c r="P2779" t="s">
-        <v>5644</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="2780" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2780" s="1" t="s">
-        <v>5645</v>
+        <v>5647</v>
       </c>
       <c r="B2780" t="s">
         <v>5563</v>
@@ -82925,12 +82945,12 @@
         <v>1790</v>
       </c>
       <c r="P2780" t="s">
-        <v>5646</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="2781" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2781" s="1" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="B2781" t="s">
         <v>5563</v>
@@ -82945,12 +82965,12 @@
         <v>1790</v>
       </c>
       <c r="P2781" t="s">
-        <v>6587</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2782" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2782" s="1" t="s">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="B2782" t="s">
         <v>5563</v>
@@ -82965,12 +82985,12 @@
         <v>1790</v>
       </c>
       <c r="P2782" t="s">
-        <v>5649</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="2783" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2783" s="1" t="s">
-        <v>5650</v>
+        <v>5651</v>
       </c>
       <c r="B2783" t="s">
         <v>5563</v>
@@ -82985,12 +83005,12 @@
         <v>1790</v>
       </c>
       <c r="P2783" t="s">
-        <v>6588</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="2784" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2784" s="1" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="B2784" t="s">
         <v>5563</v>
@@ -83005,12 +83025,12 @@
         <v>1790</v>
       </c>
       <c r="P2784" t="s">
-        <v>6589</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2785" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2785" s="1" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="B2785" t="s">
         <v>5563</v>
@@ -83025,12 +83045,12 @@
         <v>1790</v>
       </c>
       <c r="P2785" t="s">
-        <v>6590</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="2786" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2786" s="1" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="B2786" t="s">
         <v>5563</v>
@@ -83045,12 +83065,12 @@
         <v>1790</v>
       </c>
       <c r="P2786" t="s">
-        <v>6591</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="2787" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2787" s="1" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="B2787" t="s">
         <v>5563</v>
@@ -83065,12 +83085,12 @@
         <v>1790</v>
       </c>
       <c r="P2787" t="s">
-        <v>6592</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="2788" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2788" s="1" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="B2788" t="s">
         <v>5563</v>
@@ -83085,12 +83105,12 @@
         <v>1790</v>
       </c>
       <c r="P2788" t="s">
-        <v>6593</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="2789" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2789" s="1" t="s">
-        <v>5656</v>
+        <v>5658</v>
       </c>
       <c r="B2789" t="s">
         <v>5563</v>
@@ -83105,12 +83125,12 @@
         <v>1790</v>
       </c>
       <c r="P2789" t="s">
-        <v>5657</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="2790" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2790" s="1" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="B2790" t="s">
         <v>5563</v>
@@ -83125,12 +83145,12 @@
         <v>1790</v>
       </c>
       <c r="P2790" t="s">
-        <v>6594</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="2791" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2791" s="1" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="B2791" t="s">
         <v>5563</v>
@@ -83145,12 +83165,12 @@
         <v>1790</v>
       </c>
       <c r="P2791" t="s">
-        <v>6595</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="2792" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2792" s="1" t="s">
-        <v>5660</v>
+        <v>5662</v>
       </c>
       <c r="B2792" t="s">
         <v>5563</v>
@@ -83165,12 +83185,12 @@
         <v>1790</v>
       </c>
       <c r="P2792" t="s">
-        <v>5661</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="2793" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2793" s="1" t="s">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="B2793" t="s">
         <v>5563</v>
@@ -83185,12 +83205,12 @@
         <v>1790</v>
       </c>
       <c r="P2793" t="s">
-        <v>5663</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="2794" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2794" s="1" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="B2794" t="s">
         <v>5563</v>
@@ -83205,12 +83225,12 @@
         <v>1790</v>
       </c>
       <c r="P2794" t="s">
-        <v>6596</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="2795" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2795" s="1" t="s">
-        <v>5665</v>
+        <v>5667</v>
       </c>
       <c r="B2795" t="s">
         <v>5563</v>
@@ -83225,12 +83245,12 @@
         <v>1790</v>
       </c>
       <c r="P2795" t="s">
-        <v>5666</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="2796" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2796" s="1" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="B2796" t="s">
         <v>5563</v>
@@ -83245,12 +83265,12 @@
         <v>1790</v>
       </c>
       <c r="P2796" t="s">
-        <v>6597</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="2797" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2797" s="1" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="B2797" t="s">
         <v>5563</v>
@@ -83265,12 +83285,12 @@
         <v>1790</v>
       </c>
       <c r="P2797" t="s">
-        <v>6598</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="2798" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2798" s="1" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="B2798" t="s">
         <v>5563</v>
@@ -83285,12 +83305,12 @@
         <v>1790</v>
       </c>
       <c r="P2798" t="s">
-        <v>6599</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2799" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2799" s="1" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="B2799" t="s">
         <v>5563</v>
@@ -83305,12 +83325,12 @@
         <v>1790</v>
       </c>
       <c r="P2799" t="s">
-        <v>6600</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="2800" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2800" s="1" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="B2800" t="s">
         <v>5563</v>
@@ -83325,12 +83345,12 @@
         <v>1790</v>
       </c>
       <c r="P2800" t="s">
-        <v>6601</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2801" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2801" s="1" t="s">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="B2801" t="s">
         <v>5563</v>
@@ -83345,12 +83365,12 @@
         <v>1790</v>
       </c>
       <c r="P2801" t="s">
-        <v>5673</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="2802" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2802" s="1" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="B2802" t="s">
         <v>5563</v>
@@ -83365,12 +83385,12 @@
         <v>1790</v>
       </c>
       <c r="P2802" t="s">
-        <v>6602</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="2803" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2803" s="1" t="s">
-        <v>5675</v>
+        <v>5677</v>
       </c>
       <c r="B2803" t="s">
         <v>5563</v>
@@ -83385,12 +83405,12 @@
         <v>1790</v>
       </c>
       <c r="P2803" t="s">
-        <v>5676</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="2804" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2804" s="1" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="B2804" t="s">
         <v>5563</v>
@@ -83405,12 +83425,12 @@
         <v>1790</v>
       </c>
       <c r="P2804" t="s">
-        <v>6603</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="2805" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2805" s="1" t="s">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="B2805" t="s">
         <v>5563</v>
@@ -83425,12 +83445,12 @@
         <v>1790</v>
       </c>
       <c r="P2805" t="s">
-        <v>5679</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="2806" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2806" s="1" t="s">
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="B2806" t="s">
         <v>5563</v>
@@ -83445,12 +83465,12 @@
         <v>1790</v>
       </c>
       <c r="P2806" t="s">
-        <v>5681</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="2807" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2807" s="1" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="B2807" t="s">
         <v>5563</v>
@@ -83465,12 +83485,12 @@
         <v>1790</v>
       </c>
       <c r="P2807" t="s">
-        <v>6604</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="2808" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2808" s="1" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="B2808" t="s">
         <v>5563</v>
@@ -83485,12 +83505,12 @@
         <v>1790</v>
       </c>
       <c r="P2808" t="s">
-        <v>6605</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="2809" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2809" s="1" t="s">
-        <v>5684</v>
+        <v>5686</v>
       </c>
       <c r="B2809" t="s">
         <v>5563</v>
@@ -83505,12 +83525,12 @@
         <v>1790</v>
       </c>
       <c r="P2809" t="s">
-        <v>5685</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="2810" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2810" s="1" t="s">
-        <v>5686</v>
+        <v>5688</v>
       </c>
       <c r="B2810" t="s">
         <v>5563</v>
@@ -83525,12 +83545,12 @@
         <v>1790</v>
       </c>
       <c r="P2810" t="s">
-        <v>5687</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="2811" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2811" s="1" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="B2811" t="s">
         <v>5563</v>
@@ -83545,12 +83565,12 @@
         <v>1790</v>
       </c>
       <c r="P2811" t="s">
-        <v>6606</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="2812" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2812" s="1" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="B2812" t="s">
         <v>5563</v>
@@ -83565,12 +83585,12 @@
         <v>1790</v>
       </c>
       <c r="P2812" t="s">
-        <v>5690</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="2813" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2813" s="1" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="B2813" t="s">
         <v>5563</v>
@@ -83585,12 +83605,12 @@
         <v>1790</v>
       </c>
       <c r="P2813" t="s">
-        <v>6607</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="2814" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2814" s="1" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
       <c r="B2814" t="s">
         <v>5563</v>
@@ -83605,12 +83625,12 @@
         <v>1790</v>
       </c>
       <c r="P2814" t="s">
-        <v>6608</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="2815" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2815" s="1" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="B2815" t="s">
         <v>5563</v>
@@ -83625,12 +83645,12 @@
         <v>1790</v>
       </c>
       <c r="P2815" t="s">
-        <v>6609</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="2816" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2816" s="1" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="B2816" t="s">
         <v>5563</v>
@@ -83645,12 +83665,12 @@
         <v>1790</v>
       </c>
       <c r="P2816" t="s">
-        <v>6610</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="2817" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2817" s="1" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="B2817" t="s">
         <v>5563</v>
@@ -83665,12 +83685,12 @@
         <v>1790</v>
       </c>
       <c r="P2817" t="s">
-        <v>6611</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="2818" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2818" s="1" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="B2818" t="s">
         <v>5563</v>
@@ -83685,12 +83705,12 @@
         <v>1790</v>
       </c>
       <c r="P2818" t="s">
-        <v>6612</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="2819" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2819" s="1" t="s">
-        <v>5697</v>
+        <v>5699</v>
       </c>
       <c r="B2819" t="s">
         <v>5563</v>
@@ -83705,12 +83725,12 @@
         <v>1790</v>
       </c>
       <c r="P2819" t="s">
-        <v>5698</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="2820" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2820" s="1" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="B2820" t="s">
         <v>5563</v>
@@ -83725,12 +83745,12 @@
         <v>1790</v>
       </c>
       <c r="P2820" t="s">
-        <v>6613</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="2821" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2821" s="1" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="B2821" t="s">
         <v>5563</v>
@@ -83745,12 +83765,12 @@
         <v>1790</v>
       </c>
       <c r="P2821" t="s">
-        <v>6614</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="2822" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2822" s="1" t="s">
-        <v>5701</v>
+        <v>5703</v>
       </c>
       <c r="B2822" t="s">
         <v>5563</v>
@@ -83765,12 +83785,12 @@
         <v>1790</v>
       </c>
       <c r="P2822" t="s">
-        <v>5702</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="2823" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2823" s="1" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="B2823" t="s">
         <v>5563</v>
@@ -83785,12 +83805,12 @@
         <v>1790</v>
       </c>
       <c r="P2823" t="s">
-        <v>6615</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="2824" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2824" s="1" t="s">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="B2824" t="s">
         <v>5563</v>
@@ -83805,12 +83825,12 @@
         <v>1790</v>
       </c>
       <c r="P2824" t="s">
-        <v>5705</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="2825" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2825" s="1" t="s">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="B2825" t="s">
         <v>5563</v>
@@ -83825,12 +83845,12 @@
         <v>1790</v>
       </c>
       <c r="P2825" t="s">
-        <v>5707</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="2826" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2826" s="1" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="B2826" t="s">
         <v>5563</v>
@@ -83845,12 +83865,12 @@
         <v>1790</v>
       </c>
       <c r="P2826" t="s">
-        <v>6616</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2827" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2827" s="1" t="s">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="B2827" t="s">
         <v>5563</v>
@@ -83865,12 +83885,12 @@
         <v>1790</v>
       </c>
       <c r="P2827" t="s">
-        <v>5710</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="2828" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2828" s="1" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="B2828" t="s">
         <v>5563</v>
@@ -83885,12 +83905,12 @@
         <v>1790</v>
       </c>
       <c r="P2828" t="s">
-        <v>6617</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="2829" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2829" s="1" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="B2829" t="s">
         <v>5563</v>
@@ -83905,12 +83925,12 @@
         <v>1790</v>
       </c>
       <c r="P2829" t="s">
-        <v>6618</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="2830" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2830" s="1" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="B2830" t="s">
         <v>5563</v>
@@ -83925,12 +83945,12 @@
         <v>1790</v>
       </c>
       <c r="P2830" t="s">
-        <v>6619</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="2831" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2831" s="1" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="B2831" t="s">
         <v>5563</v>
@@ -83945,12 +83965,12 @@
         <v>1790</v>
       </c>
       <c r="P2831" t="s">
-        <v>6620</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="2832" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2832" s="1" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="B2832" t="s">
         <v>5563</v>
@@ -83965,12 +83985,12 @@
         <v>1790</v>
       </c>
       <c r="P2832" t="s">
-        <v>6621</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="2833" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2833" s="1" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="B2833" t="s">
         <v>5563</v>
@@ -83985,12 +84005,12 @@
         <v>1790</v>
       </c>
       <c r="P2833" t="s">
-        <v>5717</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="2834" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2834" s="1" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="B2834" t="s">
         <v>5563</v>
@@ -84005,12 +84025,12 @@
         <v>1790</v>
       </c>
       <c r="P2834" t="s">
-        <v>6622</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="2835" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2835" s="1" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="B2835" t="s">
         <v>5563</v>
@@ -84025,12 +84045,12 @@
         <v>1790</v>
       </c>
       <c r="P2835" t="s">
-        <v>6623</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="2836" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2836" s="1" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="B2836" t="s">
         <v>5563</v>
@@ -84045,12 +84065,12 @@
         <v>1790</v>
       </c>
       <c r="P2836" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="2837" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2837" s="1" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="B2837" t="s">
         <v>5563</v>
@@ -84065,12 +84085,12 @@
         <v>1790</v>
       </c>
       <c r="P2837" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="2838" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2838" s="1" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="B2838" t="s">
         <v>5563</v>
@@ -84085,12 +84105,12 @@
         <v>1790</v>
       </c>
       <c r="P2838" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="2839" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2839" s="1" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="B2839" t="s">
         <v>5563</v>
@@ -84105,12 +84125,12 @@
         <v>1790</v>
       </c>
       <c r="P2839" t="s">
-        <v>5727</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="2840" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2840" s="1" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="B2840" t="s">
         <v>5563</v>
@@ -84125,12 +84145,12 @@
         <v>1790</v>
       </c>
       <c r="P2840" t="s">
-        <v>6624</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="2841" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2841" s="1" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
       <c r="B2841" t="s">
         <v>5563</v>
@@ -84145,12 +84165,12 @@
         <v>1790</v>
       </c>
       <c r="P2841" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="2842" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2842" s="1" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="B2842" t="s">
         <v>5563</v>
@@ -84165,12 +84185,12 @@
         <v>1790</v>
       </c>
       <c r="P2842" t="s">
-        <v>5732</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="2843" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2843" s="1" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="B2843" t="s">
         <v>5563</v>
@@ -84185,12 +84205,12 @@
         <v>1790</v>
       </c>
       <c r="P2843" t="s">
-        <v>6625</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="2844" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2844" s="1" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="B2844" t="s">
         <v>5563</v>
@@ -84205,12 +84225,12 @@
         <v>1790</v>
       </c>
       <c r="P2844" t="s">
-        <v>5735</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="2845" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2845" s="1" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="B2845" t="s">
         <v>5563</v>
@@ -84225,12 +84245,12 @@
         <v>1790</v>
       </c>
       <c r="P2845" t="s">
-        <v>6626</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="2846" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2846" s="1" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="B2846" t="s">
         <v>5563</v>
@@ -84245,12 +84265,12 @@
         <v>1790</v>
       </c>
       <c r="P2846" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="2847" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2847" s="1" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="B2847" t="s">
         <v>5563</v>
@@ -84265,12 +84285,12 @@
         <v>1790</v>
       </c>
       <c r="P2847" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="2848" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2848" s="1" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="B2848" t="s">
         <v>5563</v>
@@ -84285,12 +84305,12 @@
         <v>1790</v>
       </c>
       <c r="P2848" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="2849" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2849" s="1" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="B2849" t="s">
         <v>5563</v>
@@ -84305,12 +84325,12 @@
         <v>1790</v>
       </c>
       <c r="P2849" t="s">
-        <v>5744</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="2850" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2850" s="1" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="B2850" t="s">
         <v>5563</v>
@@ -84325,12 +84345,12 @@
         <v>1790</v>
       </c>
       <c r="P2850" t="s">
-        <v>6627</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="2851" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2851" s="1" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="B2851" t="s">
         <v>5563</v>
@@ -84345,12 +84365,12 @@
         <v>1790</v>
       </c>
       <c r="P2851" t="s">
-        <v>6628</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="2852" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2852" s="1" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="B2852" t="s">
         <v>5563</v>
@@ -84365,12 +84385,12 @@
         <v>1790</v>
       </c>
       <c r="P2852" t="s">
-        <v>6629</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="2853" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2853" s="1" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="B2853" t="s">
         <v>5563</v>
@@ -84385,12 +84405,12 @@
         <v>1790</v>
       </c>
       <c r="P2853" t="s">
-        <v>6630</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="2854" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2854" s="1" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="B2854" t="s">
         <v>5563</v>
@@ -84405,12 +84425,12 @@
         <v>1790</v>
       </c>
       <c r="P2854" t="s">
-        <v>6631</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2855" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2855" s="1" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="B2855" t="s">
         <v>5563</v>
@@ -84425,12 +84445,12 @@
         <v>1790</v>
       </c>
       <c r="P2855" t="s">
-        <v>5751</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="2856" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2856" s="1" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="B2856" t="s">
         <v>5563</v>
@@ -84445,12 +84465,12 @@
         <v>1790</v>
       </c>
       <c r="P2856" t="s">
-        <v>6632</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="2857" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2857" s="1" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="B2857" t="s">
         <v>5563</v>
@@ -84465,12 +84485,12 @@
         <v>1790</v>
       </c>
       <c r="P2857" t="s">
-        <v>5754</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="2858" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2858" s="1" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="B2858" t="s">
         <v>5563</v>
@@ -84485,12 +84505,12 @@
         <v>1790</v>
       </c>
       <c r="P2858" t="s">
-        <v>6633</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="2859" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2859" s="1" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="B2859" t="s">
         <v>5563</v>
@@ -84505,12 +84525,12 @@
         <v>1790</v>
       </c>
       <c r="P2859" t="s">
-        <v>5757</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="2860" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2860" s="1" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="B2860" t="s">
         <v>5563</v>
@@ -84525,12 +84545,12 @@
         <v>1790</v>
       </c>
       <c r="P2860" t="s">
-        <v>6634</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="2861" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2861" s="1" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="B2861" t="s">
         <v>5563</v>
@@ -84545,12 +84565,12 @@
         <v>1790</v>
       </c>
       <c r="P2861" t="s">
-        <v>6635</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="2862" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2862" s="1" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="B2862" t="s">
         <v>5563</v>
@@ -84565,26 +84585,6 @@
         <v>1790</v>
       </c>
       <c r="P2862" t="s">
-        <v>6636</v>
-      </c>
-    </row>
-    <row r="2863" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2863" s="1" t="s">
-        <v>5761</v>
-      </c>
-      <c r="B2863" t="s">
-        <v>5563</v>
-      </c>
-      <c r="C2863">
-        <v>68000</v>
-      </c>
-      <c r="D2863" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2863" t="s">
-        <v>1790</v>
-      </c>
-      <c r="P2863" t="s">
         <v>6637</v>
       </c>
     </row>

--- a/emulator/compatibility_list.xlsx
+++ b/emulator/compatibility_list.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Φύλλο2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2862</definedName>
+    <definedName name="OUT___Αντιγραφή" localSheetId="2">Φύλλο2!$A$1:$P$2861</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20299,10 +20299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23128,6 +23128,23 @@
       </c>
       <c r="P142" t="s">
         <v>5490</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5529</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="K143" t="s">
+        <v>537</v>
+      </c>
+      <c r="P143" t="s">
+        <v>6564</v>
       </c>
     </row>
   </sheetData>
@@ -23245,10 +23262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2862"/>
+  <dimension ref="A1:P2861"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2686" workbookViewId="0">
-      <selection activeCell="A2701" sqref="A2701:XFD2701"/>
+      <selection activeCell="A2714" sqref="A2714:XFD2714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81634,24 +81651,24 @@
     </row>
     <row r="2714" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2714" s="1" t="s">
-        <v>5528</v>
+        <v>5530</v>
       </c>
       <c r="B2714" t="s">
-        <v>5529</v>
+        <v>5531</v>
       </c>
       <c r="C2714" t="s">
         <v>2</v>
       </c>
       <c r="K2714" t="s">
-        <v>537</v>
+        <v>63</v>
       </c>
       <c r="P2714" t="s">
-        <v>6564</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="2715" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2715" s="1" t="s">
-        <v>5530</v>
+        <v>5533</v>
       </c>
       <c r="B2715" t="s">
         <v>5531</v>
@@ -81663,80 +81680,83 @@
         <v>63</v>
       </c>
       <c r="P2715" t="s">
-        <v>5532</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="2716" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2716" s="1" t="s">
-        <v>5533</v>
+        <v>5535</v>
       </c>
       <c r="B2716" t="s">
-        <v>5531</v>
+        <v>5536</v>
       </c>
       <c r="C2716" t="s">
         <v>2</v>
       </c>
       <c r="K2716" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P2716" t="s">
-        <v>5534</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2717" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2717" s="1" t="s">
-        <v>5535</v>
+        <v>5538</v>
       </c>
       <c r="B2717" t="s">
-        <v>5536</v>
+        <v>5539</v>
       </c>
       <c r="C2717" t="s">
         <v>2</v>
       </c>
       <c r="K2717" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="P2717" t="s">
-        <v>5537</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2718" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2718" s="1" t="s">
-        <v>5538</v>
+        <v>5541</v>
       </c>
       <c r="B2718" t="s">
-        <v>5539</v>
+        <v>5542</v>
       </c>
       <c r="C2718" t="s">
         <v>2</v>
       </c>
       <c r="K2718" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="P2718" t="s">
-        <v>5540</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2719" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2719" s="1" t="s">
-        <v>5541</v>
+        <v>5544</v>
       </c>
       <c r="B2719" t="s">
-        <v>5542</v>
+        <v>5545</v>
       </c>
       <c r="C2719" t="s">
         <v>2</v>
       </c>
+      <c r="D2719" t="s">
+        <v>2</v>
+      </c>
       <c r="K2719" t="s">
-        <v>60</v>
+        <v>693</v>
       </c>
       <c r="P2719" t="s">
-        <v>5543</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="2720" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2720" s="1" t="s">
-        <v>5544</v>
+        <v>5546</v>
       </c>
       <c r="B2720" t="s">
         <v>5545</v>
@@ -81751,32 +81771,29 @@
         <v>693</v>
       </c>
       <c r="P2720" t="s">
-        <v>6565</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="2721" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2721" s="1" t="s">
-        <v>5546</v>
+        <v>5547</v>
       </c>
       <c r="B2721" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
       <c r="C2721" t="s">
         <v>2</v>
       </c>
-      <c r="D2721" t="s">
-        <v>2</v>
-      </c>
       <c r="K2721" t="s">
-        <v>693</v>
+        <v>60</v>
       </c>
       <c r="P2721" t="s">
-        <v>6566</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="2722" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2722" s="1" t="s">
-        <v>5547</v>
+        <v>5550</v>
       </c>
       <c r="B2722" t="s">
         <v>5548</v>
@@ -81784,16 +81801,25 @@
       <c r="C2722" t="s">
         <v>2</v>
       </c>
+      <c r="D2722" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2722" t="s">
+        <v>168</v>
+      </c>
       <c r="K2722" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2722" t="s">
         <v>60</v>
       </c>
       <c r="P2722" t="s">
-        <v>5549</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="2723" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2723" s="1" t="s">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="B2723" t="s">
         <v>5548</v>
@@ -81814,55 +81840,43 @@
         <v>60</v>
       </c>
       <c r="P2723" t="s">
-        <v>5551</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="2724" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2724" s="1" t="s">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="B2724" t="s">
-        <v>5548</v>
-      </c>
-      <c r="C2724" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2724" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2724" t="s">
-        <v>168</v>
+        <v>5555</v>
+      </c>
+      <c r="C2724">
+        <v>68000</v>
       </c>
       <c r="K2724" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2724" t="s">
-        <v>60</v>
+        <v>2076</v>
       </c>
       <c r="P2724" t="s">
-        <v>5553</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="2725" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2725" s="1" t="s">
-        <v>5554</v>
+        <v>5557</v>
       </c>
       <c r="B2725" t="s">
-        <v>5555</v>
-      </c>
-      <c r="C2725">
-        <v>68000</v>
-      </c>
-      <c r="K2725" t="s">
-        <v>2076</v>
+        <v>5558</v>
+      </c>
+      <c r="C2725" t="s">
+        <v>2</v>
       </c>
       <c r="P2725" t="s">
-        <v>5556</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2726" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2726" s="1" t="s">
-        <v>5557</v>
+        <v>5560</v>
       </c>
       <c r="B2726" t="s">
         <v>5558</v>
@@ -81871,26 +81885,32 @@
         <v>2</v>
       </c>
       <c r="P2726" t="s">
-        <v>5559</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2727" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2727" s="1" t="s">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="B2727" t="s">
-        <v>5558</v>
-      </c>
-      <c r="C2727" t="s">
-        <v>2</v>
+        <v>5563</v>
+      </c>
+      <c r="C2727">
+        <v>68000</v>
+      </c>
+      <c r="D2727" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2727" t="s">
+        <v>1790</v>
       </c>
       <c r="P2727" t="s">
-        <v>5561</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="2728" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2728" s="1" t="s">
-        <v>5562</v>
+        <v>5565</v>
       </c>
       <c r="B2728" t="s">
         <v>5563</v>
@@ -81905,12 +81925,12 @@
         <v>1790</v>
       </c>
       <c r="P2728" t="s">
-        <v>5564</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="2729" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2729" s="1" t="s">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="B2729" t="s">
         <v>5563</v>
@@ -81925,12 +81945,12 @@
         <v>1790</v>
       </c>
       <c r="P2729" t="s">
-        <v>6567</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="2730" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2730" s="1" t="s">
-        <v>5566</v>
+        <v>5568</v>
       </c>
       <c r="B2730" t="s">
         <v>5563</v>
@@ -81945,12 +81965,12 @@
         <v>1790</v>
       </c>
       <c r="P2730" t="s">
-        <v>5567</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="2731" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2731" s="1" t="s">
-        <v>5568</v>
+        <v>5570</v>
       </c>
       <c r="B2731" t="s">
         <v>5563</v>
@@ -81965,12 +81985,12 @@
         <v>1790</v>
       </c>
       <c r="P2731" t="s">
-        <v>5569</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="2732" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2732" s="1" t="s">
-        <v>5570</v>
+        <v>5572</v>
       </c>
       <c r="B2732" t="s">
         <v>5563</v>
@@ -81985,12 +82005,12 @@
         <v>1790</v>
       </c>
       <c r="P2732" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="2733" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2733" s="1" t="s">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="B2733" t="s">
         <v>5563</v>
@@ -82005,12 +82025,12 @@
         <v>1790</v>
       </c>
       <c r="P2733" t="s">
-        <v>5573</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="2734" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2734" s="1" t="s">
-        <v>5574</v>
+        <v>5576</v>
       </c>
       <c r="B2734" t="s">
         <v>5563</v>
@@ -82025,12 +82045,12 @@
         <v>1790</v>
       </c>
       <c r="P2734" t="s">
-        <v>5575</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="2735" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2735" s="1" t="s">
-        <v>5576</v>
+        <v>5578</v>
       </c>
       <c r="B2735" t="s">
         <v>5563</v>
@@ -82045,12 +82065,12 @@
         <v>1790</v>
       </c>
       <c r="P2735" t="s">
-        <v>5577</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="2736" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2736" s="1" t="s">
-        <v>5578</v>
+        <v>5579</v>
       </c>
       <c r="B2736" t="s">
         <v>5563</v>
@@ -82065,12 +82085,12 @@
         <v>1790</v>
       </c>
       <c r="P2736" t="s">
-        <v>6568</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2737" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2737" s="1" t="s">
-        <v>5579</v>
+        <v>5581</v>
       </c>
       <c r="B2737" t="s">
         <v>5563</v>
@@ -82085,12 +82105,12 @@
         <v>1790</v>
       </c>
       <c r="P2737" t="s">
-        <v>5580</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="2738" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2738" s="1" t="s">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="B2738" t="s">
         <v>5563</v>
@@ -82105,12 +82125,12 @@
         <v>1790</v>
       </c>
       <c r="P2738" t="s">
-        <v>5582</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="2739" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2739" s="1" t="s">
-        <v>5583</v>
+        <v>5585</v>
       </c>
       <c r="B2739" t="s">
         <v>5563</v>
@@ -82125,12 +82145,12 @@
         <v>1790</v>
       </c>
       <c r="P2739" t="s">
-        <v>5584</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="2740" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2740" s="1" t="s">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="B2740" t="s">
         <v>5563</v>
@@ -82145,12 +82165,12 @@
         <v>1790</v>
       </c>
       <c r="P2740" t="s">
-        <v>5586</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="2741" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2741" s="1" t="s">
-        <v>5587</v>
+        <v>5589</v>
       </c>
       <c r="B2741" t="s">
         <v>5563</v>
@@ -82165,12 +82185,12 @@
         <v>1790</v>
       </c>
       <c r="P2741" t="s">
-        <v>5588</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="2742" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2742" s="1" t="s">
-        <v>5589</v>
+        <v>5590</v>
       </c>
       <c r="B2742" t="s">
         <v>5563</v>
@@ -82185,12 +82205,12 @@
         <v>1790</v>
       </c>
       <c r="P2742" t="s">
-        <v>6569</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="2743" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2743" s="1" t="s">
-        <v>5590</v>
+        <v>5591</v>
       </c>
       <c r="B2743" t="s">
         <v>5563</v>
@@ -82205,12 +82225,12 @@
         <v>1790</v>
       </c>
       <c r="P2743" t="s">
-        <v>6570</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="2744" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2744" s="1" t="s">
-        <v>5591</v>
+        <v>5593</v>
       </c>
       <c r="B2744" t="s">
         <v>5563</v>
@@ -82225,12 +82245,12 @@
         <v>1790</v>
       </c>
       <c r="P2744" t="s">
-        <v>5592</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="2745" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2745" s="1" t="s">
-        <v>5593</v>
+        <v>5595</v>
       </c>
       <c r="B2745" t="s">
         <v>5563</v>
@@ -82245,12 +82265,12 @@
         <v>1790</v>
       </c>
       <c r="P2745" t="s">
-        <v>5594</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="2746" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2746" s="1" t="s">
-        <v>5595</v>
+        <v>5597</v>
       </c>
       <c r="B2746" t="s">
         <v>5563</v>
@@ -82265,12 +82285,12 @@
         <v>1790</v>
       </c>
       <c r="P2746" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="2747" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2747" s="1" t="s">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="B2747" t="s">
         <v>5563</v>
@@ -82285,12 +82305,12 @@
         <v>1790</v>
       </c>
       <c r="P2747" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="2748" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2748" s="1" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="B2748" t="s">
         <v>5563</v>
@@ -82305,12 +82325,12 @@
         <v>1790</v>
       </c>
       <c r="P2748" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="2749" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2749" s="1" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="B2749" t="s">
         <v>5563</v>
@@ -82325,12 +82345,12 @@
         <v>1790</v>
       </c>
       <c r="P2749" t="s">
-        <v>5602</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="2750" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2750" s="1" t="s">
-        <v>5603</v>
+        <v>5604</v>
       </c>
       <c r="B2750" t="s">
         <v>5563</v>
@@ -82345,12 +82365,12 @@
         <v>1790</v>
       </c>
       <c r="P2750" t="s">
-        <v>6571</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="2751" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2751" s="1" t="s">
-        <v>5604</v>
+        <v>5606</v>
       </c>
       <c r="B2751" t="s">
         <v>5563</v>
@@ -82365,12 +82385,12 @@
         <v>1790</v>
       </c>
       <c r="P2751" t="s">
-        <v>5605</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="2752" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2752" s="1" t="s">
-        <v>5606</v>
+        <v>5608</v>
       </c>
       <c r="B2752" t="s">
         <v>5563</v>
@@ -82385,12 +82405,12 @@
         <v>1790</v>
       </c>
       <c r="P2752" t="s">
-        <v>5607</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="2753" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2753" s="1" t="s">
-        <v>5608</v>
+        <v>5610</v>
       </c>
       <c r="B2753" t="s">
         <v>5563</v>
@@ -82405,12 +82425,12 @@
         <v>1790</v>
       </c>
       <c r="P2753" t="s">
-        <v>5609</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="2754" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2754" s="1" t="s">
-        <v>5610</v>
+        <v>5611</v>
       </c>
       <c r="B2754" t="s">
         <v>5563</v>
@@ -82425,12 +82445,12 @@
         <v>1790</v>
       </c>
       <c r="P2754" t="s">
-        <v>6572</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="2755" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2755" s="1" t="s">
-        <v>5611</v>
+        <v>5612</v>
       </c>
       <c r="B2755" t="s">
         <v>5563</v>
@@ -82445,12 +82465,12 @@
         <v>1790</v>
       </c>
       <c r="P2755" t="s">
-        <v>6573</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="2756" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2756" s="1" t="s">
-        <v>5612</v>
+        <v>5613</v>
       </c>
       <c r="B2756" t="s">
         <v>5563</v>
@@ -82465,12 +82485,12 @@
         <v>1790</v>
       </c>
       <c r="P2756" t="s">
-        <v>6574</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2757" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2757" s="1" t="s">
-        <v>5613</v>
+        <v>5615</v>
       </c>
       <c r="B2757" t="s">
         <v>5563</v>
@@ -82485,12 +82505,12 @@
         <v>1790</v>
       </c>
       <c r="P2757" t="s">
-        <v>5614</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="2758" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2758" s="1" t="s">
-        <v>5615</v>
+        <v>5617</v>
       </c>
       <c r="B2758" t="s">
         <v>5563</v>
@@ -82505,12 +82525,12 @@
         <v>1790</v>
       </c>
       <c r="P2758" t="s">
-        <v>5616</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="2759" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2759" s="1" t="s">
-        <v>5617</v>
+        <v>5618</v>
       </c>
       <c r="B2759" t="s">
         <v>5563</v>
@@ -82525,12 +82545,12 @@
         <v>1790</v>
       </c>
       <c r="P2759" t="s">
-        <v>6575</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="2760" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2760" s="1" t="s">
-        <v>5618</v>
+        <v>5620</v>
       </c>
       <c r="B2760" t="s">
         <v>5563</v>
@@ -82545,12 +82565,12 @@
         <v>1790</v>
       </c>
       <c r="P2760" t="s">
-        <v>5619</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="2761" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2761" s="1" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
       <c r="B2761" t="s">
         <v>5563</v>
@@ -82565,12 +82585,12 @@
         <v>1790</v>
       </c>
       <c r="P2761" t="s">
-        <v>6576</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="2762" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2762" s="1" t="s">
-        <v>5621</v>
+        <v>5623</v>
       </c>
       <c r="B2762" t="s">
         <v>5563</v>
@@ -82585,12 +82605,12 @@
         <v>1790</v>
       </c>
       <c r="P2762" t="s">
-        <v>5622</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="2763" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2763" s="1" t="s">
-        <v>5623</v>
+        <v>5625</v>
       </c>
       <c r="B2763" t="s">
         <v>5563</v>
@@ -82605,12 +82625,12 @@
         <v>1790</v>
       </c>
       <c r="P2763" t="s">
-        <v>5624</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="2764" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2764" s="1" t="s">
-        <v>5625</v>
+        <v>5626</v>
       </c>
       <c r="B2764" t="s">
         <v>5563</v>
@@ -82625,12 +82645,12 @@
         <v>1790</v>
       </c>
       <c r="P2764" t="s">
-        <v>6577</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="2765" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2765" s="1" t="s">
-        <v>5626</v>
+        <v>5627</v>
       </c>
       <c r="B2765" t="s">
         <v>5563</v>
@@ -82645,12 +82665,12 @@
         <v>1790</v>
       </c>
       <c r="P2765" t="s">
-        <v>6578</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="2766" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2766" s="1" t="s">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="B2766" t="s">
         <v>5563</v>
@@ -82665,12 +82685,12 @@
         <v>1790</v>
       </c>
       <c r="P2766" t="s">
-        <v>5628</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="2767" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2767" s="1" t="s">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="B2767" t="s">
         <v>5563</v>
@@ -82685,12 +82705,12 @@
         <v>1790</v>
       </c>
       <c r="P2767" t="s">
-        <v>6579</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="2768" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2768" s="1" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="B2768" t="s">
         <v>5563</v>
@@ -82705,12 +82725,12 @@
         <v>1790</v>
       </c>
       <c r="P2768" t="s">
-        <v>6580</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="2769" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2769" s="1" t="s">
-        <v>5631</v>
+        <v>5632</v>
       </c>
       <c r="B2769" t="s">
         <v>5563</v>
@@ -82725,12 +82745,12 @@
         <v>1790</v>
       </c>
       <c r="P2769" t="s">
-        <v>6581</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="2770" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2770" s="1" t="s">
-        <v>5632</v>
+        <v>5633</v>
       </c>
       <c r="B2770" t="s">
         <v>5563</v>
@@ -82745,12 +82765,12 @@
         <v>1790</v>
       </c>
       <c r="P2770" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="2771" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2771" s="1" t="s">
-        <v>5633</v>
+        <v>5634</v>
       </c>
       <c r="B2771" t="s">
         <v>5563</v>
@@ -82765,12 +82785,12 @@
         <v>1790</v>
       </c>
       <c r="P2771" t="s">
-        <v>6583</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="2772" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2772" s="1" t="s">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="B2772" t="s">
         <v>5563</v>
@@ -82785,12 +82805,12 @@
         <v>1790</v>
       </c>
       <c r="P2772" t="s">
-        <v>6584</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="2773" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2773" s="1" t="s">
-        <v>5635</v>
+        <v>5636</v>
       </c>
       <c r="B2773" t="s">
         <v>5563</v>
@@ -82805,12 +82825,12 @@
         <v>1790</v>
       </c>
       <c r="P2773" t="s">
-        <v>6585</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="2774" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2774" s="1" t="s">
-        <v>5636</v>
+        <v>5638</v>
       </c>
       <c r="B2774" t="s">
         <v>5563</v>
@@ -82825,12 +82845,12 @@
         <v>1790</v>
       </c>
       <c r="P2774" t="s">
-        <v>5637</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="2775" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2775" s="1" t="s">
-        <v>5638</v>
+        <v>5640</v>
       </c>
       <c r="B2775" t="s">
         <v>5563</v>
@@ -82845,12 +82865,12 @@
         <v>1790</v>
       </c>
       <c r="P2775" t="s">
-        <v>5639</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="2776" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2776" s="1" t="s">
-        <v>5640</v>
+        <v>5642</v>
       </c>
       <c r="B2776" t="s">
         <v>5563</v>
@@ -82865,12 +82885,12 @@
         <v>1790</v>
       </c>
       <c r="P2776" t="s">
-        <v>5641</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="2777" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2777" s="1" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="B2777" t="s">
         <v>5563</v>
@@ -82885,12 +82905,12 @@
         <v>1790</v>
       </c>
       <c r="P2777" t="s">
-        <v>6586</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="2778" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2778" s="1" t="s">
-        <v>5643</v>
+        <v>5645</v>
       </c>
       <c r="B2778" t="s">
         <v>5563</v>
@@ -82905,12 +82925,12 @@
         <v>1790</v>
       </c>
       <c r="P2778" t="s">
-        <v>5644</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="2779" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2779" s="1" t="s">
-        <v>5645</v>
+        <v>5647</v>
       </c>
       <c r="B2779" t="s">
         <v>5563</v>
@@ -82925,12 +82945,12 @@
         <v>1790</v>
       </c>
       <c r="P2779" t="s">
-        <v>5646</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="2780" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2780" s="1" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="B2780" t="s">
         <v>5563</v>
@@ -82945,12 +82965,12 @@
         <v>1790</v>
       </c>
       <c r="P2780" t="s">
-        <v>6587</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2781" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2781" s="1" t="s">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="B2781" t="s">
         <v>5563</v>
@@ -82965,12 +82985,12 @@
         <v>1790</v>
       </c>
       <c r="P2781" t="s">
-        <v>5649</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="2782" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2782" s="1" t="s">
-        <v>5650</v>
+        <v>5651</v>
       </c>
       <c r="B2782" t="s">
         <v>5563</v>
@@ -82985,12 +83005,12 @@
         <v>1790</v>
       </c>
       <c r="P2782" t="s">
-        <v>6588</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="2783" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2783" s="1" t="s">
-        <v>5651</v>
+        <v>5652</v>
       </c>
       <c r="B2783" t="s">
         <v>5563</v>
@@ -83005,12 +83025,12 @@
         <v>1790</v>
       </c>
       <c r="P2783" t="s">
-        <v>6589</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="2784" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2784" s="1" t="s">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="B2784" t="s">
         <v>5563</v>
@@ -83025,12 +83045,12 @@
         <v>1790</v>
       </c>
       <c r="P2784" t="s">
-        <v>6590</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="2785" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2785" s="1" t="s">
-        <v>5653</v>
+        <v>5654</v>
       </c>
       <c r="B2785" t="s">
         <v>5563</v>
@@ -83045,12 +83065,12 @@
         <v>1790</v>
       </c>
       <c r="P2785" t="s">
-        <v>6591</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="2786" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2786" s="1" t="s">
-        <v>5654</v>
+        <v>5655</v>
       </c>
       <c r="B2786" t="s">
         <v>5563</v>
@@ -83065,12 +83085,12 @@
         <v>1790</v>
       </c>
       <c r="P2786" t="s">
-        <v>6592</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="2787" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2787" s="1" t="s">
-        <v>5655</v>
+        <v>5656</v>
       </c>
       <c r="B2787" t="s">
         <v>5563</v>
@@ -83085,12 +83105,12 @@
         <v>1790</v>
       </c>
       <c r="P2787" t="s">
-        <v>6593</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="2788" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2788" s="1" t="s">
-        <v>5656</v>
+        <v>5658</v>
       </c>
       <c r="B2788" t="s">
         <v>5563</v>
@@ -83105,12 +83125,12 @@
         <v>1790</v>
       </c>
       <c r="P2788" t="s">
-        <v>5657</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="2789" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2789" s="1" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="B2789" t="s">
         <v>5563</v>
@@ -83125,12 +83145,12 @@
         <v>1790</v>
       </c>
       <c r="P2789" t="s">
-        <v>6594</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="2790" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2790" s="1" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
       <c r="B2790" t="s">
         <v>5563</v>
@@ -83145,12 +83165,12 @@
         <v>1790</v>
       </c>
       <c r="P2790" t="s">
-        <v>6595</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="2791" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2791" s="1" t="s">
-        <v>5660</v>
+        <v>5662</v>
       </c>
       <c r="B2791" t="s">
         <v>5563</v>
@@ -83165,12 +83185,12 @@
         <v>1790</v>
       </c>
       <c r="P2791" t="s">
-        <v>5661</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="2792" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2792" s="1" t="s">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="B2792" t="s">
         <v>5563</v>
@@ -83185,12 +83205,12 @@
         <v>1790</v>
       </c>
       <c r="P2792" t="s">
-        <v>5663</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="2793" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2793" s="1" t="s">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="B2793" t="s">
         <v>5563</v>
@@ -83205,12 +83225,12 @@
         <v>1790</v>
       </c>
       <c r="P2793" t="s">
-        <v>6596</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="2794" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2794" s="1" t="s">
-        <v>5665</v>
+        <v>5667</v>
       </c>
       <c r="B2794" t="s">
         <v>5563</v>
@@ -83225,12 +83245,12 @@
         <v>1790</v>
       </c>
       <c r="P2794" t="s">
-        <v>5666</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="2795" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2795" s="1" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="B2795" t="s">
         <v>5563</v>
@@ -83245,12 +83265,12 @@
         <v>1790</v>
       </c>
       <c r="P2795" t="s">
-        <v>6597</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="2796" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2796" s="1" t="s">
-        <v>5668</v>
+        <v>5669</v>
       </c>
       <c r="B2796" t="s">
         <v>5563</v>
@@ -83265,12 +83285,12 @@
         <v>1790</v>
       </c>
       <c r="P2796" t="s">
-        <v>6598</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="2797" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2797" s="1" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="B2797" t="s">
         <v>5563</v>
@@ -83285,12 +83305,12 @@
         <v>1790</v>
       </c>
       <c r="P2797" t="s">
-        <v>6599</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="2798" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2798" s="1" t="s">
-        <v>5670</v>
+        <v>5671</v>
       </c>
       <c r="B2798" t="s">
         <v>5563</v>
@@ -83305,12 +83325,12 @@
         <v>1790</v>
       </c>
       <c r="P2798" t="s">
-        <v>6600</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="2799" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2799" s="1" t="s">
-        <v>5671</v>
+        <v>5672</v>
       </c>
       <c r="B2799" t="s">
         <v>5563</v>
@@ -83325,12 +83345,12 @@
         <v>1790</v>
       </c>
       <c r="P2799" t="s">
-        <v>6601</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2800" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2800" s="1" t="s">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="B2800" t="s">
         <v>5563</v>
@@ -83345,12 +83365,12 @@
         <v>1790</v>
       </c>
       <c r="P2800" t="s">
-        <v>5673</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="2801" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2801" s="1" t="s">
-        <v>5674</v>
+        <v>5675</v>
       </c>
       <c r="B2801" t="s">
         <v>5563</v>
@@ -83365,12 +83385,12 @@
         <v>1790</v>
       </c>
       <c r="P2801" t="s">
-        <v>6602</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="2802" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2802" s="1" t="s">
-        <v>5675</v>
+        <v>5677</v>
       </c>
       <c r="B2802" t="s">
         <v>5563</v>
@@ -83385,12 +83405,12 @@
         <v>1790</v>
       </c>
       <c r="P2802" t="s">
-        <v>5676</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="2803" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2803" s="1" t="s">
-        <v>5677</v>
+        <v>5678</v>
       </c>
       <c r="B2803" t="s">
         <v>5563</v>
@@ -83405,12 +83425,12 @@
         <v>1790</v>
       </c>
       <c r="P2803" t="s">
-        <v>6603</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="2804" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2804" s="1" t="s">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="B2804" t="s">
         <v>5563</v>
@@ -83425,12 +83445,12 @@
         <v>1790</v>
       </c>
       <c r="P2804" t="s">
-        <v>5679</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="2805" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2805" s="1" t="s">
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="B2805" t="s">
         <v>5563</v>
@@ -83445,12 +83465,12 @@
         <v>1790</v>
       </c>
       <c r="P2805" t="s">
-        <v>5681</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="2806" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2806" s="1" t="s">
-        <v>5682</v>
+        <v>5683</v>
       </c>
       <c r="B2806" t="s">
         <v>5563</v>
@@ -83465,12 +83485,12 @@
         <v>1790</v>
       </c>
       <c r="P2806" t="s">
-        <v>6604</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="2807" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2807" s="1" t="s">
-        <v>5683</v>
+        <v>5684</v>
       </c>
       <c r="B2807" t="s">
         <v>5563</v>
@@ -83485,12 +83505,12 @@
         <v>1790</v>
       </c>
       <c r="P2807" t="s">
-        <v>6605</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="2808" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2808" s="1" t="s">
-        <v>5684</v>
+        <v>5686</v>
       </c>
       <c r="B2808" t="s">
         <v>5563</v>
@@ -83505,12 +83525,12 @@
         <v>1790</v>
       </c>
       <c r="P2808" t="s">
-        <v>5685</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="2809" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2809" s="1" t="s">
-        <v>5686</v>
+        <v>5688</v>
       </c>
       <c r="B2809" t="s">
         <v>5563</v>
@@ -83525,12 +83545,12 @@
         <v>1790</v>
       </c>
       <c r="P2809" t="s">
-        <v>5687</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="2810" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2810" s="1" t="s">
-        <v>5688</v>
+        <v>5689</v>
       </c>
       <c r="B2810" t="s">
         <v>5563</v>
@@ -83545,12 +83565,12 @@
         <v>1790</v>
       </c>
       <c r="P2810" t="s">
-        <v>6606</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="2811" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2811" s="1" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
       <c r="B2811" t="s">
         <v>5563</v>
@@ -83565,12 +83585,12 @@
         <v>1790</v>
       </c>
       <c r="P2811" t="s">
-        <v>5690</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="2812" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2812" s="1" t="s">
-        <v>5691</v>
+        <v>5692</v>
       </c>
       <c r="B2812" t="s">
         <v>5563</v>
@@ -83585,12 +83605,12 @@
         <v>1790</v>
       </c>
       <c r="P2812" t="s">
-        <v>6607</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="2813" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2813" s="1" t="s">
-        <v>5692</v>
+        <v>5693</v>
       </c>
       <c r="B2813" t="s">
         <v>5563</v>
@@ -83605,12 +83625,12 @@
         <v>1790</v>
       </c>
       <c r="P2813" t="s">
-        <v>6608</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="2814" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2814" s="1" t="s">
-        <v>5693</v>
+        <v>5694</v>
       </c>
       <c r="B2814" t="s">
         <v>5563</v>
@@ -83625,12 +83645,12 @@
         <v>1790</v>
       </c>
       <c r="P2814" t="s">
-        <v>6609</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="2815" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2815" s="1" t="s">
-        <v>5694</v>
+        <v>5695</v>
       </c>
       <c r="B2815" t="s">
         <v>5563</v>
@@ -83645,12 +83665,12 @@
         <v>1790</v>
       </c>
       <c r="P2815" t="s">
-        <v>6610</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="2816" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2816" s="1" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="B2816" t="s">
         <v>5563</v>
@@ -83665,12 +83685,12 @@
         <v>1790</v>
       </c>
       <c r="P2816" t="s">
-        <v>6611</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="2817" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2817" s="1" t="s">
-        <v>5696</v>
+        <v>5697</v>
       </c>
       <c r="B2817" t="s">
         <v>5563</v>
@@ -83685,12 +83705,12 @@
         <v>1790</v>
       </c>
       <c r="P2817" t="s">
-        <v>6612</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="2818" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2818" s="1" t="s">
-        <v>5697</v>
+        <v>5699</v>
       </c>
       <c r="B2818" t="s">
         <v>5563</v>
@@ -83705,12 +83725,12 @@
         <v>1790</v>
       </c>
       <c r="P2818" t="s">
-        <v>5698</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="2819" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2819" s="1" t="s">
-        <v>5699</v>
+        <v>5700</v>
       </c>
       <c r="B2819" t="s">
         <v>5563</v>
@@ -83725,12 +83745,12 @@
         <v>1790</v>
       </c>
       <c r="P2819" t="s">
-        <v>6613</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="2820" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2820" s="1" t="s">
-        <v>5700</v>
+        <v>5701</v>
       </c>
       <c r="B2820" t="s">
         <v>5563</v>
@@ -83745,12 +83765,12 @@
         <v>1790</v>
       </c>
       <c r="P2820" t="s">
-        <v>6614</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="2821" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2821" s="1" t="s">
-        <v>5701</v>
+        <v>5703</v>
       </c>
       <c r="B2821" t="s">
         <v>5563</v>
@@ -83765,12 +83785,12 @@
         <v>1790</v>
       </c>
       <c r="P2821" t="s">
-        <v>5702</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="2822" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2822" s="1" t="s">
-        <v>5703</v>
+        <v>5704</v>
       </c>
       <c r="B2822" t="s">
         <v>5563</v>
@@ -83785,12 +83805,12 @@
         <v>1790</v>
       </c>
       <c r="P2822" t="s">
-        <v>6615</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="2823" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2823" s="1" t="s">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="B2823" t="s">
         <v>5563</v>
@@ -83805,12 +83825,12 @@
         <v>1790</v>
       </c>
       <c r="P2823" t="s">
-        <v>5705</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="2824" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2824" s="1" t="s">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="B2824" t="s">
         <v>5563</v>
@@ -83825,12 +83845,12 @@
         <v>1790</v>
       </c>
       <c r="P2824" t="s">
-        <v>5707</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="2825" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2825" s="1" t="s">
-        <v>5708</v>
+        <v>5709</v>
       </c>
       <c r="B2825" t="s">
         <v>5563</v>
@@ -83845,12 +83865,12 @@
         <v>1790</v>
       </c>
       <c r="P2825" t="s">
-        <v>6616</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2826" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2826" s="1" t="s">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="B2826" t="s">
         <v>5563</v>
@@ -83865,12 +83885,12 @@
         <v>1790</v>
       </c>
       <c r="P2826" t="s">
-        <v>5710</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="2827" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2827" s="1" t="s">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="B2827" t="s">
         <v>5563</v>
@@ -83885,12 +83905,12 @@
         <v>1790</v>
       </c>
       <c r="P2827" t="s">
-        <v>6617</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="2828" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2828" s="1" t="s">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="B2828" t="s">
         <v>5563</v>
@@ -83905,12 +83925,12 @@
         <v>1790</v>
       </c>
       <c r="P2828" t="s">
-        <v>6618</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="2829" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2829" s="1" t="s">
-        <v>5713</v>
+        <v>5714</v>
       </c>
       <c r="B2829" t="s">
         <v>5563</v>
@@ -83925,12 +83945,12 @@
         <v>1790</v>
       </c>
       <c r="P2829" t="s">
-        <v>6619</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="2830" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2830" s="1" t="s">
-        <v>5714</v>
+        <v>5715</v>
       </c>
       <c r="B2830" t="s">
         <v>5563</v>
@@ -83945,12 +83965,12 @@
         <v>1790</v>
       </c>
       <c r="P2830" t="s">
-        <v>6620</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="2831" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2831" s="1" t="s">
-        <v>5715</v>
+        <v>5716</v>
       </c>
       <c r="B2831" t="s">
         <v>5563</v>
@@ -83965,12 +83985,12 @@
         <v>1790</v>
       </c>
       <c r="P2831" t="s">
-        <v>6621</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="2832" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2832" s="1" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="B2832" t="s">
         <v>5563</v>
@@ -83985,12 +84005,12 @@
         <v>1790</v>
       </c>
       <c r="P2832" t="s">
-        <v>5717</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="2833" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2833" s="1" t="s">
-        <v>5718</v>
+        <v>5719</v>
       </c>
       <c r="B2833" t="s">
         <v>5563</v>
@@ -84005,12 +84025,12 @@
         <v>1790</v>
       </c>
       <c r="P2833" t="s">
-        <v>6622</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="2834" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2834" s="1" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="B2834" t="s">
         <v>5563</v>
@@ -84025,12 +84045,12 @@
         <v>1790</v>
       </c>
       <c r="P2834" t="s">
-        <v>6623</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="2835" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2835" s="1" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
       <c r="B2835" t="s">
         <v>5563</v>
@@ -84045,12 +84065,12 @@
         <v>1790</v>
       </c>
       <c r="P2835" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="2836" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2836" s="1" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="B2836" t="s">
         <v>5563</v>
@@ -84065,12 +84085,12 @@
         <v>1790</v>
       </c>
       <c r="P2836" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="2837" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2837" s="1" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="B2837" t="s">
         <v>5563</v>
@@ -84085,12 +84105,12 @@
         <v>1790</v>
       </c>
       <c r="P2837" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="2838" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2838" s="1" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
       <c r="B2838" t="s">
         <v>5563</v>
@@ -84105,12 +84125,12 @@
         <v>1790</v>
       </c>
       <c r="P2838" t="s">
-        <v>5727</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="2839" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2839" s="1" t="s">
-        <v>5728</v>
+        <v>5729</v>
       </c>
       <c r="B2839" t="s">
         <v>5563</v>
@@ -84125,12 +84145,12 @@
         <v>1790</v>
       </c>
       <c r="P2839" t="s">
-        <v>6624</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="2840" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2840" s="1" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
       <c r="B2840" t="s">
         <v>5563</v>
@@ -84145,12 +84165,12 @@
         <v>1790</v>
       </c>
       <c r="P2840" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="2841" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2841" s="1" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="B2841" t="s">
         <v>5563</v>
@@ -84165,12 +84185,12 @@
         <v>1790</v>
       </c>
       <c r="P2841" t="s">
-        <v>5732</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="2842" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2842" s="1" t="s">
-        <v>5733</v>
+        <v>5734</v>
       </c>
       <c r="B2842" t="s">
         <v>5563</v>
@@ -84185,12 +84205,12 @@
         <v>1790</v>
       </c>
       <c r="P2842" t="s">
-        <v>6625</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="2843" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2843" s="1" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="B2843" t="s">
         <v>5563</v>
@@ -84205,12 +84225,12 @@
         <v>1790</v>
       </c>
       <c r="P2843" t="s">
-        <v>5735</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="2844" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2844" s="1" t="s">
-        <v>5736</v>
+        <v>5737</v>
       </c>
       <c r="B2844" t="s">
         <v>5563</v>
@@ -84225,12 +84245,12 @@
         <v>1790</v>
       </c>
       <c r="P2844" t="s">
-        <v>6626</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="2845" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2845" s="1" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="B2845" t="s">
         <v>5563</v>
@@ -84245,12 +84265,12 @@
         <v>1790</v>
       </c>
       <c r="P2845" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="2846" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2846" s="1" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="B2846" t="s">
         <v>5563</v>
@@ -84265,12 +84285,12 @@
         <v>1790</v>
       </c>
       <c r="P2846" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="2847" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2847" s="1" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="B2847" t="s">
         <v>5563</v>
@@ -84285,12 +84305,12 @@
         <v>1790</v>
       </c>
       <c r="P2847" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="2848" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2848" s="1" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
       <c r="B2848" t="s">
         <v>5563</v>
@@ -84305,12 +84325,12 @@
         <v>1790</v>
       </c>
       <c r="P2848" t="s">
-        <v>5744</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="2849" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2849" s="1" t="s">
-        <v>5745</v>
+        <v>5746</v>
       </c>
       <c r="B2849" t="s">
         <v>5563</v>
@@ -84325,12 +84345,12 @@
         <v>1790</v>
       </c>
       <c r="P2849" t="s">
-        <v>6627</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="2850" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2850" s="1" t="s">
-        <v>5746</v>
+        <v>5747</v>
       </c>
       <c r="B2850" t="s">
         <v>5563</v>
@@ -84345,12 +84365,12 @@
         <v>1790</v>
       </c>
       <c r="P2850" t="s">
-        <v>6628</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="2851" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2851" s="1" t="s">
-        <v>5747</v>
+        <v>5748</v>
       </c>
       <c r="B2851" t="s">
         <v>5563</v>
@@ -84365,12 +84385,12 @@
         <v>1790</v>
       </c>
       <c r="P2851" t="s">
-        <v>6629</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="2852" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2852" s="1" t="s">
-        <v>5748</v>
+        <v>5749</v>
       </c>
       <c r="B2852" t="s">
         <v>5563</v>
@@ -84385,12 +84405,12 @@
         <v>1790</v>
       </c>
       <c r="P2852" t="s">
-        <v>6630</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="2853" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2853" s="1" t="s">
-        <v>5749</v>
+        <v>5750</v>
       </c>
       <c r="B2853" t="s">
         <v>5563</v>
@@ -84405,12 +84425,12 @@
         <v>1790</v>
       </c>
       <c r="P2853" t="s">
-        <v>6631</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2854" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2854" s="1" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="B2854" t="s">
         <v>5563</v>
@@ -84425,12 +84445,12 @@
         <v>1790</v>
       </c>
       <c r="P2854" t="s">
-        <v>5751</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="2855" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2855" s="1" t="s">
-        <v>5752</v>
+        <v>5753</v>
       </c>
       <c r="B2855" t="s">
         <v>5563</v>
@@ -84445,12 +84465,12 @@
         <v>1790</v>
       </c>
       <c r="P2855" t="s">
-        <v>6632</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="2856" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2856" s="1" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="B2856" t="s">
         <v>5563</v>
@@ -84465,12 +84485,12 @@
         <v>1790</v>
       </c>
       <c r="P2856" t="s">
-        <v>5754</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="2857" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2857" s="1" t="s">
-        <v>5755</v>
+        <v>5756</v>
       </c>
       <c r="B2857" t="s">
         <v>5563</v>
@@ -84485,12 +84505,12 @@
         <v>1790</v>
       </c>
       <c r="P2857" t="s">
-        <v>6633</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="2858" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2858" s="1" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="B2858" t="s">
         <v>5563</v>
@@ -84505,12 +84525,12 @@
         <v>1790</v>
       </c>
       <c r="P2858" t="s">
-        <v>5757</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="2859" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2859" s="1" t="s">
-        <v>5758</v>
+        <v>5759</v>
       </c>
       <c r="B2859" t="s">
         <v>5563</v>
@@ -84525,12 +84545,12 @@
         <v>1790</v>
       </c>
       <c r="P2859" t="s">
-        <v>6634</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="2860" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2860" s="1" t="s">
-        <v>5759</v>
+        <v>5760</v>
       </c>
       <c r="B2860" t="s">
         <v>5563</v>
@@ -84545,12 +84565,12 @@
         <v>1790</v>
       </c>
       <c r="P2860" t="s">
-        <v>6635</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="2861" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2861" s="1" t="s">
-        <v>5760</v>
+        <v>5761</v>
       </c>
       <c r="B2861" t="s">
         <v>5563</v>
@@ -84565,26 +84585,6 @@
         <v>1790</v>
       </c>
       <c r="P2861" t="s">
-        <v>6636</v>
-      </c>
-    </row>
-    <row r="2862" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2862" s="1" t="s">
-        <v>5761</v>
-      </c>
-      <c r="B2862" t="s">
-        <v>5563</v>
-      </c>
-      <c r="C2862">
-        <v>68000</v>
-      </c>
-      <c r="D2862" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2862" t="s">
-        <v>1790</v>
-      </c>
-      <c r="P2862" t="s">
         <v>6637</v>
       </c>
     </row>
